--- a/三国杀技能记录_Other.xlsx
+++ b/三国杀技能记录_Other.xlsx
@@ -1,20 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\ws\tk-xls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4D4BF8F-4C67-4D8C-B8C8-A1AF371AB878}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEC1A889-BBF4-4D30-8EB6-D59903B6EBE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5040" yWindow="1665" windowWidth="20940" windowHeight="13230" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3255" yWindow="2520" windowWidth="26880" windowHeight="13230" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2010-民扩山" sheetId="1" r:id="rId1"/>
     <sheet name="恶" sheetId="2" r:id="rId2"/>
+    <sheet name="黄巾" sheetId="3" r:id="rId3"/>
+    <sheet name="南蛮" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="289">
   <si>
     <t>编号</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -644,13 +646,871 @@
   <si>
     <t>济世医仙</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>张角</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>天公将军</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄巾</t>
+  </si>
+  <si>
+    <t>黄巾</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>每当你使用或打出一张【闪】时（在结算前），可令任意一名角色判定，若为♠，你对该角色造成2点雷电伤害。</t>
+  </si>
+  <si>
+    <t>在任意一名角色的判定牌生效前，你可以用自己的一张♠或♣牌替换之。</t>
+  </si>
+  <si>
+    <t>张宝</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>地公将军</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>真火</t>
+  </si>
+  <si>
+    <t>黑烟</t>
+  </si>
+  <si>
+    <t>鬼术</t>
+  </si>
+  <si>
+    <t>你使用的【杀】被目标角色闪避后，你指定目标角色攻击范围内的任意一名角色受到一点火焰伤害。</t>
+  </si>
+  <si>
+    <r>
+      <t>在任意一名角色的判定牌生效前，你可以用自己的一张</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Segoe UI Symbol"/>
+        <family val="2"/>
+      </rPr>
+      <t>♦</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>或</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Segoe UI Symbol"/>
+        <family val="2"/>
+      </rPr>
+      <t>♥</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>牌替换之。</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>张梁</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>人公将军</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>人公</t>
+  </si>
+  <si>
+    <t>噬尸</t>
+  </si>
+  <si>
+    <t>摸牌阶段，你可以选择执行以下行动来取代摸牌：观看一次任意一名角色的手牌，然后选择其中的一张收入手牌。</t>
+  </si>
+  <si>
+    <t>你杀死任意一名角色，自己回复至满体力。</t>
+  </si>
+  <si>
+    <t>张燕</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>黑山帅</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>飞燕</t>
+  </si>
+  <si>
+    <t>你的回合外，你可以立即对你攻击范围内的【杀】的使用来源使用一张【杀】。若如此做，你立即摸一张牌。</t>
+  </si>
+  <si>
+    <t>张曼成</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>南阳寇</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>围城</t>
+  </si>
+  <si>
+    <t>出牌阶段，你可与手牌数与你不同的一名角色拼点，若你赢，你指定目标角色跳过其下个回合的摸牌阶段或出牌阶段。每回合限用一次。</t>
+  </si>
+  <si>
+    <t>裴元绍</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>盗马贼</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>夺马</t>
+  </si>
+  <si>
+    <t>摸牌阶段可以选择少摸一张牌，而获得任意角色装备区里的一张牌。</t>
+  </si>
+  <si>
+    <t>管亥</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>暴乱的贼寇</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>借粮</t>
+  </si>
+  <si>
+    <t>当你使用【杀】对任意一名角色造成伤害时，你可以防止此伤害，改为获取该目标角色X+1张牌，X为此伤害的点数。</t>
+  </si>
+  <si>
+    <t>贴身侍卫</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>捧刀</t>
+  </si>
+  <si>
+    <t>持械</t>
+  </si>
+  <si>
+    <t>当你使用的【杀】被抵消时，你可以立即对相同目标再使用一张【杀】，若命中，造成X点伤害，X为你使用【杀】的数量。</t>
+  </si>
+  <si>
+    <t>可同时装备两件【武器】。</t>
+  </si>
+  <si>
+    <t>程远志</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>短命鬼</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>暴虐</t>
+  </si>
+  <si>
+    <t>你使用的【杀】对已受伤角色命中后造成伤害+1。</t>
+  </si>
+  <si>
+    <t>HUANG 010</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>马元义</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>电杖</t>
+  </si>
+  <si>
+    <t>雷锤</t>
+  </si>
+  <si>
+    <t>你可以将你的任意一张♠2-9之间的牌当【闪电】使用。</t>
+  </si>
+  <si>
+    <t>你使用的【杀】对目标造成伤害后，可以令目标立即判定，若为♣♠，则目标受到1点雷电伤害。</t>
+  </si>
+  <si>
+    <t>大方首领</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>主公技</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，黄巾角色可在他们各自的回合里给你一张【闪】或【闪电】。</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>锁定技</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，你不能成为黑色【杀】和【决斗】的目标。</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>孟获</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>蛮</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>南蛮王</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>祸首</t>
+  </si>
+  <si>
+    <t>再起</t>
+  </si>
+  <si>
+    <t>纵横</t>
+  </si>
+  <si>
+    <t>摸牌阶段，若你已受伤，你可以放弃摸牌并展示牌堆顶的X张牌，X为你已损失的体力值，其中每有一张红桃牌，你回复1点体力，然后弃掉这些红桃牌，将其余的牌收入手牌。</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>主公技</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：任何南蛮角色回合开始时，你可以指定任意角色为蜀势力武将。</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>锁定技</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：场上每有一名其他南蛮角色存活，你的体力上限便+1。</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>锁定技</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：【南蛮入侵】对你无效；你是任何【南蛮入侵】造成伤害的来源。</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>祝融夫人</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>刺美人</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>巨象</t>
+  </si>
+  <si>
+    <t>烈刃</t>
+  </si>
+  <si>
+    <t>暗标</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>锁定技</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：【南蛮入侵】对你无效；若其他角色使用的【南蛮入侵】在结算完时进入弃牌堆，你立即获得它。</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>你每使用【杀】或【飞刀】造成一次伤害，可与受到该伤害的角色拼点：若你赢，你获得对方的一张牌。</t>
+  </si>
+  <si>
+    <t>你使用【飞刀】无距离限制。</t>
+  </si>
+  <si>
+    <t>*</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>【飞刀】基本牌，对与你距离1以内的一名角色造成1点伤害，可以被“闪”抵消。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>金环三结</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>五溪洞人</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>勇蛮</t>
+  </si>
+  <si>
+    <t>惧龙</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>锁定技</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：你使用【杀】和【决斗】对任何角色造成伤害时，该伤害+1。</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>锁定技</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：当你使用的【杀】被蜀势力角色用黑色【闪】抵消时，你受到4点伤害。</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>朵思大王</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>秃龙洞洞主</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>毒矢</t>
+  </si>
+  <si>
+    <t>惧土</t>
+  </si>
+  <si>
+    <t>你装备“弓”或“弩”，每次造成伤害时，该伤害+1。</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>锁定技</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：你与任何蜀势力武将的距离为1，任何蜀势力武将与你的距离为1。</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>【千机弩 2】弃一张牌，本回合可再使用一张“杀”。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>【养由基弓 3】你使用“杀”对目标角色造成伤害时，你可以将其装备区里的防具弃掉。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>董荼那</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>二洞元帅</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>夺粮</t>
+  </si>
+  <si>
+    <t>惧虎</t>
+  </si>
+  <si>
+    <t>摸牌阶段，你可以少摸一张牌，若如此做，你可以指定一名角色，在该角色的回合内只可以摸一张牌。</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>锁定技</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：当你被蜀势力武将用【杀】造成伤害时，该伤害+1；当你对蜀势力武将用【杀】造成伤害时，该伤害+1。</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>带来洞主</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>山野说客</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>诱战</t>
+  </si>
+  <si>
+    <t>诈降</t>
+  </si>
+  <si>
+    <t>惧计</t>
+  </si>
+  <si>
+    <t>出牌阶段，你可以将任意数量的手牌以任意分配方式交给其他角色，若有角色收到你的牌不少于两张时，可令他对距离1以内的一名角色使用一张【杀】，无法如此做者失去1点体力。</t>
+  </si>
+  <si>
+    <t>出牌阶段，你可以将你的方片牌当【过河拆桥】使用。每回合限用一次。</t>
+  </si>
+  <si>
+    <t>当你被蜀势力武将用“锦囊”造成伤害时，他可以令你随机弃一张手牌；当你对蜀势力武将用“锦囊”造成伤害时，你可以令其随机弃一张手牌。</t>
+  </si>
+  <si>
+    <t>阿会喃</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>三洞元帅</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>献主</t>
+  </si>
+  <si>
+    <t>惧马</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>锁定技</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：当任何角色令你失去牌或增加牌，你对该角色造成1点伤害。</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>锁定技</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：当你被蜀势力武将用【杀】造成伤害时，他可以将你装备区里的一匹马弃置；当你对蜀势力武将用【杀】造成伤害时，你可以将其装备区里的一匹马弃置。</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>兀突骨</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>乌戈国之主</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>藤甲</t>
+  </si>
+  <si>
+    <t>惧火</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>锁定技</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：【南蛮入侵】，【万箭齐发】和普通【杀】对你无效。</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>锁定技</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：你每次受到火焰伤害时，该伤害+1。</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>木鹿大王</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>八纳洞洞主</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>兽化</t>
+  </si>
+  <si>
+    <t>唤兽</t>
+  </si>
+  <si>
+    <t>惧雷</t>
+  </si>
+  <si>
+    <t>出牌阶段，可令除你外所有装备区有马的玩家以此对与其距离最近的另一名角色使用一张【杀】，无法如此做者失去1点体力。每回合限用一次。</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>主动技</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，-2血后再-1生命上限，以后所有自己出的【杀】攻击+2，但一个回合只能出一张【杀】（决斗内除外，但若赢了，减血还是+2），并且不能装备任何装备。</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>锁定技</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：你每次受到雷电伤害时，该伤害+1。</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>鄂焕</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>势不可挡</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>勇或</t>
+  </si>
+  <si>
+    <t>在你的回合外，任意角色对你造成一点伤害，则你进行一次判定：若为黑色，则你可以对你攻击范围内的一名角色使用一张【杀】；若为红色，则你立即获得对你造成伤害的角色的武将技直到你下回合结束阶段，被获得武将技的角色立即失去武将技知道他的下回合开始阶段。</t>
+  </si>
+  <si>
+    <t>沙摩柯</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>转世魔将</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>蛮荒</t>
+  </si>
+  <si>
+    <t>出牌阶段，你可以选择任一角色进行拼点：若你赢，你可以将双方拼点牌当兵粮寸断（无视距离）使用；反之，你不能使用基本牌和延时锦囊牌直到回合结束。</t>
+  </si>
+  <si>
+    <t>贺纳哈</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>马术</t>
+  </si>
+  <si>
+    <t>战魂</t>
+  </si>
+  <si>
+    <t>你与其他角色的距离-1。</t>
+  </si>
+  <si>
+    <t>当你进入濒死状态，可以展示牌堆顶的七张牌，每一张锦囊牌你回复一体力（最大为四），然后你将分发锦囊牌给其他角色，其他牌收为手牌。</t>
+  </si>
+  <si>
+    <t>藤甲兵</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>无敌蛮兵</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>无伤</t>
+  </si>
+  <si>
+    <t>每当一名角色受到伤害后，你可以弃一张手牌，令该角色摸三张牌，然后该角色选择一项：弃置两张牌，或再次受到伤害来源1点伤害。</t>
+  </si>
+  <si>
+    <t>你受到火焰伤害时，伤害+1。</t>
+  </si>
+  <si>
+    <t>孟尤</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>虎啸</t>
+  </si>
+  <si>
+    <t>助兄</t>
+  </si>
+  <si>
+    <t>当你打出一张【闪】时，进行一次判定，若为黑牌，你可以无视距离对任意一名角色出杀，此杀造成的伤害+1。</t>
+  </si>
+  <si>
+    <t>当你死亡时，摸2张牌，和你所有牌交给任意一名角色。</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -684,6 +1544,19 @@
       <b/>
       <sz val="14"/>
       <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FFFF0000"/>
+      <name val="Segoe UI Symbol"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FFC00000"/>
       <name val="微软雅黑"/>
       <family val="2"/>
       <charset val="134"/>
@@ -803,7 +1676,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -812,216 +1685,237 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="3" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1306,18 +2200,18 @@
   <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection sqref="A1:G18"/>
+      <selection activeCell="G14" sqref="A1:G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.25" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="16.375" style="8" customWidth="1"/>
-    <col min="2" max="3" width="9" style="8"/>
-    <col min="4" max="4" width="8.25" style="8" customWidth="1"/>
-    <col min="5" max="5" width="25" style="8" customWidth="1"/>
-    <col min="6" max="6" width="9" style="8"/>
-    <col min="7" max="7" width="85.625" style="8" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="8"/>
+    <col min="1" max="1" width="16.375" style="5" customWidth="1"/>
+    <col min="2" max="3" width="9" style="5"/>
+    <col min="4" max="4" width="8.25" style="5" customWidth="1"/>
+    <col min="5" max="5" width="25" style="5" customWidth="1"/>
+    <col min="6" max="6" width="9" style="5"/>
+    <col min="7" max="7" width="85.625" style="5" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="2" customFormat="1" ht="21" x14ac:dyDescent="0.2">
@@ -1344,308 +2238,333 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="4">
+      <c r="D2" s="41">
         <v>3</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="G2" s="4" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="6" t="s">
+      <c r="A3" s="40"/>
+      <c r="B3" s="40"/>
+      <c r="C3" s="40"/>
+      <c r="D3" s="42"/>
+      <c r="E3" s="43"/>
+      <c r="F3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="G3" s="7" t="s">
+      <c r="G3" s="4" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="41.25" x14ac:dyDescent="0.35">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="41">
         <v>4</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="43" t="s">
         <v>20</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="F4" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="G4" s="4" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="40.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="6" t="s">
+      <c r="A5" s="40"/>
+      <c r="B5" s="40"/>
+      <c r="C5" s="40"/>
+      <c r="D5" s="42"/>
+      <c r="E5" s="43"/>
+      <c r="F5" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="G5" s="4" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="44" t="s">
         <v>24</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="C6" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="11">
+      <c r="D6" s="45">
         <v>4</v>
       </c>
-      <c r="E6" s="12" t="s">
+      <c r="E6" s="47" t="s">
         <v>28</v>
       </c>
-      <c r="F6" s="13" t="s">
+      <c r="F6" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="G6" s="14" t="s">
+      <c r="G6" s="7" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="41.25" x14ac:dyDescent="0.35">
-      <c r="A7" s="10"/>
-      <c r="B7" s="10"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="15"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="13" t="s">
+      <c r="A7" s="44"/>
+      <c r="B7" s="44"/>
+      <c r="C7" s="44"/>
+      <c r="D7" s="46"/>
+      <c r="E7" s="47"/>
+      <c r="F7" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="G7" s="14" t="s">
+      <c r="G7" s="7" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="60.75" x14ac:dyDescent="0.35">
-      <c r="A8" s="10" t="s">
+      <c r="A8" s="44" t="s">
         <v>26</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="44" t="s">
         <v>27</v>
       </c>
-      <c r="C8" s="10" t="s">
+      <c r="C8" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="11">
+      <c r="D8" s="45">
         <v>4</v>
       </c>
-      <c r="E8" s="12" t="s">
+      <c r="E8" s="47" t="s">
         <v>29</v>
       </c>
-      <c r="F8" s="13" t="s">
+      <c r="F8" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="G8" s="14" t="s">
+      <c r="G8" s="7" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="40.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="10"/>
-      <c r="B9" s="10"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="15"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="13" t="s">
+      <c r="A9" s="44"/>
+      <c r="B9" s="44"/>
+      <c r="C9" s="44"/>
+      <c r="D9" s="46"/>
+      <c r="E9" s="47"/>
+      <c r="F9" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="G9" s="14" t="s">
+      <c r="G9" s="7" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="21" x14ac:dyDescent="0.35">
-      <c r="A10" s="27" t="s">
+      <c r="A10" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="B10" s="27" t="s">
+      <c r="B10" s="35" t="s">
         <v>39</v>
       </c>
-      <c r="C10" s="27" t="s">
+      <c r="C10" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="28">
+      <c r="D10" s="36">
         <v>3</v>
       </c>
-      <c r="E10" s="29" t="s">
+      <c r="E10" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="F10" s="23" t="s">
+      <c r="F10" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="G10" s="24" t="s">
+      <c r="G10" s="12" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="60.75" x14ac:dyDescent="0.35">
-      <c r="A11" s="27"/>
-      <c r="B11" s="27"/>
-      <c r="C11" s="27"/>
-      <c r="D11" s="30"/>
-      <c r="E11" s="29"/>
-      <c r="F11" s="23" t="s">
+      <c r="A11" s="35"/>
+      <c r="B11" s="35"/>
+      <c r="C11" s="35"/>
+      <c r="D11" s="37"/>
+      <c r="E11" s="39"/>
+      <c r="F11" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="G11" s="24" t="s">
+      <c r="G11" s="12" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="21" x14ac:dyDescent="0.35">
-      <c r="A12" s="27"/>
-      <c r="B12" s="27"/>
-      <c r="C12" s="27"/>
-      <c r="D12" s="31"/>
-      <c r="E12" s="29"/>
-      <c r="F12" s="23" t="s">
+      <c r="A12" s="35"/>
+      <c r="B12" s="35"/>
+      <c r="C12" s="35"/>
+      <c r="D12" s="38"/>
+      <c r="E12" s="39"/>
+      <c r="F12" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="G12" s="24" t="s">
+      <c r="G12" s="12" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="40.5" x14ac:dyDescent="0.35">
-      <c r="A13" s="22" t="s">
+      <c r="A13" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="B13" s="22" t="s">
+      <c r="B13" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="C13" s="22" t="s">
+      <c r="C13" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D13" s="22">
+      <c r="D13" s="10">
         <v>4</v>
       </c>
-      <c r="E13" s="23" t="s">
+      <c r="E13" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="F13" s="23" t="s">
+      <c r="F13" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="G13" s="24" t="s">
+      <c r="G13" s="12" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="40.5" x14ac:dyDescent="0.35">
-      <c r="A14" s="16" t="s">
+      <c r="A14" s="30" t="s">
         <v>48</v>
       </c>
-      <c r="B14" s="16" t="s">
+      <c r="B14" s="30" t="s">
         <v>50</v>
       </c>
-      <c r="C14" s="16" t="s">
+      <c r="C14" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="17">
+      <c r="D14" s="31">
         <v>3</v>
       </c>
-      <c r="E14" s="18" t="s">
+      <c r="E14" s="34" t="s">
         <v>67</v>
       </c>
-      <c r="F14" s="19" t="s">
+      <c r="F14" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="G14" s="20" t="s">
+      <c r="G14" s="9" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="40.5" x14ac:dyDescent="0.35">
-      <c r="A15" s="16"/>
-      <c r="B15" s="16"/>
-      <c r="C15" s="16"/>
+      <c r="A15" s="30"/>
+      <c r="B15" s="30"/>
+      <c r="C15" s="30"/>
       <c r="D15" s="32"/>
-      <c r="E15" s="18"/>
-      <c r="F15" s="19" t="s">
+      <c r="E15" s="34"/>
+      <c r="F15" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="G15" s="20" t="s">
+      <c r="G15" s="9" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="40.5" x14ac:dyDescent="0.35">
-      <c r="A16" s="16"/>
-      <c r="B16" s="16"/>
-      <c r="C16" s="16"/>
-      <c r="D16" s="21"/>
-      <c r="E16" s="18"/>
-      <c r="F16" s="19" t="s">
+      <c r="A16" s="30"/>
+      <c r="B16" s="30"/>
+      <c r="C16" s="30"/>
+      <c r="D16" s="33"/>
+      <c r="E16" s="34"/>
+      <c r="F16" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="G16" s="20" t="s">
+      <c r="G16" s="9" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="60.75" x14ac:dyDescent="0.35">
-      <c r="A17" s="17" t="s">
+      <c r="A17" s="31" t="s">
         <v>49</v>
       </c>
-      <c r="B17" s="17" t="s">
+      <c r="B17" s="31" t="s">
         <v>51</v>
       </c>
-      <c r="C17" s="17" t="s">
+      <c r="C17" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="D17" s="17">
+      <c r="D17" s="31">
         <v>4</v>
       </c>
-      <c r="E17" s="33" t="s">
+      <c r="E17" s="28" t="s">
         <v>66</v>
       </c>
-      <c r="F17" s="19" t="s">
+      <c r="F17" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="G17" s="20" t="s">
+      <c r="G17" s="9" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="21" x14ac:dyDescent="0.35">
-      <c r="A18" s="21"/>
-      <c r="B18" s="21"/>
-      <c r="C18" s="21"/>
-      <c r="D18" s="21"/>
-      <c r="E18" s="34"/>
-      <c r="F18" s="19" t="s">
+      <c r="A18" s="33"/>
+      <c r="B18" s="33"/>
+      <c r="C18" s="33"/>
+      <c r="D18" s="33"/>
+      <c r="E18" s="29"/>
+      <c r="F18" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="G18" s="20" t="s">
+      <c r="G18" s="9" t="s">
         <v>61</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="35">
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="B10:B12"/>
+    <mergeCell ref="C10:C12"/>
+    <mergeCell ref="D10:D12"/>
+    <mergeCell ref="E10:E12"/>
     <mergeCell ref="E17:E18"/>
     <mergeCell ref="A14:A16"/>
     <mergeCell ref="B14:B16"/>
@@ -1656,31 +2575,6 @@
     <mergeCell ref="B17:B18"/>
     <mergeCell ref="C17:C18"/>
     <mergeCell ref="D17:D18"/>
-    <mergeCell ref="A10:A12"/>
-    <mergeCell ref="B10:B12"/>
-    <mergeCell ref="C10:C12"/>
-    <mergeCell ref="D10:D12"/>
-    <mergeCell ref="E10:E12"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:E3"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1692,20 +2586,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1020B2C-B1AD-4587-A71D-AB5DBF07C9D0}">
   <dimension ref="A1:G27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="G20" sqref="A1:G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.375" style="38" customWidth="1"/>
+    <col min="1" max="1" width="16.375" style="17" customWidth="1"/>
     <col min="4" max="4" width="8.25" customWidth="1"/>
     <col min="5" max="5" width="25" customWidth="1"/>
     <col min="7" max="7" width="83.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="21" x14ac:dyDescent="0.2">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -1728,522 +2622,1594 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="60.75" x14ac:dyDescent="0.2">
-      <c r="A2" s="40" t="s">
+      <c r="A2" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="B2" s="26" t="s">
+      <c r="B2" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="C2" s="26" t="s">
+      <c r="C2" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="35">
+      <c r="D2" s="15">
         <v>4</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="G2" s="4" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A3" s="37" t="s">
+      <c r="A3" s="76" t="s">
         <v>68</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="40" t="s">
         <v>73</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3" s="41">
         <v>4</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="43" t="s">
         <v>74</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F3" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="G3" s="7" t="s">
+      <c r="G3" s="4" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="40.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="37"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="6" t="s">
+      <c r="A4" s="76"/>
+      <c r="B4" s="40"/>
+      <c r="C4" s="40"/>
+      <c r="D4" s="42"/>
+      <c r="E4" s="43"/>
+      <c r="F4" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="G4" s="4" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A5" s="37" t="s">
+      <c r="A5" s="76" t="s">
         <v>68</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="40" t="s">
         <v>79</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="41">
         <v>4</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="43" t="s">
         <v>84</v>
       </c>
-      <c r="F5" s="6" t="s">
+      <c r="F5" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="G5" s="4" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A6" s="37"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="6" t="s">
+      <c r="A6" s="76"/>
+      <c r="B6" s="40"/>
+      <c r="C6" s="40"/>
+      <c r="D6" s="42"/>
+      <c r="E6" s="43"/>
+      <c r="F6" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="G6" s="7" t="s">
+      <c r="G6" s="4" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="40.5" x14ac:dyDescent="0.2">
-      <c r="A7" s="39" t="s">
+      <c r="A7" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="B7" s="25" t="s">
+      <c r="B7" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="C7" s="25" t="s">
+      <c r="C7" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="25">
+      <c r="D7" s="13">
         <v>4</v>
       </c>
-      <c r="E7" s="13" t="s">
+      <c r="E7" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="F7" s="13" t="s">
+      <c r="F7" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="G7" s="14" t="s">
+      <c r="G7" s="7" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="40.5" x14ac:dyDescent="0.2">
-      <c r="A8" s="39" t="s">
+      <c r="A8" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="B8" s="25" t="s">
+      <c r="B8" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="C8" s="25" t="s">
+      <c r="C8" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="25">
+      <c r="D8" s="13">
         <v>4</v>
       </c>
-      <c r="E8" s="13" t="s">
+      <c r="E8" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="F8" s="13" t="s">
+      <c r="F8" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="G8" s="14" t="s">
+      <c r="G8" s="7" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="41" t="s">
+      <c r="A9" s="70" t="s">
         <v>68</v>
       </c>
-      <c r="B9" s="28" t="s">
+      <c r="B9" s="36" t="s">
         <v>92</v>
       </c>
-      <c r="C9" s="28" t="s">
+      <c r="C9" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="28">
+      <c r="D9" s="36">
         <v>3</v>
       </c>
-      <c r="E9" s="42" t="s">
+      <c r="E9" s="73" t="s">
         <v>93</v>
       </c>
-      <c r="F9" s="23" t="s">
+      <c r="F9" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="G9" s="24" t="s">
+      <c r="G9" s="12" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A10" s="43"/>
-      <c r="B10" s="30"/>
-      <c r="C10" s="30"/>
-      <c r="D10" s="30"/>
-      <c r="E10" s="44"/>
-      <c r="F10" s="23" t="s">
+      <c r="A10" s="71"/>
+      <c r="B10" s="37"/>
+      <c r="C10" s="37"/>
+      <c r="D10" s="37"/>
+      <c r="E10" s="74"/>
+      <c r="F10" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="G10" s="24" t="s">
+      <c r="G10" s="12" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="40.5" x14ac:dyDescent="0.2">
-      <c r="A11" s="45"/>
-      <c r="B11" s="31"/>
-      <c r="C11" s="31"/>
-      <c r="D11" s="31"/>
-      <c r="E11" s="46"/>
-      <c r="F11" s="23" t="s">
+      <c r="A11" s="72"/>
+      <c r="B11" s="38"/>
+      <c r="C11" s="38"/>
+      <c r="D11" s="38"/>
+      <c r="E11" s="75"/>
+      <c r="F11" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="G11" s="24" t="s">
+      <c r="G11" s="12" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A12" s="47" t="s">
+      <c r="A12" s="60" t="s">
         <v>68</v>
       </c>
-      <c r="B12" s="27" t="s">
+      <c r="B12" s="35" t="s">
         <v>100</v>
       </c>
-      <c r="C12" s="27" t="s">
+      <c r="C12" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="D12" s="27">
+      <c r="D12" s="35">
         <v>3</v>
       </c>
-      <c r="E12" s="29" t="s">
+      <c r="E12" s="39" t="s">
         <v>101</v>
       </c>
-      <c r="F12" s="23" t="s">
+      <c r="F12" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="G12" s="24" t="s">
+      <c r="G12" s="12" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A13" s="47"/>
-      <c r="B13" s="27"/>
-      <c r="C13" s="27"/>
-      <c r="D13" s="27"/>
-      <c r="E13" s="29"/>
-      <c r="F13" s="23" t="s">
+      <c r="A13" s="60"/>
+      <c r="B13" s="35"/>
+      <c r="C13" s="35"/>
+      <c r="D13" s="35"/>
+      <c r="E13" s="39"/>
+      <c r="F13" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="G13" s="24" t="s">
+      <c r="G13" s="12" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="48" t="s">
+      <c r="A14" s="61" t="s">
         <v>68</v>
       </c>
-      <c r="B14" s="49" t="s">
+      <c r="B14" s="64" t="s">
         <v>106</v>
       </c>
-      <c r="C14" s="49" t="s">
+      <c r="C14" s="64" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="49">
+      <c r="D14" s="64">
         <v>4</v>
       </c>
-      <c r="E14" s="50" t="s">
+      <c r="E14" s="67" t="s">
         <v>107</v>
       </c>
-      <c r="F14" s="51" t="s">
+      <c r="F14" s="20" t="s">
         <v>108</v>
       </c>
-      <c r="G14" s="52" t="s">
+      <c r="G14" s="21" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A15" s="53"/>
-      <c r="B15" s="54"/>
-      <c r="C15" s="54"/>
-      <c r="D15" s="54"/>
-      <c r="E15" s="55"/>
-      <c r="F15" s="51" t="s">
+      <c r="A15" s="62"/>
+      <c r="B15" s="65"/>
+      <c r="C15" s="65"/>
+      <c r="D15" s="65"/>
+      <c r="E15" s="68"/>
+      <c r="F15" s="20" t="s">
         <v>109</v>
       </c>
-      <c r="G15" s="52" t="s">
+      <c r="G15" s="21" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="40.5" x14ac:dyDescent="0.2">
-      <c r="A16" s="56"/>
-      <c r="B16" s="57"/>
-      <c r="C16" s="57"/>
-      <c r="D16" s="57"/>
-      <c r="E16" s="58"/>
-      <c r="F16" s="51" t="s">
+      <c r="A16" s="63"/>
+      <c r="B16" s="66"/>
+      <c r="C16" s="66"/>
+      <c r="D16" s="66"/>
+      <c r="E16" s="69"/>
+      <c r="F16" s="20" t="s">
         <v>110</v>
       </c>
-      <c r="G16" s="52" t="s">
+      <c r="G16" s="21" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A17" s="48" t="s">
+      <c r="A17" s="61" t="s">
         <v>68</v>
       </c>
-      <c r="B17" s="49" t="s">
+      <c r="B17" s="64" t="s">
         <v>114</v>
       </c>
-      <c r="C17" s="49" t="s">
+      <c r="C17" s="64" t="s">
         <v>9</v>
       </c>
-      <c r="D17" s="49">
+      <c r="D17" s="64">
         <v>4</v>
       </c>
-      <c r="E17" s="50" t="s">
+      <c r="E17" s="67" t="s">
         <v>115</v>
       </c>
-      <c r="F17" s="51" t="s">
+      <c r="F17" s="20" t="s">
         <v>116</v>
       </c>
-      <c r="G17" s="52" t="s">
+      <c r="G17" s="21" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A18" s="53"/>
-      <c r="B18" s="54"/>
-      <c r="C18" s="54"/>
-      <c r="D18" s="54"/>
-      <c r="E18" s="55"/>
-      <c r="F18" s="51" t="s">
+      <c r="A18" s="62"/>
+      <c r="B18" s="65"/>
+      <c r="C18" s="65"/>
+      <c r="D18" s="65"/>
+      <c r="E18" s="68"/>
+      <c r="F18" s="20" t="s">
         <v>117</v>
       </c>
-      <c r="G18" s="52" t="s">
+      <c r="G18" s="21" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A19" s="56"/>
-      <c r="B19" s="57"/>
-      <c r="C19" s="57"/>
-      <c r="D19" s="57"/>
-      <c r="E19" s="58"/>
-      <c r="F19" s="51" t="s">
+      <c r="A19" s="63"/>
+      <c r="B19" s="66"/>
+      <c r="C19" s="66"/>
+      <c r="D19" s="66"/>
+      <c r="E19" s="69"/>
+      <c r="F19" s="20" t="s">
         <v>118</v>
       </c>
-      <c r="G19" s="52" t="s">
+      <c r="G19" s="21" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="40.5" x14ac:dyDescent="0.2">
-      <c r="A20" s="59" t="s">
+      <c r="A20" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="B20" s="60" t="s">
+      <c r="B20" s="23" t="s">
         <v>122</v>
       </c>
-      <c r="C20" s="60" t="s">
+      <c r="C20" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="D20" s="60">
+      <c r="D20" s="23">
         <v>4</v>
       </c>
-      <c r="E20" s="51" t="s">
+      <c r="E20" s="20" t="s">
         <v>123</v>
       </c>
-      <c r="F20" s="51" t="s">
+      <c r="F20" s="20" t="s">
         <v>124</v>
       </c>
-      <c r="G20" s="52" t="s">
+      <c r="G20" s="21" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="60.75" x14ac:dyDescent="0.2">
-      <c r="A21" s="61" t="s">
+      <c r="A21" s="57" t="s">
         <v>68</v>
       </c>
-      <c r="B21" s="62" t="s">
+      <c r="B21" s="58" t="s">
         <v>126</v>
       </c>
-      <c r="C21" s="62" t="s">
+      <c r="C21" s="58" t="s">
         <v>127</v>
       </c>
-      <c r="D21" s="62">
+      <c r="D21" s="58">
         <v>5</v>
       </c>
-      <c r="E21" s="63" t="s">
+      <c r="E21" s="59" t="s">
         <v>128</v>
       </c>
-      <c r="F21" s="64" t="s">
+      <c r="F21" s="26" t="s">
         <v>129</v>
       </c>
-      <c r="G21" s="65" t="s">
+      <c r="G21" s="27" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="40.5" x14ac:dyDescent="0.2">
-      <c r="A22" s="61"/>
-      <c r="B22" s="62"/>
-      <c r="C22" s="62"/>
-      <c r="D22" s="62"/>
-      <c r="E22" s="63"/>
-      <c r="F22" s="64" t="s">
+      <c r="A22" s="57"/>
+      <c r="B22" s="58"/>
+      <c r="C22" s="58"/>
+      <c r="D22" s="58"/>
+      <c r="E22" s="59"/>
+      <c r="F22" s="26" t="s">
         <v>130</v>
       </c>
-      <c r="G22" s="65" t="s">
+      <c r="G22" s="27" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="60.75" x14ac:dyDescent="0.2">
-      <c r="A23" s="61" t="s">
+      <c r="A23" s="57" t="s">
         <v>68</v>
       </c>
-      <c r="B23" s="62" t="s">
+      <c r="B23" s="58" t="s">
         <v>50</v>
       </c>
-      <c r="C23" s="62" t="s">
+      <c r="C23" s="58" t="s">
         <v>127</v>
       </c>
-      <c r="D23" s="62">
+      <c r="D23" s="58">
         <v>3</v>
       </c>
-      <c r="E23" s="63" t="s">
+      <c r="E23" s="59" t="s">
         <v>133</v>
       </c>
-      <c r="F23" s="64" t="s">
+      <c r="F23" s="26" t="s">
         <v>134</v>
       </c>
-      <c r="G23" s="65" t="s">
+      <c r="G23" s="27" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A24" s="61"/>
-      <c r="B24" s="62"/>
-      <c r="C24" s="62"/>
-      <c r="D24" s="62"/>
-      <c r="E24" s="63"/>
-      <c r="F24" s="64" t="s">
+      <c r="A24" s="57"/>
+      <c r="B24" s="58"/>
+      <c r="C24" s="58"/>
+      <c r="D24" s="58"/>
+      <c r="E24" s="59"/>
+      <c r="F24" s="26" t="s">
         <v>54</v>
       </c>
-      <c r="G24" s="65" t="s">
+      <c r="G24" s="27" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="40.5" x14ac:dyDescent="0.2">
-      <c r="A25" s="66" t="s">
+      <c r="A25" s="48" t="s">
         <v>68</v>
       </c>
-      <c r="B25" s="67" t="s">
+      <c r="B25" s="51" t="s">
         <v>137</v>
       </c>
-      <c r="C25" s="67" t="s">
+      <c r="C25" s="51" t="s">
         <v>138</v>
       </c>
-      <c r="D25" s="67">
+      <c r="D25" s="51">
         <v>3</v>
       </c>
-      <c r="E25" s="68" t="s">
+      <c r="E25" s="54" t="s">
         <v>145</v>
       </c>
-      <c r="F25" s="64" t="s">
+      <c r="F25" s="26" t="s">
         <v>139</v>
       </c>
-      <c r="G25" s="65" t="s">
+      <c r="G25" s="27" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="40.5" x14ac:dyDescent="0.2">
-      <c r="A26" s="69"/>
-      <c r="B26" s="70"/>
-      <c r="C26" s="70"/>
-      <c r="D26" s="70"/>
-      <c r="E26" s="71"/>
-      <c r="F26" s="64" t="s">
+      <c r="A26" s="49"/>
+      <c r="B26" s="52"/>
+      <c r="C26" s="52"/>
+      <c r="D26" s="52"/>
+      <c r="E26" s="55"/>
+      <c r="F26" s="26" t="s">
         <v>140</v>
       </c>
-      <c r="G26" s="65" t="s">
+      <c r="G26" s="27" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A27" s="72"/>
-      <c r="B27" s="73"/>
-      <c r="C27" s="73"/>
-      <c r="D27" s="73"/>
-      <c r="E27" s="74"/>
-      <c r="F27" s="64" t="s">
+      <c r="A27" s="50"/>
+      <c r="B27" s="53"/>
+      <c r="C27" s="53"/>
+      <c r="D27" s="53"/>
+      <c r="E27" s="56"/>
+      <c r="F27" s="26" t="s">
         <v>141</v>
       </c>
-      <c r="G27" s="65" t="s">
+      <c r="G27" s="27" t="s">
         <v>144</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="45">
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="A14:A16"/>
+    <mergeCell ref="B14:B16"/>
+    <mergeCell ref="C14:C16"/>
+    <mergeCell ref="D14:D16"/>
+    <mergeCell ref="E14:E16"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="C9:C11"/>
+    <mergeCell ref="D9:D11"/>
+    <mergeCell ref="E9:E11"/>
+    <mergeCell ref="A17:A19"/>
+    <mergeCell ref="B17:B19"/>
+    <mergeCell ref="C17:C19"/>
+    <mergeCell ref="D17:D19"/>
+    <mergeCell ref="E17:E19"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="E21:E22"/>
     <mergeCell ref="A25:A27"/>
     <mergeCell ref="B25:B27"/>
     <mergeCell ref="C25:C27"/>
     <mergeCell ref="D25:D27"/>
     <mergeCell ref="E25:E27"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="E12:E13"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23AA394C-E7D3-447E-9C08-D599E302E2F5}">
+  <dimension ref="A1:G18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I10" sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="16.375" customWidth="1"/>
+    <col min="4" max="4" width="8.25" customWidth="1"/>
+    <col min="5" max="5" width="25" customWidth="1"/>
+    <col min="7" max="7" width="93.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="21" x14ac:dyDescent="0.2">
+      <c r="A1" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="40.5" x14ac:dyDescent="0.2">
+      <c r="A2" s="61" t="s">
+        <v>68</v>
+      </c>
+      <c r="B2" s="64" t="s">
+        <v>146</v>
+      </c>
+      <c r="C2" s="64" t="s">
+        <v>149</v>
+      </c>
+      <c r="D2" s="64">
+        <v>3</v>
+      </c>
+      <c r="E2" s="67" t="s">
+        <v>147</v>
+      </c>
+      <c r="F2" s="20" t="s">
+        <v>108</v>
+      </c>
+      <c r="G2" s="21" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="20.25" x14ac:dyDescent="0.2">
+      <c r="A3" s="62"/>
+      <c r="B3" s="65"/>
+      <c r="C3" s="65"/>
+      <c r="D3" s="65"/>
+      <c r="E3" s="68"/>
+      <c r="F3" s="20" t="s">
+        <v>110</v>
+      </c>
+      <c r="G3" s="21" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="21" x14ac:dyDescent="0.2">
+      <c r="A4" s="63"/>
+      <c r="B4" s="66"/>
+      <c r="C4" s="66"/>
+      <c r="D4" s="66"/>
+      <c r="E4" s="69"/>
+      <c r="F4" s="20" t="s">
+        <v>148</v>
+      </c>
+      <c r="G4" s="21" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="40.5" x14ac:dyDescent="0.2">
+      <c r="A5" s="61" t="s">
+        <v>68</v>
+      </c>
+      <c r="B5" s="64" t="s">
+        <v>152</v>
+      </c>
+      <c r="C5" s="64" t="s">
+        <v>149</v>
+      </c>
+      <c r="D5" s="64">
+        <v>3</v>
+      </c>
+      <c r="E5" s="67" t="s">
+        <v>153</v>
+      </c>
+      <c r="F5" s="20" t="s">
+        <v>154</v>
+      </c>
+      <c r="G5" s="21" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="21" x14ac:dyDescent="0.2">
+      <c r="A6" s="62"/>
+      <c r="B6" s="65"/>
+      <c r="C6" s="65"/>
+      <c r="D6" s="65"/>
+      <c r="E6" s="68"/>
+      <c r="F6" s="20" t="s">
+        <v>155</v>
+      </c>
+      <c r="G6" s="21" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="20.25" x14ac:dyDescent="0.2">
+      <c r="A7" s="63"/>
+      <c r="B7" s="66"/>
+      <c r="C7" s="66"/>
+      <c r="D7" s="66"/>
+      <c r="E7" s="69"/>
+      <c r="F7" s="20" t="s">
+        <v>156</v>
+      </c>
+      <c r="G7" s="21" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="40.5" x14ac:dyDescent="0.2">
+      <c r="A8" s="77" t="s">
+        <v>68</v>
+      </c>
+      <c r="B8" s="78" t="s">
+        <v>159</v>
+      </c>
+      <c r="C8" s="78" t="s">
+        <v>149</v>
+      </c>
+      <c r="D8" s="78">
+        <v>4</v>
+      </c>
+      <c r="E8" s="79" t="s">
+        <v>160</v>
+      </c>
+      <c r="F8" s="20" t="s">
+        <v>161</v>
+      </c>
+      <c r="G8" s="21" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="20.25" x14ac:dyDescent="0.2">
+      <c r="A9" s="77"/>
+      <c r="B9" s="78"/>
+      <c r="C9" s="78"/>
+      <c r="D9" s="78"/>
+      <c r="E9" s="79"/>
+      <c r="F9" s="20" t="s">
+        <v>162</v>
+      </c>
+      <c r="G9" s="21" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="40.5" x14ac:dyDescent="0.2">
+      <c r="A10" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="B10" s="23" t="s">
+        <v>165</v>
+      </c>
+      <c r="C10" s="23" t="s">
+        <v>149</v>
+      </c>
+      <c r="D10" s="23">
+        <v>4</v>
+      </c>
+      <c r="E10" s="20" t="s">
+        <v>166</v>
+      </c>
+      <c r="F10" s="20" t="s">
+        <v>167</v>
+      </c>
+      <c r="G10" s="21" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="40.5" x14ac:dyDescent="0.2">
+      <c r="A11" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="B11" s="23" t="s">
+        <v>169</v>
+      </c>
+      <c r="C11" s="23" t="s">
+        <v>149</v>
+      </c>
+      <c r="D11" s="23">
+        <v>4</v>
+      </c>
+      <c r="E11" s="20" t="s">
+        <v>170</v>
+      </c>
+      <c r="F11" s="20" t="s">
+        <v>171</v>
+      </c>
+      <c r="G11" s="21" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="20.25" x14ac:dyDescent="0.2">
+      <c r="A12" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="B12" s="23" t="s">
+        <v>173</v>
+      </c>
+      <c r="C12" s="23" t="s">
+        <v>149</v>
+      </c>
+      <c r="D12" s="23">
+        <v>4</v>
+      </c>
+      <c r="E12" s="20" t="s">
+        <v>174</v>
+      </c>
+      <c r="F12" s="20" t="s">
+        <v>175</v>
+      </c>
+      <c r="G12" s="21" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="40.5" x14ac:dyDescent="0.2">
+      <c r="A13" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="B13" s="23" t="s">
+        <v>177</v>
+      </c>
+      <c r="C13" s="23" t="s">
+        <v>149</v>
+      </c>
+      <c r="D13" s="23">
+        <v>4</v>
+      </c>
+      <c r="E13" s="20" t="s">
+        <v>178</v>
+      </c>
+      <c r="F13" s="20" t="s">
+        <v>179</v>
+      </c>
+      <c r="G13" s="21" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="40.5" x14ac:dyDescent="0.2">
+      <c r="A14" s="77" t="s">
+        <v>68</v>
+      </c>
+      <c r="B14" s="78" t="s">
+        <v>69</v>
+      </c>
+      <c r="C14" s="78" t="s">
+        <v>149</v>
+      </c>
+      <c r="D14" s="78">
+        <v>4</v>
+      </c>
+      <c r="E14" s="79" t="s">
+        <v>181</v>
+      </c>
+      <c r="F14" s="20" t="s">
+        <v>182</v>
+      </c>
+      <c r="G14" s="21" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="20.25" x14ac:dyDescent="0.2">
+      <c r="A15" s="77"/>
+      <c r="B15" s="78"/>
+      <c r="C15" s="78"/>
+      <c r="D15" s="78"/>
+      <c r="E15" s="79"/>
+      <c r="F15" s="20" t="s">
+        <v>183</v>
+      </c>
+      <c r="G15" s="21" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="20.25" x14ac:dyDescent="0.2">
+      <c r="A16" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="B16" s="23" t="s">
+        <v>186</v>
+      </c>
+      <c r="C16" s="23" t="s">
+        <v>149</v>
+      </c>
+      <c r="D16" s="23">
+        <v>4</v>
+      </c>
+      <c r="E16" s="20" t="s">
+        <v>187</v>
+      </c>
+      <c r="F16" s="20" t="s">
+        <v>188</v>
+      </c>
+      <c r="G16" s="21" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="20.25" x14ac:dyDescent="0.2">
+      <c r="A17" s="77" t="s">
+        <v>190</v>
+      </c>
+      <c r="B17" s="78" t="s">
+        <v>191</v>
+      </c>
+      <c r="C17" s="78" t="s">
+        <v>149</v>
+      </c>
+      <c r="D17" s="78">
+        <v>4</v>
+      </c>
+      <c r="E17" s="79" t="s">
+        <v>196</v>
+      </c>
+      <c r="F17" s="20" t="s">
+        <v>192</v>
+      </c>
+      <c r="G17" s="21" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="40.5" x14ac:dyDescent="0.2">
+      <c r="A18" s="77"/>
+      <c r="B18" s="78"/>
+      <c r="C18" s="78"/>
+      <c r="D18" s="78"/>
+      <c r="E18" s="79"/>
+      <c r="F18" s="20" t="s">
+        <v>193</v>
+      </c>
+      <c r="G18" s="21" t="s">
+        <v>195</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="25">
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="C5:C7"/>
+    <mergeCell ref="D5:D7"/>
+    <mergeCell ref="E5:E7"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="C2:C4"/>
+    <mergeCell ref="D2:D4"/>
+    <mergeCell ref="E2:E4"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8ECA984E-4AA1-44D3-BEED-815A44B95A92}">
+  <dimension ref="A1:G34"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H27" sqref="H27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="16.375" customWidth="1"/>
+    <col min="2" max="2" width="13.75" customWidth="1"/>
+    <col min="4" max="4" width="8.25" customWidth="1"/>
+    <col min="5" max="5" width="25" customWidth="1"/>
+    <col min="7" max="7" width="81.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="21" x14ac:dyDescent="0.2">
+      <c r="A1" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="21" x14ac:dyDescent="0.2">
+      <c r="A2" s="48" t="s">
+        <v>68</v>
+      </c>
+      <c r="B2" s="51" t="s">
+        <v>199</v>
+      </c>
+      <c r="C2" s="51" t="s">
+        <v>200</v>
+      </c>
+      <c r="D2" s="51">
+        <v>4</v>
+      </c>
+      <c r="E2" s="54" t="s">
+        <v>201</v>
+      </c>
+      <c r="F2" s="26" t="s">
+        <v>202</v>
+      </c>
+      <c r="G2" s="27" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="60.75" x14ac:dyDescent="0.2">
+      <c r="A3" s="49"/>
+      <c r="B3" s="52"/>
+      <c r="C3" s="52"/>
+      <c r="D3" s="52"/>
+      <c r="E3" s="55"/>
+      <c r="F3" s="26" t="s">
+        <v>203</v>
+      </c>
+      <c r="G3" s="27" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="42" x14ac:dyDescent="0.2">
+      <c r="A4" s="50"/>
+      <c r="B4" s="53"/>
+      <c r="C4" s="53"/>
+      <c r="D4" s="53"/>
+      <c r="E4" s="56"/>
+      <c r="F4" s="26" t="s">
+        <v>204</v>
+      </c>
+      <c r="G4" s="27" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="41.25" x14ac:dyDescent="0.2">
+      <c r="A5" s="48" t="s">
+        <v>68</v>
+      </c>
+      <c r="B5" s="51" t="s">
+        <v>208</v>
+      </c>
+      <c r="C5" s="51" t="s">
+        <v>200</v>
+      </c>
+      <c r="D5" s="51">
+        <v>4</v>
+      </c>
+      <c r="E5" s="54" t="s">
+        <v>209</v>
+      </c>
+      <c r="F5" s="26" t="s">
+        <v>210</v>
+      </c>
+      <c r="G5" s="27" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="40.5" x14ac:dyDescent="0.2">
+      <c r="A6" s="49"/>
+      <c r="B6" s="52"/>
+      <c r="C6" s="52"/>
+      <c r="D6" s="52"/>
+      <c r="E6" s="55"/>
+      <c r="F6" s="26" t="s">
+        <v>211</v>
+      </c>
+      <c r="G6" s="27" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="20.25" x14ac:dyDescent="0.2">
+      <c r="A7" s="49"/>
+      <c r="B7" s="52"/>
+      <c r="C7" s="52"/>
+      <c r="D7" s="52"/>
+      <c r="E7" s="55"/>
+      <c r="F7" s="26" t="s">
+        <v>212</v>
+      </c>
+      <c r="G7" s="27" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="40.5" x14ac:dyDescent="0.2">
+      <c r="A8" s="50"/>
+      <c r="B8" s="53"/>
+      <c r="C8" s="53"/>
+      <c r="D8" s="53"/>
+      <c r="E8" s="56"/>
+      <c r="F8" s="80" t="s">
+        <v>216</v>
+      </c>
+      <c r="G8" s="81" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="21" x14ac:dyDescent="0.2">
+      <c r="A9" s="57" t="s">
+        <v>68</v>
+      </c>
+      <c r="B9" s="58" t="s">
+        <v>218</v>
+      </c>
+      <c r="C9" s="58" t="s">
+        <v>200</v>
+      </c>
+      <c r="D9" s="58">
+        <v>4</v>
+      </c>
+      <c r="E9" s="59" t="s">
+        <v>219</v>
+      </c>
+      <c r="F9" s="26" t="s">
+        <v>220</v>
+      </c>
+      <c r="G9" s="27" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="41.25" x14ac:dyDescent="0.2">
+      <c r="A10" s="57"/>
+      <c r="B10" s="58"/>
+      <c r="C10" s="58"/>
+      <c r="D10" s="58"/>
+      <c r="E10" s="59"/>
+      <c r="F10" s="26" t="s">
+        <v>221</v>
+      </c>
+      <c r="G10" s="27" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="20.25" x14ac:dyDescent="0.2">
+      <c r="A11" s="57" t="s">
+        <v>68</v>
+      </c>
+      <c r="B11" s="58" t="s">
+        <v>224</v>
+      </c>
+      <c r="C11" s="58" t="s">
+        <v>200</v>
+      </c>
+      <c r="D11" s="58">
+        <v>4</v>
+      </c>
+      <c r="E11" s="59" t="s">
+        <v>225</v>
+      </c>
+      <c r="F11" s="26" t="s">
+        <v>226</v>
+      </c>
+      <c r="G11" s="27" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="21" x14ac:dyDescent="0.2">
+      <c r="A12" s="57"/>
+      <c r="B12" s="58"/>
+      <c r="C12" s="58"/>
+      <c r="D12" s="58"/>
+      <c r="E12" s="59"/>
+      <c r="F12" s="26" t="s">
+        <v>227</v>
+      </c>
+      <c r="G12" s="27" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="20.25" x14ac:dyDescent="0.2">
+      <c r="A13" s="57"/>
+      <c r="B13" s="58"/>
+      <c r="C13" s="58"/>
+      <c r="D13" s="58"/>
+      <c r="E13" s="59"/>
+      <c r="F13" s="80" t="s">
+        <v>216</v>
+      </c>
+      <c r="G13" s="81" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="40.5" x14ac:dyDescent="0.2">
+      <c r="A14" s="57"/>
+      <c r="B14" s="58"/>
+      <c r="C14" s="58"/>
+      <c r="D14" s="58"/>
+      <c r="E14" s="59"/>
+      <c r="F14" s="80" t="s">
+        <v>216</v>
+      </c>
+      <c r="G14" s="81" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="40.5" x14ac:dyDescent="0.2">
+      <c r="A15" s="57" t="s">
+        <v>68</v>
+      </c>
+      <c r="B15" s="58" t="s">
+        <v>232</v>
+      </c>
+      <c r="C15" s="58" t="s">
+        <v>200</v>
+      </c>
+      <c r="D15" s="58">
+        <v>4</v>
+      </c>
+      <c r="E15" s="59" t="s">
+        <v>233</v>
+      </c>
+      <c r="F15" s="26" t="s">
+        <v>234</v>
+      </c>
+      <c r="G15" s="27" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="41.25" x14ac:dyDescent="0.2">
+      <c r="A16" s="57"/>
+      <c r="B16" s="58"/>
+      <c r="C16" s="58"/>
+      <c r="D16" s="58"/>
+      <c r="E16" s="59"/>
+      <c r="F16" s="26" t="s">
+        <v>235</v>
+      </c>
+      <c r="G16" s="27" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="60.75" x14ac:dyDescent="0.2">
+      <c r="A17" s="48" t="s">
+        <v>68</v>
+      </c>
+      <c r="B17" s="51" t="s">
+        <v>238</v>
+      </c>
+      <c r="C17" s="51" t="s">
+        <v>200</v>
+      </c>
+      <c r="D17" s="51">
+        <v>3</v>
+      </c>
+      <c r="E17" s="54" t="s">
+        <v>239</v>
+      </c>
+      <c r="F17" s="26" t="s">
+        <v>240</v>
+      </c>
+      <c r="G17" s="27" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="20.25" x14ac:dyDescent="0.2">
+      <c r="A18" s="49"/>
+      <c r="B18" s="52"/>
+      <c r="C18" s="52"/>
+      <c r="D18" s="52"/>
+      <c r="E18" s="55"/>
+      <c r="F18" s="26" t="s">
+        <v>241</v>
+      </c>
+      <c r="G18" s="27" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="40.5" x14ac:dyDescent="0.2">
+      <c r="A19" s="50"/>
+      <c r="B19" s="53"/>
+      <c r="C19" s="53"/>
+      <c r="D19" s="53"/>
+      <c r="E19" s="56"/>
+      <c r="F19" s="26" t="s">
+        <v>242</v>
+      </c>
+      <c r="G19" s="27" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="21" x14ac:dyDescent="0.2">
+      <c r="A20" s="57" t="s">
+        <v>68</v>
+      </c>
+      <c r="B20" s="58" t="s">
+        <v>246</v>
+      </c>
+      <c r="C20" s="58" t="s">
+        <v>200</v>
+      </c>
+      <c r="D20" s="58">
+        <v>4</v>
+      </c>
+      <c r="E20" s="59" t="s">
+        <v>247</v>
+      </c>
+      <c r="F20" s="26" t="s">
+        <v>248</v>
+      </c>
+      <c r="G20" s="27" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="61.5" x14ac:dyDescent="0.2">
+      <c r="A21" s="57"/>
+      <c r="B21" s="58"/>
+      <c r="C21" s="58"/>
+      <c r="D21" s="58"/>
+      <c r="E21" s="59"/>
+      <c r="F21" s="26" t="s">
+        <v>249</v>
+      </c>
+      <c r="G21" s="27" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="21" x14ac:dyDescent="0.2">
+      <c r="A22" s="57" t="s">
+        <v>68</v>
+      </c>
+      <c r="B22" s="58" t="s">
+        <v>252</v>
+      </c>
+      <c r="C22" s="58" t="s">
+        <v>200</v>
+      </c>
+      <c r="D22" s="58">
+        <v>5</v>
+      </c>
+      <c r="E22" s="59" t="s">
+        <v>253</v>
+      </c>
+      <c r="F22" s="26" t="s">
+        <v>254</v>
+      </c>
+      <c r="G22" s="27" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="21" x14ac:dyDescent="0.2">
+      <c r="A23" s="57"/>
+      <c r="B23" s="58"/>
+      <c r="C23" s="58"/>
+      <c r="D23" s="58"/>
+      <c r="E23" s="59"/>
+      <c r="F23" s="26" t="s">
+        <v>255</v>
+      </c>
+      <c r="G23" s="27" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="61.5" x14ac:dyDescent="0.2">
+      <c r="A24" s="48" t="s">
+        <v>68</v>
+      </c>
+      <c r="B24" s="51" t="s">
+        <v>258</v>
+      </c>
+      <c r="C24" s="51" t="s">
+        <v>200</v>
+      </c>
+      <c r="D24" s="51">
+        <v>3</v>
+      </c>
+      <c r="E24" s="54" t="s">
+        <v>259</v>
+      </c>
+      <c r="F24" s="26" t="s">
+        <v>260</v>
+      </c>
+      <c r="G24" s="27" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="40.5" x14ac:dyDescent="0.2">
+      <c r="A25" s="49"/>
+      <c r="B25" s="52"/>
+      <c r="C25" s="52"/>
+      <c r="D25" s="52"/>
+      <c r="E25" s="55"/>
+      <c r="F25" s="26" t="s">
+        <v>261</v>
+      </c>
+      <c r="G25" s="27" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="21" x14ac:dyDescent="0.2">
+      <c r="A26" s="50"/>
+      <c r="B26" s="53"/>
+      <c r="C26" s="53"/>
+      <c r="D26" s="53"/>
+      <c r="E26" s="56"/>
+      <c r="F26" s="26" t="s">
+        <v>262</v>
+      </c>
+      <c r="G26" s="27" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="81" x14ac:dyDescent="0.2">
+      <c r="A27" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="B27" s="25" t="s">
+        <v>266</v>
+      </c>
+      <c r="C27" s="25" t="s">
+        <v>200</v>
+      </c>
+      <c r="D27" s="25">
+        <v>4</v>
+      </c>
+      <c r="E27" s="26" t="s">
+        <v>267</v>
+      </c>
+      <c r="F27" s="26" t="s">
+        <v>268</v>
+      </c>
+      <c r="G27" s="27" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="60.75" x14ac:dyDescent="0.2">
+      <c r="A28" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="B28" s="25" t="s">
+        <v>270</v>
+      </c>
+      <c r="C28" s="25" t="s">
+        <v>200</v>
+      </c>
+      <c r="D28" s="25">
+        <v>4</v>
+      </c>
+      <c r="E28" s="26" t="s">
+        <v>271</v>
+      </c>
+      <c r="F28" s="26" t="s">
+        <v>272</v>
+      </c>
+      <c r="G28" s="27" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="20.25" x14ac:dyDescent="0.2">
+      <c r="A29" s="57" t="s">
+        <v>68</v>
+      </c>
+      <c r="B29" s="58" t="s">
+        <v>274</v>
+      </c>
+      <c r="C29" s="58" t="s">
+        <v>200</v>
+      </c>
+      <c r="D29" s="58">
+        <v>4</v>
+      </c>
+      <c r="E29" s="59" t="s">
+        <v>68</v>
+      </c>
+      <c r="F29" s="26" t="s">
+        <v>275</v>
+      </c>
+      <c r="G29" s="27" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="40.5" x14ac:dyDescent="0.2">
+      <c r="A30" s="57"/>
+      <c r="B30" s="58"/>
+      <c r="C30" s="58"/>
+      <c r="D30" s="58"/>
+      <c r="E30" s="59"/>
+      <c r="F30" s="26" t="s">
+        <v>276</v>
+      </c>
+      <c r="G30" s="27" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="40.5" x14ac:dyDescent="0.2">
+      <c r="A31" s="57" t="s">
+        <v>68</v>
+      </c>
+      <c r="B31" s="58" t="s">
+        <v>279</v>
+      </c>
+      <c r="C31" s="58" t="s">
+        <v>200</v>
+      </c>
+      <c r="D31" s="58">
+        <v>5</v>
+      </c>
+      <c r="E31" s="59" t="s">
+        <v>280</v>
+      </c>
+      <c r="F31" s="26" t="s">
+        <v>281</v>
+      </c>
+      <c r="G31" s="27" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="20.25" x14ac:dyDescent="0.2">
+      <c r="A32" s="57"/>
+      <c r="B32" s="58"/>
+      <c r="C32" s="58"/>
+      <c r="D32" s="58"/>
+      <c r="E32" s="59"/>
+      <c r="F32" s="26" t="s">
+        <v>254</v>
+      </c>
+      <c r="G32" s="27" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="40.5" x14ac:dyDescent="0.2">
+      <c r="A33" s="57" t="s">
+        <v>68</v>
+      </c>
+      <c r="B33" s="58" t="s">
+        <v>284</v>
+      </c>
+      <c r="C33" s="58" t="s">
+        <v>200</v>
+      </c>
+      <c r="D33" s="58">
+        <v>4</v>
+      </c>
+      <c r="E33" s="59" t="s">
+        <v>68</v>
+      </c>
+      <c r="F33" s="26" t="s">
+        <v>285</v>
+      </c>
+      <c r="G33" s="27" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="20.25" x14ac:dyDescent="0.2">
+      <c r="A34" s="57"/>
+      <c r="B34" s="58"/>
+      <c r="C34" s="58"/>
+      <c r="D34" s="58"/>
+      <c r="E34" s="59"/>
+      <c r="F34" s="26" t="s">
+        <v>286</v>
+      </c>
+      <c r="G34" s="27" t="s">
+        <v>288</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="60">
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="C33:C34"/>
+    <mergeCell ref="D33:D34"/>
+    <mergeCell ref="E33:E34"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="A24:A26"/>
+    <mergeCell ref="B24:B26"/>
+    <mergeCell ref="C24:C26"/>
+    <mergeCell ref="D24:D26"/>
+    <mergeCell ref="E24:E26"/>
     <mergeCell ref="A17:A19"/>
     <mergeCell ref="B17:B19"/>
     <mergeCell ref="C17:C19"/>
     <mergeCell ref="D17:D19"/>
     <mergeCell ref="E17:E19"/>
-    <mergeCell ref="A9:A11"/>
-    <mergeCell ref="B9:B11"/>
-    <mergeCell ref="C9:C11"/>
-    <mergeCell ref="D9:D11"/>
-    <mergeCell ref="E9:E11"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="A14:A16"/>
-    <mergeCell ref="B14:B16"/>
-    <mergeCell ref="C14:C16"/>
-    <mergeCell ref="D14:D16"/>
-    <mergeCell ref="E14:E16"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="A11:A14"/>
+    <mergeCell ref="B11:B14"/>
+    <mergeCell ref="C11:C14"/>
+    <mergeCell ref="D11:D14"/>
+    <mergeCell ref="E11:E14"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="A5:A8"/>
+    <mergeCell ref="B5:B8"/>
+    <mergeCell ref="C5:C8"/>
+    <mergeCell ref="D5:D8"/>
+    <mergeCell ref="E5:E8"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="C2:C4"/>
+    <mergeCell ref="D2:D4"/>
+    <mergeCell ref="E2:E4"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/三国杀技能记录_Other.xlsx
+++ b/三国杀技能记录_Other.xlsx
@@ -8,15 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\ws\tk-xls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEC1A889-BBF4-4D30-8EB6-D59903B6EBE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{329D4727-5BEA-4BEC-B027-BAF86764A8C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3255" yWindow="2520" windowWidth="26880" windowHeight="13230" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="2025" windowWidth="26880" windowHeight="13230" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="2010-民扩山" sheetId="1" r:id="rId1"/>
-    <sheet name="恶" sheetId="2" r:id="rId2"/>
-    <sheet name="黄巾" sheetId="3" r:id="rId3"/>
-    <sheet name="南蛮" sheetId="4" r:id="rId4"/>
+    <sheet name="恶" sheetId="2" r:id="rId1"/>
+    <sheet name="黄巾" sheetId="3" r:id="rId2"/>
+    <sheet name="南蛮" sheetId="4" r:id="rId3"/>
+    <sheet name="妖" sheetId="6" r:id="rId4"/>
+    <sheet name="仙" sheetId="7" r:id="rId5"/>
+    <sheet name="鬼" sheetId="8" r:id="rId6"/>
+    <sheet name="圣" sheetId="9" r:id="rId7"/>
+    <sheet name="魔" sheetId="10" r:id="rId8"/>
+    <sheet name="五行扩" sheetId="5" r:id="rId9"/>
+    <sheet name="2010-民扩山" sheetId="1" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="289">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="988" uniqueCount="680">
   <si>
     <t>编号</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1504,13 +1510,1907 @@
   </si>
   <si>
     <t>当你死亡时，摸2张牌，和你所有牌交给任意一名角色。</t>
+  </si>
+  <si>
+    <t>金</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>韩当</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>只身犯险</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>险袭</t>
+  </si>
+  <si>
+    <t>出牌阶段，你使用的【杀】可额外指定攻击范围内任意数量的角色为目标，若如此做，每有一名角色使用【闪】抵消了【杀】时，你须弃两张牌，否则受到1点伤害。</t>
+  </si>
+  <si>
+    <t>马腾</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>伏波之后</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>剿贼</t>
+  </si>
+  <si>
+    <t>招兵</t>
+  </si>
+  <si>
+    <t>当你使用的【杀】被【闪】抵消时，你可与目标角色拼点，若你赢，该【杀】依旧造成伤害。</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>主公技</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，其他群势力角色可以替你出拼点牌。</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>魔将</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>搦战</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>锁定技</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，你手牌中的【闪】均视为【杀】，其他角色以你为目标使用的【杀】均视为【决斗】。</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>贾诩</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>木</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>算无遗策</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>毒士</t>
+  </si>
+  <si>
+    <t>自保</t>
+  </si>
+  <si>
+    <t>避乱</t>
+  </si>
+  <si>
+    <t>出牌阶段，你可与一名其他角色拼点，若你赢，目标角色将武将牌翻面，若你没赢，你将武将牌翻面，每回合限用一次。</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>锁定技</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，你不能成为【顺手牵羊】和【过河拆桥】的目标。</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>锁定技</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，当你的武将牌翻面时，你回复1点体力。</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘晔</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>佐世之才</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>洞察</t>
+  </si>
+  <si>
+    <t>胆智</t>
+  </si>
+  <si>
+    <t>每当你受到伤害时，你可与伤害来源进行拼点，若你赢，该伤害无效，若你没赢，你获得对方的拼点牌。</t>
+  </si>
+  <si>
+    <t>其他角色的弃牌阶段结束时，若该角色于此阶段未弃置任何牌，你可观看其手牌并将其中的一张锦囊牌交给除该角色以外的任意角色。</t>
+  </si>
+  <si>
+    <t>司马昭</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>文皇帝</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>昭心</t>
+  </si>
+  <si>
+    <t>权变</t>
+  </si>
+  <si>
+    <t>出牌阶段，你可指定一名其他角色，你与目标各进行一次判定，若花色相同，则你与该目标交换当前体力值（不可超过体力上限），若不同，你们获得各自的判定牌。</t>
+  </si>
+  <si>
+    <t>你每受到一次伤害，你可将伤害来源处的一张牌转移到另一个合理的区域。</t>
+  </si>
+  <si>
+    <t>水</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>马良</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>忠言</t>
+  </si>
+  <si>
+    <t>良策</t>
+  </si>
+  <si>
+    <t>白眉居士</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>当你成为【杀】的目标时，你可交给对方一张红色的牌，并令其进行二选一：1.失去1点体力，2.该【杀】对你无效，且收回此杀。</t>
+  </si>
+  <si>
+    <t>回合结束阶段，你可将你弃牌阶段弃置的所有牌以任意顺序至于牌堆顶。</t>
+  </si>
+  <si>
+    <t>曹冲</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>聪颖</t>
+  </si>
+  <si>
+    <t>早夭</t>
+  </si>
+  <si>
+    <t>邓哀王</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>回合开始阶段，你可以依次翻开牌堆顶的牌，当出现跟之前花色一样的牌时，你弃掉其中的一张，并将之前所有牌收入手牌。</t>
+  </si>
+  <si>
+    <t>你每受到一次伤害时，可以进行一次判定，判定牌的点数+你的当前体力值小于13时，该伤害-1，否则该伤害+1。</t>
+  </si>
+  <si>
+    <t>乐进</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>胆识英烈</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>骁果</t>
+  </si>
+  <si>
+    <t>你的回合外，你每使用或打出一张基本牌，可令一名其他角色弃置一张相同的基本牌，否则你对其造成1点伤害。</t>
+  </si>
+  <si>
+    <t>火</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>福卫妇人</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>柔情</t>
+  </si>
+  <si>
+    <t>投井</t>
+  </si>
+  <si>
+    <t>每当你的手牌数跟体力值的差为X时，X为你的当前体力值，你可令一名已受损的角色回复1点体力。</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>限定技</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，当场上有角色濒死求桃时，你可选择立即死亡，若如此做，目标角色弃置其所有手牌，装备牌，和判定区内的牌，并摸三张牌然后回复3点体力。</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>王元姬</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>文明皇后</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>慧眼</t>
+  </si>
+  <si>
+    <t>反计</t>
+  </si>
+  <si>
+    <t>每当你受到一次伤害后，你可观看伤害来源的手牌，将其中的一张牌交给一名角色。</t>
+  </si>
+  <si>
+    <t>当你成为非延时类锦囊的目标时，你可以取消之，若如此做，你受到对方造成的1点伤害。</t>
+  </si>
+  <si>
+    <t>许攸</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>口出狂言</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>傲物</t>
+  </si>
+  <si>
+    <t>逼叛</t>
+  </si>
+  <si>
+    <t>当一个锦囊指定了包括你在内的多名目标时，你可以弃一张手牌跳过该锦囊对你的结算，若如此做，若该锦囊结算在完毕后进入弃牌堆，你立即获得。</t>
+  </si>
+  <si>
+    <t>你每受到一次伤害，可将你的至多三张牌交给一名其他角色，然后你摸取等量的牌。</t>
+  </si>
+  <si>
+    <t>土</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>田丰</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>刚而犯上</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>谏阻</t>
+  </si>
+  <si>
+    <t>刚直</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>锁定技</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，杀死你的角色不能使用锦囊牌直到游戏结束。</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>当你成为非延时锦囊的目标时，你可取消之，若如此做，对方摸一张牌。</t>
+  </si>
+  <si>
+    <t>诸葛瑾</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>岭南郡太守</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>缓释</t>
+  </si>
+  <si>
+    <t>求和</t>
+  </si>
+  <si>
+    <t>任意角色进行判定前，你可观看牌堆顶的一张牌，将之交给任一名角色。</t>
+  </si>
+  <si>
+    <t>每当你受到一次伤害时，你可进行一次判定，你可将一张与此判定牌相同花色的手牌交给伤害来源来防止该伤害。</t>
+  </si>
+  <si>
+    <t>钟会</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>才华横溢</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>同谋</t>
+  </si>
+  <si>
+    <t>其他角色的摸牌阶段结束后，若该角色的手牌数大于你，该角色须交给你一张手牌。</t>
+  </si>
+  <si>
+    <t>你每造成或受到一次伤害，可指定一个伤害来源。</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">甘夫人
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="0" tint="-0.499984740745262"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>糜夫人</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>妖</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>太平</t>
+  </si>
+  <si>
+    <t>甲子</t>
+  </si>
+  <si>
+    <t>徒众</t>
+  </si>
+  <si>
+    <t>回合结束，根据当前体力值补满手牌。</t>
+  </si>
+  <si>
+    <t>出牌阶段，你可以将任意两张♠手牌当【南蛮入侵】使用，任意两张♥手牌当【万箭齐发】使用，任意两张♣手牌当【五谷丰登】使用，任意两张♦手牌当【桃园结义】使用。每回合限一次。</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>主公技</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，主动放弃摸牌阶段，令任意一名角色回复一点体力。</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>吉平</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>大贤良师
+大贤总师</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>汉之太医
+太医令</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>出牌阶段，你可以将你的任意♠手牌当【施毒】使用。</t>
+  </si>
+  <si>
+    <t>施毒</t>
+  </si>
+  <si>
+    <t>攻毒</t>
+  </si>
+  <si>
+    <t>炼毒</t>
+  </si>
+  <si>
+    <t>出牌阶段，你可以将你的任意一张♠装备牌或基本牌当【施毒】使用。</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFC00000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>施毒</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>任意♠♣手牌，非自己回合可以当桃使用。</t>
+  </si>
+  <si>
+    <t>一次至多只受一点伤害。</t>
+  </si>
+  <si>
+    <t>冢虎</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>司马懿</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>诈病</t>
+  </si>
+  <si>
+    <t>鬼谋</t>
+  </si>
+  <si>
+    <t>回合结束阶段，自减一点体力，至自己下一回合开始前不受任何伤害。</t>
+  </si>
+  <si>
+    <t>摸牌阶段，摸“X+2”，X为当前损失的体力值。</t>
+  </si>
+  <si>
+    <t>卞氏</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄巾女将
+黄巾虎将</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>嫁祸</t>
+  </si>
+  <si>
+    <t>电母</t>
+  </si>
+  <si>
+    <t>妖后</t>
+  </si>
+  <si>
+    <t>出牌阶段，你可以将你的任意一张♣或♠牌当【借刀杀人】使用。每回合限一次。</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>锁定技</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，你造成的所有伤害均视为雷电伤害。</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>皇后技</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，若主公为男性角色，主公对任意一名角色造成一次伤害，你可以选择执行下列两项中的一项：1.你立即从该角色处获得一张牌；2.立即摸一张牌。</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>小乔</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>曲误</t>
+  </si>
+  <si>
+    <t>铜雀</t>
+  </si>
+  <si>
+    <t>冢殇</t>
+  </si>
+  <si>
+    <t>铜雀叶煤</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>出牌阶段，指定攻击范围内任意一名角色，下一个摸牌阶段少摸一张牌，而你在他的摸牌阶段摸一张牌，每回合限用一次。</t>
+  </si>
+  <si>
+    <t>每死亡一名角色，手牌上限+1。</t>
+  </si>
+  <si>
+    <r>
+      <t>不受【酒】和【铁索连环】的影响。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFC00000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>“铜雀”不是锁定技，可以选择是否发动，也就是说，妖小乔可以使用酒，也可以发动“铜雀”不受酒杀。</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>周泰</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>虚如礼画</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>不悔</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>锁定技</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：你不能成为【杀】和【桃】的目标。</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>锁定技</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：你不能成为【杀】的目标。</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFC00000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>不悔</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>程昱</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>挟亲</t>
+  </si>
+  <si>
+    <t>识伪</t>
+  </si>
+  <si>
+    <t>世之奇士
+兴业奇士</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>对任意一名角色造成一点伤害，可立即弃另一名角色一张牌，每轮只能发动一次。</t>
+  </si>
+  <si>
+    <t>任意角色每次判定之前，你都可以说出判定牌的颜色，如正确且生效则立即摸一张牌。</t>
+  </si>
+  <si>
+    <t>国士之风
+国士叶枭</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>重义</t>
+  </si>
+  <si>
+    <t>失去最后一张手牌，可立即摸取与当前血量相等的牌。</t>
+  </si>
+  <si>
+    <t>普净</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>禅心</t>
+  </si>
+  <si>
+    <t>皈依</t>
+  </si>
+  <si>
+    <t>镇国长老</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>出牌阶段，你可以弃掉任意数量的【杀】，然后摸取等量的牌。</t>
+  </si>
+  <si>
+    <t>当你需要进行判定时，你可以从牌堆顶层展示两张牌，选择其中一张作为判定牌，然后将另一张收入手牌。</t>
+  </si>
+  <si>
+    <t>你回合开始前，可以和任意一名角色拼点，若你赢，则跳过目标角色下一回合的摸牌阶段，若你没赢，则跳过你该回合的弃牌阶段。</t>
+  </si>
+  <si>
+    <t>太平道人</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>于吉</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>麻痹</t>
+  </si>
+  <si>
+    <t>修真</t>
+  </si>
+  <si>
+    <t>使用【杀】造成伤害时，可防止此伤害，改为令该角色失去下一个摸牌阶段。</t>
+  </si>
+  <si>
+    <r>
+      <t>每受到一次伤害，来源判定：若为</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Symbol"/>
+        <family val="2"/>
+      </rPr>
+      <t>♠</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，该角色受到一点雷电伤害；若为</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Symbol"/>
+        <family val="2"/>
+      </rPr>
+      <t>♣</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，你回复一点体力；若为</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Symbol"/>
+        <family val="2"/>
+      </rPr>
+      <t>♥</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，该角色弃一张手牌；若为</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Symbol"/>
+        <family val="2"/>
+      </rPr>
+      <t>♦</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，你与该角色立即各摸一张牌。</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>南华老仙</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>乱世凤魅</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>祸起</t>
+  </si>
+  <si>
+    <t>渔利</t>
+  </si>
+  <si>
+    <t>天变</t>
+  </si>
+  <si>
+    <t>弃牌阶段，弃牌的数量大于等于2张，你可以执行下列两项中的一项：1.你回复一点体力。2.指定任意两名角色拼点，输一方受到另一方造成的一点伤害，或弃两张牌。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>任意一次拼点结算完毕，你立即摸一张牌。</t>
+  </si>
+  <si>
+    <t>用任意一张手牌替换还未翻开的拼点牌。每次拼点限换一次。</t>
+  </si>
+  <si>
+    <t>雉帝道人</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>轮回</t>
+  </si>
+  <si>
+    <t>分身</t>
+  </si>
+  <si>
+    <t>飞剑</t>
+  </si>
+  <si>
+    <t>回合结束阶段可以判定，如为♣♠，则可以立即再行动一个回合（每回合限用一次）。</t>
+  </si>
+  <si>
+    <t>出牌阶段，弃一张手牌横置于面前，视为一个“分身”，每个“分身”可抵消一点伤害。（限单数轮次回合使用）</t>
+  </si>
+  <si>
+    <t>出牌阶段，你使用【杀】的次数为1+X，X为分身数。（限双数轮次回合使用）</t>
+  </si>
+  <si>
+    <t>马谡</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>才器过人</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>汗颜</t>
+  </si>
+  <si>
+    <t>小才</t>
+  </si>
+  <si>
+    <t>草用</t>
+  </si>
+  <si>
+    <t>出牌阶段，当你的手牌数小于或等于你的攻击范围时，你每使用或打出一张手牌便可指定你攻击范围内的一名角色弃一张牌。</t>
+  </si>
+  <si>
+    <t>当你的弃牌数大于等于2且花色相同时，回合结束阶段可以摸一张牌。</t>
+  </si>
+  <si>
+    <t>穷寇莫追</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>奔袭</t>
+  </si>
+  <si>
+    <t>你可以选择跳过摸牌阶段，并观看一次任意一名角色的手牌：若如此做，该回合的出牌阶段，你使用【杀】无距离且造成的伤害+1。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>限定技</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，出牌阶段，弃掉4张不同花色的手牌，指定一名角色复活，并摸体力上限的手牌。</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>锁定技</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，你不能使用【无懈可击】。</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>锁定技</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，当其他角色使用【桃】时，你恢复一点体力。</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>曹操</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>鬼</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>多疑</t>
+  </si>
+  <si>
+    <t>献计</t>
+  </si>
+  <si>
+    <t>当任意角色成为你非延时锦囊的目标，你可以令其判定，如为♣♠则该角色不能为响应该锦囊而采用任何行动。</t>
+  </si>
+  <si>
+    <t>魏太祖</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>曹节</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>汉献皇后</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>涕泣</t>
+  </si>
+  <si>
+    <t>掷玺</t>
+  </si>
+  <si>
+    <t>父王</t>
+  </si>
+  <si>
+    <t>出牌阶段，你可以自减一点体力弃X张牌同时对X名角色各造成1点伤害，每回合只能使用一次。</t>
+  </si>
+  <si>
+    <t>你失去一张【闪】，立即摸一张牌。</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>主公技</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，任一角色可在他们各自的回合里给你一张非延时锦囊牌。</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>公主技</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，若主公为男性角色，不受任意女性角色技能影响。</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>五丈原忠魂</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>诸葛亮</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>妆神</t>
+  </si>
+  <si>
+    <t>奇门</t>
+  </si>
+  <si>
+    <t>回合开始阶段，你可进行判定：若为♣♠，即立刻获得场上任一武将技能直至你的下回合开始。</t>
+  </si>
+  <si>
+    <t>吕布</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>白门厉鬼</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>射戟</t>
+  </si>
+  <si>
+    <t>绝戮</t>
+  </si>
+  <si>
+    <t>当你打出的【杀】为最后一张手牌，攻击范围无限，你可以为这张【杀】指定至多两名目标角色。</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>锁定技</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，始终不受延时锦囊影响。</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>锁定技</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：出牌阶段，以下情况，可以令你使用的【杀】不可被闪避：目标角色在你的攻击范围内，同时你也在目标角色的攻击范围内。</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>麦城之恨</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>武魔</t>
+  </si>
+  <si>
+    <t>拖刀</t>
+  </si>
+  <si>
+    <t>出牌阶段，打出或使用一张【杀】可立即摸一张牌。</t>
+  </si>
+  <si>
+    <t>任意角色对你打出【杀】被你闪避以后，可立即对攻击范围内的任意一名角色使用一张【杀】。</t>
+  </si>
+  <si>
+    <t>张飞</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>横刀立马</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>龙吟</t>
+  </si>
+  <si>
+    <t>你使用黑色的【杀】时无距离限制。</t>
+  </si>
+  <si>
+    <t>你使用红色的【杀】时可额外指定一个目标。</t>
+  </si>
+  <si>
+    <t>温酒之痛</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>枭首</t>
+  </si>
+  <si>
+    <t>你可以立即从对你造成伤害的来源处获得一张已被装备的牌，并可立即将它交给任意一名角色，或放置于任意一名角色的装备区内。</t>
+  </si>
+  <si>
+    <t>司马徽</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>水镜先生</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>授业</t>
+  </si>
+  <si>
+    <t>解惑</t>
+  </si>
+  <si>
+    <t>出牌阶段，你可以主动弃掉一张手牌，令任意一名角色摸两张牌，每回合限用一次。</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>限定技</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：出牌阶段，可弃掉4张不同花色的手牌令自己上回合结束后死亡的一名角色复活，该角色复活后回复至三点体力，立即摸三张牌。</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>南蛮大王</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>勤王</t>
+  </si>
+  <si>
+    <t>非自己回合，可主动替自己以外的任意一名角色承担伤害，每承担一点伤害，下一回合出牌阶段，你使用的【杀】或【决斗】（你为伤害来源时），造成的伤害+1。</t>
+  </si>
+  <si>
+    <t>圣</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>孙权</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>东吴大帝</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>容贤</t>
+  </si>
+  <si>
+    <t>雄略</t>
+  </si>
+  <si>
+    <t>感恩</t>
+  </si>
+  <si>
+    <t>锁定技，手牌上限为体力上限。</t>
+  </si>
+  <si>
+    <t>回合结束阶段，可以观看牌堆顶的X张牌，X为你已损失的体力值，并可用其中的任意张牌与手牌交换。</t>
+  </si>
+  <si>
+    <t>主公技：任意角色自己摸牌阶段，可以选择少摸一张牌，让你立即摸一张牌。</t>
+  </si>
+  <si>
+    <t>小霸王</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>虎踞</t>
+  </si>
+  <si>
+    <t>当你使用的【杀】被抵消时，你可以立即打出一张【杀】，则你使用的前一张【杀】依然造成伤害，并且造成的伤害+1。</t>
+  </si>
+  <si>
+    <t>甄姬</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>洛水之福</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>流风</t>
+  </si>
+  <si>
+    <t>回雪</t>
+  </si>
+  <si>
+    <t>你的回合外，失去一张牌，立即摸一张牌。</t>
+  </si>
+  <si>
+    <t>出牌阶段，选择一名男性角色执行下列两项中的一项：1.你和他（已受伤）各弃一张手牌，各回复一点体力。2.你自减一点体力，他受到你造成的1点伤害，各摸一张牌。</t>
+  </si>
+  <si>
+    <t>赵云</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>一身是胆</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>追魂</t>
+  </si>
+  <si>
+    <t>青釭</t>
+  </si>
+  <si>
+    <t>救主</t>
+  </si>
+  <si>
+    <t>限定技，濒死状态时可令任意一名角色回复3点体力。</t>
+  </si>
+  <si>
+    <t>锁定技，当你使用【杀】攻击任意一名角色时，无视该角色的防具。</t>
+  </si>
+  <si>
+    <t>出牌阶段，你可以先弃掉X张手牌，若如此做，则：1.该回合的出牌阶段，你使用的【杀】和【决斗】对有手牌的目标角色造成的伤害为1+X。2.下一回合的摸牌阶段，武将牌移出游戏。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>郭嘉</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>天妒英才</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>奇佐</t>
+  </si>
+  <si>
+    <t>相知</t>
+  </si>
+  <si>
+    <t>每受到一点伤害，立即判定，若为♣♠，你指定任意一名角色的武将牌立即移出游戏，若为♥♦，则你立即获得该判定牌。</t>
+  </si>
+  <si>
+    <t>摸牌阶段，你可以选择放弃摸牌，而从牌堆顶亮出三张牌，选择一种颜色的牌入手，然后将另一种颜色的牌交给自己以外的任意一至多名角色。</t>
+  </si>
+  <si>
+    <t>程普</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>荡寇将军</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>同归</t>
+  </si>
+  <si>
+    <t>复仇</t>
+  </si>
+  <si>
+    <t>回合结束阶段，指定一名角色弃掉与你弃牌数相同的牌。</t>
+  </si>
+  <si>
+    <t>你每受到一次伤害，可进行一次判定：若结果不为♥，则目标来源立即进入弃牌阶段。</t>
+  </si>
+  <si>
+    <t>白马义从</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>驭马</t>
+  </si>
+  <si>
+    <t>当你的装备区里有【-1马】，摸牌阶段，你可以额外摸一张牌；当你的装备区里有【+1马】，回合结束阶段，你可以摸一张牌。当你获得或失去一张装备区里的【马】牌，你可以立即摸一张牌。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>第一谋士</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>胆义</t>
+  </si>
+  <si>
+    <t>报复</t>
+  </si>
+  <si>
+    <t>你进行判定时，判定牌可马上使用，若不能使用或不想使用则弃置。</t>
+  </si>
+  <si>
+    <t>你每受1点伤害，都可摸一张牌放到伤害来源的判定区，当你对其使用同花色的【杀】时，直接命中，对其使用同花色非延时锦囊不可被【无懈可击】。</t>
+  </si>
+  <si>
+    <t>关平</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>副将</t>
+  </si>
+  <si>
+    <t>抗徼相卫</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>文武双全</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>异才</t>
+  </si>
+  <si>
+    <t>习珍&amp;习宏</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>兄忠弟贤</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>负仇</t>
+  </si>
+  <si>
+    <t>噤言</t>
+  </si>
+  <si>
+    <t>锁定技，若你的体力值不大于2，你的黑色锦囊牌视为【杀】。</t>
+  </si>
+  <si>
+    <t>于禁</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>圣毅沉稳</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>功勋</t>
+  </si>
+  <si>
+    <t>归降</t>
+  </si>
+  <si>
+    <t>锁定技，在你使用【杀】或被【杀】或【决斗】中，让异国武将造成伤害或你被通过武将造成伤害时，每一次：你要从牌堆亮出一张牌放在你的角色牌上。若有1种花色有3张，该花色的牌马上成为你的手牌。</t>
+  </si>
+  <si>
+    <t>出牌阶段，你可把1张装备牌给1名异国武将，便成为该国的势力；你也可弃掉两个装备牌，自选其他势力，转势力后之前的功勋牌弃掉，一回合只能更换一次势力。</t>
+  </si>
+  <si>
+    <t>曹真</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>虎豺叶辎</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>鸷勇</t>
+  </si>
+  <si>
+    <t>当你的体力值：1.不大于3点时，出牌阶段你可额外使用X张【杀】；2.不大于2点时，你的点数为X的牌可当【酒】；3.不大于1点时，你的点数为X的手牌可当【决斗】使用。X为你己损失的体力值。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>夏侯令女</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>颜色</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>穷追</t>
+  </si>
+  <si>
+    <t>锁定技，你死后不用翻开身份牌。</t>
+  </si>
+  <si>
+    <t>拒婚</t>
+  </si>
+  <si>
+    <t>当你的体力值：1、不大于3点时，回合结束阶段你可摸X张牌。2、不大于2点时，回合外你使用或打出黑桃牌，可摸X张牌。3、不大于1点时，你不能成为男性角色红心非延时锦强和红心【杀】的目标。X为你已损失的体力值。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>枣祗＆任峻</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>丰隆元功</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>粮策</t>
+  </si>
+  <si>
+    <t>坚壁</t>
+  </si>
+  <si>
+    <t>军屯</t>
+  </si>
+  <si>
+    <t>每当你成为锦囊牌的目标时，若此牌的目标包括其他角色，你可以令此牌对其至多X+1个目标无效(X为你已损失的体力值)。</t>
+  </si>
+  <si>
+    <t>出牌阶段，你可以将一张装备牌重铸。</t>
+  </si>
+  <si>
+    <t>徐盛</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>虎臣</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>疑城</t>
+  </si>
+  <si>
+    <t>你成为【杀】的目标时，你可以盖至少1张【杀】，让对方做出以下选择：1.取消【杀】的效果；2.坚持【杀】的效果，甚至可多加不小于1张【杀】，然后根据双方各自【杀】的总点数：若你大于对方，其【杀】失效，你对其造成1点伤害；否则，其【杀】仍然生效；若对方总点数是你的总点数的2倍以上时，其【杀】对你直接命中。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>祖茂</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>肝胆相照</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>乔装</t>
+  </si>
+  <si>
+    <t>调虎</t>
+  </si>
+  <si>
+    <t>回合开始阶段，你可进行判定:若为红色，你的武将牌倒放表示乔装成女性，所有角色视你为女性：若为黑色，变回男性。</t>
+  </si>
+  <si>
+    <t>在任意角色的判定牌生效前：若判定牌是红色，可用自己的一张黑色手牌替换之；若判定牌是黑色，可用自己的一张红色手牌替换之。</t>
+  </si>
+  <si>
+    <t>征西将军</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>白骑</t>
+  </si>
+  <si>
+    <t>骑术</t>
+  </si>
+  <si>
+    <t>拥兵</t>
+  </si>
+  <si>
+    <t>出牌阶段，你可以盖一张【马】牌在角色牌上，回合结束阶段，你必须按行动顺序移动一张角色牌上的【马】牌，在出牌阶段：1、若有一名玩家角色牌上聚集了3张花色一样的【-1马】，你可将其翻开，你对该角色造成1点伤害；2、若有一名玩家角色牌上聚集了3张花色一样的【+1马】，你可将其翻开，你可获得该角色1件防具。（任何角色可在出牌阶段用【无懈可击】让1张【马】移到下家）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>主公技，其他群雄势力角色回合结束阶段，你可请求其帮你移其角色牌上的1张指定的【马】到下家。</t>
+  </si>
+  <si>
+    <t>张绣</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>北地枪王</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>虎枪</t>
+  </si>
+  <si>
+    <t>投奔</t>
+  </si>
+  <si>
+    <t>义气</t>
+  </si>
+  <si>
+    <t>当你装备的武器的攻击范围大于你的体力值时，你使用的【杀】直接命中。</t>
+  </si>
+  <si>
+    <t>非主公技，限定技，当你杀死一名角色，你可拿【主公】以外3种身份牌抽1张盖在原身份牌上作为你新的身份，若和你原身份一样时，那新身份为主公，你必须在其它玩家胜利前，杀死主公，成为新主公。</t>
+  </si>
+  <si>
+    <t>主公技，你可用两手牌请求其它群雄势力角色交换其1件装备。</t>
+  </si>
+  <si>
+    <t>刘宏</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>汉灵帝</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>皇命</t>
+  </si>
+  <si>
+    <t>十侍</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFC00000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>十侍</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>锁定技，游戏开始时，你从没被玩家选上的武将牌中抽一个武将，使用其技能，然后你的每个回合开始阶段，把那武将重回武将牌堆，重新抽一个使用。</t>
+  </si>
+  <si>
+    <t>主公模式，游戏开始时，你从没被玩家选上的武将牌中抽2个武将（减一个血上限可抽3个），然后分为主将-使用其第一项技能、副将-使用其第二项技能、（后方-使用其第三项技能），回合开始阶段，把其中一个武将重回武将牌堆，重新抽一个代替其位置。</t>
+  </si>
+  <si>
+    <r>
+      <t>主公模式，游戏开始时，你从没被玩家选上的武将牌中抽2个武将（减一个血上限可抽3个），回合开始阶段，把其中一个武将重回武将牌堆，重新抽一个代替其位置。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFC00000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>主公模式：当主公时仅能发动此技能，卡面其他技能失效</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>骁骑枯灵</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>除你自己外，所有在你攻击范围内的角色在弃牌阶段：若弃的牌数目为单数，那弃的牌中点数为单数的牌归你所有；若弃的牌的数目为双数，则弃的牌中的点数为双数的牌归你所有。</t>
+  </si>
+  <si>
+    <t>胡车儿</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>健步</t>
+  </si>
+  <si>
+    <t>盗戟</t>
+  </si>
+  <si>
+    <t>其它角色回合开始阶段，你可与其拼点，若你赢，你就马上进入新的回合。回合结束阶段，你的武将牌翻面，然后被拼点的角色才进入其回合，若你输了，你新的回合前不能再发动此技能。</t>
+  </si>
+  <si>
+    <t>出牌阶段， 你可弃一张【酒】，获得一名角色一件武器，将其交给任意名角色。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>王异</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>贞洁刚烈</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>坚贞</t>
+  </si>
+  <si>
+    <t>锁定技，任何角色的判定牌生效阶段时，若判定牌是红色，你可以立即夺得它，归自己所有或马上献给一名男性角色。</t>
+  </si>
+  <si>
+    <t>弃牌阶段，你可以把你将要弃的手牌编排好顺序，放在牌堆上。</t>
+  </si>
+  <si>
+    <t>刘邦</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>魔</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>守墓高祖</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>吸阳</t>
+  </si>
+  <si>
+    <t>皇者</t>
+  </si>
+  <si>
+    <t>千军</t>
+  </si>
+  <si>
+    <t>高祖</t>
+  </si>
+  <si>
+    <t>锁定技，出牌阶段，你每造1成点伤害，都要从牌堆亮出1张牌放在你的角色牌上，若同一种花色有4张即可恢复1点血。到回合结束阶段，你都没造成任何伤害，你要失去1点血。</t>
+  </si>
+  <si>
+    <t>你的黑色K手牌可当【小王】，红色K手牌可当【大王】。</t>
+  </si>
+  <si>
+    <t>主公技，你拥有所有在场角色的主公技。</t>
+  </si>
+  <si>
+    <t>任何对你产生效果的非延时锦囊，你都可弃一张同花色的手牌抵消它对你的使用。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>在场其它角色对在你攻击范围内的一名角色使用【杀】被【闪】抵消后，你可出一个【杀】追击一次。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>出牌阶段，你可把同花色的【杀】同时打出，对你攻击范围内相应数量的角色使用。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>每当你成为【杀】的目标时，你可以交给此【杀】的使用者一张牌：令此【杀】对你无效，且你与其距离视为1，直到回合结束；若如此做，此回合的结束阶段开始时，其令你摸一张牌，然后你需对该角色使用一张【杀】，否则失去1点体力。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>出牌阶段限一次，你可以将一张基本牌当【五谷丰登】使用；每当因执行【五谷丰登】的效果而亮出的牌因效果执行完毕后而置入弃牌堆前，你可以令一名角色获得之。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>除装备牌外，你的红色手牌可当【-1马】使用，你的黑色手牌可当【+1马】使用。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>出牌阶段，你可盖至少一张手牌，然后其它角色可摸1张牌并盖1张手牌，若盖得牌与你盖得牌的点数相同的，你对该角色造成1点伤害，每回合发动一次。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>诊断</t>
+  </si>
+  <si>
+    <t>合体技，出牌阶段，你与"樊阿"互在对方距离1以内，你打出一张方块手牌，并请求"樊阿"也打出一张方块手牌，全场角色视对自己使用一个【桃】。</t>
+  </si>
+  <si>
+    <t>回合结束阶段，你可把一张手牌放在角色牌上，所有角色与其同点数的手牌都可当【桃】，直到你新的回合开始阶段。</t>
+  </si>
+  <si>
+    <t>当任意角色使用【桃】或【酒】时，你可马上从牌堆上亮一张牌进行鉴定：若为红色，其能正常使用；若为梅花，其失效；若为黑桃，服用者扣1点血。</t>
+  </si>
+  <si>
+    <t>吴普</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>广践狌啸</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>乌戈国主</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>徒手</t>
+  </si>
+  <si>
+    <t>鳞甲</t>
+  </si>
+  <si>
+    <t>在没有装备武器的状态，与你距离1以内的角色：1，对其使用【杀】被【闪】抵消后,你自损1点血,则【杀】依然造成伤害；2，你自损1点血，视你对一名角色使用了一张黑色【杀】或【决斗】，一回合一次。</t>
+  </si>
+  <si>
+    <t>锁定技，每次受到属性伤害时，最多承受1点伤害。</t>
+  </si>
+  <si>
+    <t>张春华</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>宣穆妃</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>绝食</t>
+  </si>
+  <si>
+    <t>灭口</t>
+  </si>
+  <si>
+    <t>出牌阶段，若你不成为【桃】和【酒】的目标，你弃1张【桃】或【酒】可指定1名男性角色在其新回合摸牌阶段摸的牌全交给你，然后你摸X张牌，X为你已损失的体力值。你的回合内对每名男性角色只能发动1次。</t>
+  </si>
+  <si>
+    <t>锁定技，你对一名女性角色造成伤害并死亡，你可恢复一点血。</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1561,8 +3461,21 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color theme="0" tint="-0.499984740745262"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Segoe UI Symbol"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1608,6 +3521,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFE7FA"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1676,7 +3595,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="82">
+  <cellXfs count="111">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1755,6 +3674,99 @@
     <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1776,43 +3788,64 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="3" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1842,66 +3875,6 @@
     <xf numFmtId="0" fontId="3" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="3" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1911,11 +3884,44 @@
     <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1923,6 +3929,12 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFFE7FA"/>
+      <color rgb="FFFECEF5"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -2196,10 +4208,571 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1020B2C-B1AD-4587-A71D-AB5DBF07C9D0}">
+  <dimension ref="A1:G27"/>
+  <sheetViews>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="C36" sqref="C36"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="16.375" style="17" customWidth="1"/>
+    <col min="4" max="4" width="8.25" customWidth="1"/>
+    <col min="5" max="5" width="25" customWidth="1"/>
+    <col min="7" max="7" width="83.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="21" x14ac:dyDescent="0.2">
+      <c r="A1" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="60.75" x14ac:dyDescent="0.2">
+      <c r="A2" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="15">
+        <v>4</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="20.25" x14ac:dyDescent="0.2">
+      <c r="A3" s="66" t="s">
+        <v>68</v>
+      </c>
+      <c r="B3" s="46" t="s">
+        <v>73</v>
+      </c>
+      <c r="C3" s="46" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="47">
+        <v>4</v>
+      </c>
+      <c r="E3" s="49" t="s">
+        <v>74</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="40.5" x14ac:dyDescent="0.2">
+      <c r="A4" s="66"/>
+      <c r="B4" s="46"/>
+      <c r="C4" s="46"/>
+      <c r="D4" s="48"/>
+      <c r="E4" s="49"/>
+      <c r="F4" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="20.25" x14ac:dyDescent="0.2">
+      <c r="A5" s="66" t="s">
+        <v>68</v>
+      </c>
+      <c r="B5" s="46" t="s">
+        <v>79</v>
+      </c>
+      <c r="C5" s="46" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="47">
+        <v>4</v>
+      </c>
+      <c r="E5" s="49" t="s">
+        <v>84</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="20.25" x14ac:dyDescent="0.2">
+      <c r="A6" s="66"/>
+      <c r="B6" s="46"/>
+      <c r="C6" s="46"/>
+      <c r="D6" s="48"/>
+      <c r="E6" s="49"/>
+      <c r="F6" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="40.5" x14ac:dyDescent="0.2">
+      <c r="A7" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="13">
+        <v>4</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="40.5" x14ac:dyDescent="0.2">
+      <c r="A8" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="13">
+        <v>4</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="76" t="s">
+        <v>68</v>
+      </c>
+      <c r="B9" s="55" t="s">
+        <v>92</v>
+      </c>
+      <c r="C9" s="55" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="55">
+        <v>3</v>
+      </c>
+      <c r="E9" s="79" t="s">
+        <v>93</v>
+      </c>
+      <c r="F9" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="G9" s="12" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="20.25" x14ac:dyDescent="0.2">
+      <c r="A10" s="77"/>
+      <c r="B10" s="56"/>
+      <c r="C10" s="56"/>
+      <c r="D10" s="56"/>
+      <c r="E10" s="80"/>
+      <c r="F10" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="G10" s="12" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="40.5" x14ac:dyDescent="0.2">
+      <c r="A11" s="78"/>
+      <c r="B11" s="57"/>
+      <c r="C11" s="57"/>
+      <c r="D11" s="57"/>
+      <c r="E11" s="81"/>
+      <c r="F11" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="G11" s="12" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="20.25" x14ac:dyDescent="0.2">
+      <c r="A12" s="82" t="s">
+        <v>68</v>
+      </c>
+      <c r="B12" s="54" t="s">
+        <v>100</v>
+      </c>
+      <c r="C12" s="54" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" s="54">
+        <v>3</v>
+      </c>
+      <c r="E12" s="58" t="s">
+        <v>101</v>
+      </c>
+      <c r="F12" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="G12" s="12" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="20.25" x14ac:dyDescent="0.2">
+      <c r="A13" s="82"/>
+      <c r="B13" s="54"/>
+      <c r="C13" s="54"/>
+      <c r="D13" s="54"/>
+      <c r="E13" s="58"/>
+      <c r="F13" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="G13" s="12" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="67" t="s">
+        <v>68</v>
+      </c>
+      <c r="B14" s="70" t="s">
+        <v>106</v>
+      </c>
+      <c r="C14" s="70" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" s="70">
+        <v>4</v>
+      </c>
+      <c r="E14" s="73" t="s">
+        <v>107</v>
+      </c>
+      <c r="F14" s="20" t="s">
+        <v>108</v>
+      </c>
+      <c r="G14" s="21" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="20.25" x14ac:dyDescent="0.2">
+      <c r="A15" s="68"/>
+      <c r="B15" s="71"/>
+      <c r="C15" s="71"/>
+      <c r="D15" s="71"/>
+      <c r="E15" s="74"/>
+      <c r="F15" s="20" t="s">
+        <v>109</v>
+      </c>
+      <c r="G15" s="21" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="40.5" x14ac:dyDescent="0.2">
+      <c r="A16" s="69"/>
+      <c r="B16" s="72"/>
+      <c r="C16" s="72"/>
+      <c r="D16" s="72"/>
+      <c r="E16" s="75"/>
+      <c r="F16" s="20" t="s">
+        <v>110</v>
+      </c>
+      <c r="G16" s="21" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="20.25" x14ac:dyDescent="0.2">
+      <c r="A17" s="67" t="s">
+        <v>68</v>
+      </c>
+      <c r="B17" s="70" t="s">
+        <v>114</v>
+      </c>
+      <c r="C17" s="70" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" s="70">
+        <v>4</v>
+      </c>
+      <c r="E17" s="73" t="s">
+        <v>115</v>
+      </c>
+      <c r="F17" s="20" t="s">
+        <v>116</v>
+      </c>
+      <c r="G17" s="21" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="20.25" x14ac:dyDescent="0.2">
+      <c r="A18" s="68"/>
+      <c r="B18" s="71"/>
+      <c r="C18" s="71"/>
+      <c r="D18" s="71"/>
+      <c r="E18" s="74"/>
+      <c r="F18" s="20" t="s">
+        <v>117</v>
+      </c>
+      <c r="G18" s="21" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="20.25" x14ac:dyDescent="0.2">
+      <c r="A19" s="69"/>
+      <c r="B19" s="72"/>
+      <c r="C19" s="72"/>
+      <c r="D19" s="72"/>
+      <c r="E19" s="75"/>
+      <c r="F19" s="20" t="s">
+        <v>118</v>
+      </c>
+      <c r="G19" s="21" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="40.5" x14ac:dyDescent="0.2">
+      <c r="A20" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="B20" s="23" t="s">
+        <v>122</v>
+      </c>
+      <c r="C20" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="D20" s="23">
+        <v>4</v>
+      </c>
+      <c r="E20" s="20" t="s">
+        <v>123</v>
+      </c>
+      <c r="F20" s="20" t="s">
+        <v>124</v>
+      </c>
+      <c r="G20" s="21" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="60.75" x14ac:dyDescent="0.2">
+      <c r="A21" s="83" t="s">
+        <v>68</v>
+      </c>
+      <c r="B21" s="84" t="s">
+        <v>126</v>
+      </c>
+      <c r="C21" s="84" t="s">
+        <v>127</v>
+      </c>
+      <c r="D21" s="84">
+        <v>5</v>
+      </c>
+      <c r="E21" s="85" t="s">
+        <v>128</v>
+      </c>
+      <c r="F21" s="26" t="s">
+        <v>129</v>
+      </c>
+      <c r="G21" s="27" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="40.5" x14ac:dyDescent="0.2">
+      <c r="A22" s="83"/>
+      <c r="B22" s="84"/>
+      <c r="C22" s="84"/>
+      <c r="D22" s="84"/>
+      <c r="E22" s="85"/>
+      <c r="F22" s="26" t="s">
+        <v>130</v>
+      </c>
+      <c r="G22" s="27" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="60.75" x14ac:dyDescent="0.2">
+      <c r="A23" s="83" t="s">
+        <v>68</v>
+      </c>
+      <c r="B23" s="84" t="s">
+        <v>50</v>
+      </c>
+      <c r="C23" s="84" t="s">
+        <v>127</v>
+      </c>
+      <c r="D23" s="84">
+        <v>3</v>
+      </c>
+      <c r="E23" s="85" t="s">
+        <v>133</v>
+      </c>
+      <c r="F23" s="26" t="s">
+        <v>134</v>
+      </c>
+      <c r="G23" s="27" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="20.25" x14ac:dyDescent="0.2">
+      <c r="A24" s="83"/>
+      <c r="B24" s="84"/>
+      <c r="C24" s="84"/>
+      <c r="D24" s="84"/>
+      <c r="E24" s="85"/>
+      <c r="F24" s="26" t="s">
+        <v>54</v>
+      </c>
+      <c r="G24" s="27" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="40.5" x14ac:dyDescent="0.2">
+      <c r="A25" s="86" t="s">
+        <v>68</v>
+      </c>
+      <c r="B25" s="89" t="s">
+        <v>137</v>
+      </c>
+      <c r="C25" s="89" t="s">
+        <v>138</v>
+      </c>
+      <c r="D25" s="89">
+        <v>3</v>
+      </c>
+      <c r="E25" s="92" t="s">
+        <v>145</v>
+      </c>
+      <c r="F25" s="26" t="s">
+        <v>139</v>
+      </c>
+      <c r="G25" s="27" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="40.5" x14ac:dyDescent="0.2">
+      <c r="A26" s="87"/>
+      <c r="B26" s="90"/>
+      <c r="C26" s="90"/>
+      <c r="D26" s="90"/>
+      <c r="E26" s="93"/>
+      <c r="F26" s="26" t="s">
+        <v>140</v>
+      </c>
+      <c r="G26" s="27" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="20.25" x14ac:dyDescent="0.2">
+      <c r="A27" s="88"/>
+      <c r="B27" s="91"/>
+      <c r="C27" s="91"/>
+      <c r="D27" s="91"/>
+      <c r="E27" s="94"/>
+      <c r="F27" s="26" t="s">
+        <v>141</v>
+      </c>
+      <c r="G27" s="27" t="s">
+        <v>144</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="45">
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="B25:B27"/>
+    <mergeCell ref="C25:C27"/>
+    <mergeCell ref="D25:D27"/>
+    <mergeCell ref="E25:E27"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="A17:A19"/>
+    <mergeCell ref="B17:B19"/>
+    <mergeCell ref="C17:C19"/>
+    <mergeCell ref="D17:D19"/>
+    <mergeCell ref="E17:E19"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="C9:C11"/>
+    <mergeCell ref="D9:D11"/>
+    <mergeCell ref="E9:E11"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="A14:A16"/>
+    <mergeCell ref="B14:B16"/>
+    <mergeCell ref="C14:C16"/>
+    <mergeCell ref="D14:D16"/>
+    <mergeCell ref="E14:E16"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G18"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G14" sqref="A1:G18"/>
     </sheetView>
   </sheetViews>
@@ -2238,19 +4811,19 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A2" s="40" t="s">
+      <c r="A2" s="46" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="40" t="s">
+      <c r="B2" s="46" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="40" t="s">
+      <c r="C2" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="41">
+      <c r="D2" s="47">
         <v>3</v>
       </c>
-      <c r="E2" s="43" t="s">
+      <c r="E2" s="49" t="s">
         <v>13</v>
       </c>
       <c r="F2" s="3" t="s">
@@ -2261,11 +4834,11 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A3" s="40"/>
-      <c r="B3" s="40"/>
-      <c r="C3" s="40"/>
-      <c r="D3" s="42"/>
-      <c r="E3" s="43"/>
+      <c r="A3" s="46"/>
+      <c r="B3" s="46"/>
+      <c r="C3" s="46"/>
+      <c r="D3" s="48"/>
+      <c r="E3" s="49"/>
       <c r="F3" s="3" t="s">
         <v>15</v>
       </c>
@@ -2274,19 +4847,19 @@
       </c>
     </row>
     <row r="4" spans="1:7" ht="41.25" x14ac:dyDescent="0.35">
-      <c r="A4" s="40" t="s">
+      <c r="A4" s="46" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="40" t="s">
+      <c r="B4" s="46" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="40" t="s">
+      <c r="C4" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="41">
+      <c r="D4" s="47">
         <v>4</v>
       </c>
-      <c r="E4" s="43" t="s">
+      <c r="E4" s="49" t="s">
         <v>20</v>
       </c>
       <c r="F4" s="3" t="s">
@@ -2297,11 +4870,11 @@
       </c>
     </row>
     <row r="5" spans="1:7" ht="40.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="40"/>
-      <c r="B5" s="40"/>
-      <c r="C5" s="40"/>
-      <c r="D5" s="42"/>
-      <c r="E5" s="43"/>
+      <c r="A5" s="46"/>
+      <c r="B5" s="46"/>
+      <c r="C5" s="46"/>
+      <c r="D5" s="48"/>
+      <c r="E5" s="49"/>
       <c r="F5" s="3" t="s">
         <v>22</v>
       </c>
@@ -2310,19 +4883,19 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A6" s="44" t="s">
+      <c r="A6" s="50" t="s">
         <v>24</v>
       </c>
-      <c r="B6" s="44" t="s">
+      <c r="B6" s="50" t="s">
         <v>25</v>
       </c>
-      <c r="C6" s="44" t="s">
+      <c r="C6" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="45">
+      <c r="D6" s="51">
         <v>4</v>
       </c>
-      <c r="E6" s="47" t="s">
+      <c r="E6" s="53" t="s">
         <v>28</v>
       </c>
       <c r="F6" s="6" t="s">
@@ -2333,11 +4906,11 @@
       </c>
     </row>
     <row r="7" spans="1:7" ht="41.25" x14ac:dyDescent="0.35">
-      <c r="A7" s="44"/>
-      <c r="B7" s="44"/>
-      <c r="C7" s="44"/>
-      <c r="D7" s="46"/>
-      <c r="E7" s="47"/>
+      <c r="A7" s="50"/>
+      <c r="B7" s="50"/>
+      <c r="C7" s="50"/>
+      <c r="D7" s="52"/>
+      <c r="E7" s="53"/>
       <c r="F7" s="6" t="s">
         <v>31</v>
       </c>
@@ -2346,19 +4919,19 @@
       </c>
     </row>
     <row r="8" spans="1:7" ht="60.75" x14ac:dyDescent="0.35">
-      <c r="A8" s="44" t="s">
+      <c r="A8" s="50" t="s">
         <v>26</v>
       </c>
-      <c r="B8" s="44" t="s">
+      <c r="B8" s="50" t="s">
         <v>27</v>
       </c>
-      <c r="C8" s="44" t="s">
+      <c r="C8" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="45">
+      <c r="D8" s="51">
         <v>4</v>
       </c>
-      <c r="E8" s="47" t="s">
+      <c r="E8" s="53" t="s">
         <v>29</v>
       </c>
       <c r="F8" s="6" t="s">
@@ -2369,11 +4942,11 @@
       </c>
     </row>
     <row r="9" spans="1:7" ht="40.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="44"/>
-      <c r="B9" s="44"/>
-      <c r="C9" s="44"/>
-      <c r="D9" s="46"/>
-      <c r="E9" s="47"/>
+      <c r="A9" s="50"/>
+      <c r="B9" s="50"/>
+      <c r="C9" s="50"/>
+      <c r="D9" s="52"/>
+      <c r="E9" s="53"/>
       <c r="F9" s="6" t="s">
         <v>34</v>
       </c>
@@ -2382,19 +4955,19 @@
       </c>
     </row>
     <row r="10" spans="1:7" ht="21" x14ac:dyDescent="0.35">
-      <c r="A10" s="35" t="s">
+      <c r="A10" s="54" t="s">
         <v>37</v>
       </c>
-      <c r="B10" s="35" t="s">
+      <c r="B10" s="54" t="s">
         <v>39</v>
       </c>
-      <c r="C10" s="35" t="s">
+      <c r="C10" s="54" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="36">
+      <c r="D10" s="55">
         <v>3</v>
       </c>
-      <c r="E10" s="39" t="s">
+      <c r="E10" s="58" t="s">
         <v>29</v>
       </c>
       <c r="F10" s="11" t="s">
@@ -2405,11 +4978,11 @@
       </c>
     </row>
     <row r="11" spans="1:7" ht="60.75" x14ac:dyDescent="0.35">
-      <c r="A11" s="35"/>
-      <c r="B11" s="35"/>
-      <c r="C11" s="35"/>
-      <c r="D11" s="37"/>
-      <c r="E11" s="39"/>
+      <c r="A11" s="54"/>
+      <c r="B11" s="54"/>
+      <c r="C11" s="54"/>
+      <c r="D11" s="56"/>
+      <c r="E11" s="58"/>
       <c r="F11" s="11" t="s">
         <v>43</v>
       </c>
@@ -2418,11 +4991,11 @@
       </c>
     </row>
     <row r="12" spans="1:7" ht="21" x14ac:dyDescent="0.35">
-      <c r="A12" s="35"/>
-      <c r="B12" s="35"/>
-      <c r="C12" s="35"/>
-      <c r="D12" s="38"/>
-      <c r="E12" s="39"/>
+      <c r="A12" s="54"/>
+      <c r="B12" s="54"/>
+      <c r="C12" s="54"/>
+      <c r="D12" s="57"/>
+      <c r="E12" s="58"/>
       <c r="F12" s="11" t="s">
         <v>44</v>
       </c>
@@ -2454,19 +5027,19 @@
       </c>
     </row>
     <row r="14" spans="1:7" ht="40.5" x14ac:dyDescent="0.35">
-      <c r="A14" s="30" t="s">
+      <c r="A14" s="61" t="s">
         <v>48</v>
       </c>
-      <c r="B14" s="30" t="s">
+      <c r="B14" s="61" t="s">
         <v>50</v>
       </c>
-      <c r="C14" s="30" t="s">
+      <c r="C14" s="61" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="31">
+      <c r="D14" s="62">
         <v>3</v>
       </c>
-      <c r="E14" s="34" t="s">
+      <c r="E14" s="65" t="s">
         <v>67</v>
       </c>
       <c r="F14" s="8" t="s">
@@ -2477,11 +5050,11 @@
       </c>
     </row>
     <row r="15" spans="1:7" ht="40.5" x14ac:dyDescent="0.35">
-      <c r="A15" s="30"/>
-      <c r="B15" s="30"/>
-      <c r="C15" s="30"/>
-      <c r="D15" s="32"/>
-      <c r="E15" s="34"/>
+      <c r="A15" s="61"/>
+      <c r="B15" s="61"/>
+      <c r="C15" s="61"/>
+      <c r="D15" s="63"/>
+      <c r="E15" s="65"/>
       <c r="F15" s="8" t="s">
         <v>53</v>
       </c>
@@ -2490,11 +5063,11 @@
       </c>
     </row>
     <row r="16" spans="1:7" ht="40.5" x14ac:dyDescent="0.35">
-      <c r="A16" s="30"/>
-      <c r="B16" s="30"/>
-      <c r="C16" s="30"/>
-      <c r="D16" s="33"/>
-      <c r="E16" s="34"/>
+      <c r="A16" s="61"/>
+      <c r="B16" s="61"/>
+      <c r="C16" s="61"/>
+      <c r="D16" s="64"/>
+      <c r="E16" s="65"/>
       <c r="F16" s="8" t="s">
         <v>54</v>
       </c>
@@ -2503,19 +5076,19 @@
       </c>
     </row>
     <row r="17" spans="1:7" ht="60.75" x14ac:dyDescent="0.35">
-      <c r="A17" s="31" t="s">
+      <c r="A17" s="62" t="s">
         <v>49</v>
       </c>
-      <c r="B17" s="31" t="s">
+      <c r="B17" s="62" t="s">
         <v>51</v>
       </c>
-      <c r="C17" s="31" t="s">
+      <c r="C17" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="D17" s="31">
+      <c r="D17" s="62">
         <v>4</v>
       </c>
-      <c r="E17" s="28" t="s">
+      <c r="E17" s="59" t="s">
         <v>66</v>
       </c>
       <c r="F17" s="8" t="s">
@@ -2526,11 +5099,11 @@
       </c>
     </row>
     <row r="18" spans="1:7" ht="21" x14ac:dyDescent="0.35">
-      <c r="A18" s="33"/>
-      <c r="B18" s="33"/>
-      <c r="C18" s="33"/>
-      <c r="D18" s="33"/>
-      <c r="E18" s="29"/>
+      <c r="A18" s="64"/>
+      <c r="B18" s="64"/>
+      <c r="C18" s="64"/>
+      <c r="D18" s="64"/>
+      <c r="E18" s="60"/>
       <c r="F18" s="8" t="s">
         <v>59</v>
       </c>
@@ -2540,31 +5113,6 @@
     </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="A10:A12"/>
-    <mergeCell ref="B10:B12"/>
-    <mergeCell ref="C10:C12"/>
-    <mergeCell ref="D10:D12"/>
-    <mergeCell ref="E10:E12"/>
     <mergeCell ref="E17:E18"/>
     <mergeCell ref="A14:A16"/>
     <mergeCell ref="B14:B16"/>
@@ -2575,6 +5123,31 @@
     <mergeCell ref="B17:B18"/>
     <mergeCell ref="C17:C18"/>
     <mergeCell ref="D17:D18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="B10:B12"/>
+    <mergeCell ref="C10:C12"/>
+    <mergeCell ref="D10:D12"/>
+    <mergeCell ref="E10:E12"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2583,572 +5156,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1020B2C-B1AD-4587-A71D-AB5DBF07C9D0}">
-  <dimension ref="A1:G27"/>
-  <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="G20" sqref="A1:G27"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="16.375" style="17" customWidth="1"/>
-    <col min="4" max="4" width="8.25" customWidth="1"/>
-    <col min="5" max="5" width="25" customWidth="1"/>
-    <col min="7" max="7" width="83.75" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" ht="21" x14ac:dyDescent="0.2">
-      <c r="A1" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="60.75" x14ac:dyDescent="0.2">
-      <c r="A2" s="19" t="s">
-        <v>68</v>
-      </c>
-      <c r="B2" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="C2" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="15">
-        <v>4</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A3" s="76" t="s">
-        <v>68</v>
-      </c>
-      <c r="B3" s="40" t="s">
-        <v>73</v>
-      </c>
-      <c r="C3" s="40" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="41">
-        <v>4</v>
-      </c>
-      <c r="E3" s="43" t="s">
-        <v>74</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="40.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="76"/>
-      <c r="B4" s="40"/>
-      <c r="C4" s="40"/>
-      <c r="D4" s="42"/>
-      <c r="E4" s="43"/>
-      <c r="F4" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A5" s="76" t="s">
-        <v>68</v>
-      </c>
-      <c r="B5" s="40" t="s">
-        <v>79</v>
-      </c>
-      <c r="C5" s="40" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" s="41">
-        <v>4</v>
-      </c>
-      <c r="E5" s="43" t="s">
-        <v>84</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A6" s="76"/>
-      <c r="B6" s="40"/>
-      <c r="C6" s="40"/>
-      <c r="D6" s="42"/>
-      <c r="E6" s="43"/>
-      <c r="F6" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="40.5" x14ac:dyDescent="0.2">
-      <c r="A7" s="18" t="s">
-        <v>68</v>
-      </c>
-      <c r="B7" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="C7" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="D7" s="13">
-        <v>4</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="F7" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="40.5" x14ac:dyDescent="0.2">
-      <c r="A8" s="18" t="s">
-        <v>68</v>
-      </c>
-      <c r="B8" s="13" t="s">
-        <v>88</v>
-      </c>
-      <c r="C8" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="D8" s="13">
-        <v>4</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="F8" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="70" t="s">
-        <v>68</v>
-      </c>
-      <c r="B9" s="36" t="s">
-        <v>92</v>
-      </c>
-      <c r="C9" s="36" t="s">
-        <v>10</v>
-      </c>
-      <c r="D9" s="36">
-        <v>3</v>
-      </c>
-      <c r="E9" s="73" t="s">
-        <v>93</v>
-      </c>
-      <c r="F9" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="G9" s="12" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A10" s="71"/>
-      <c r="B10" s="37"/>
-      <c r="C10" s="37"/>
-      <c r="D10" s="37"/>
-      <c r="E10" s="74"/>
-      <c r="F10" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="G10" s="12" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="40.5" x14ac:dyDescent="0.2">
-      <c r="A11" s="72"/>
-      <c r="B11" s="38"/>
-      <c r="C11" s="38"/>
-      <c r="D11" s="38"/>
-      <c r="E11" s="75"/>
-      <c r="F11" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="G11" s="12" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A12" s="60" t="s">
-        <v>68</v>
-      </c>
-      <c r="B12" s="35" t="s">
-        <v>100</v>
-      </c>
-      <c r="C12" s="35" t="s">
-        <v>10</v>
-      </c>
-      <c r="D12" s="35">
-        <v>3</v>
-      </c>
-      <c r="E12" s="39" t="s">
-        <v>101</v>
-      </c>
-      <c r="F12" s="11" t="s">
-        <v>102</v>
-      </c>
-      <c r="G12" s="12" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A13" s="60"/>
-      <c r="B13" s="35"/>
-      <c r="C13" s="35"/>
-      <c r="D13" s="35"/>
-      <c r="E13" s="39"/>
-      <c r="F13" s="11" t="s">
-        <v>103</v>
-      </c>
-      <c r="G13" s="12" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="61" t="s">
-        <v>68</v>
-      </c>
-      <c r="B14" s="64" t="s">
-        <v>106</v>
-      </c>
-      <c r="C14" s="64" t="s">
-        <v>9</v>
-      </c>
-      <c r="D14" s="64">
-        <v>4</v>
-      </c>
-      <c r="E14" s="67" t="s">
-        <v>107</v>
-      </c>
-      <c r="F14" s="20" t="s">
-        <v>108</v>
-      </c>
-      <c r="G14" s="21" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A15" s="62"/>
-      <c r="B15" s="65"/>
-      <c r="C15" s="65"/>
-      <c r="D15" s="65"/>
-      <c r="E15" s="68"/>
-      <c r="F15" s="20" t="s">
-        <v>109</v>
-      </c>
-      <c r="G15" s="21" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="40.5" x14ac:dyDescent="0.2">
-      <c r="A16" s="63"/>
-      <c r="B16" s="66"/>
-      <c r="C16" s="66"/>
-      <c r="D16" s="66"/>
-      <c r="E16" s="69"/>
-      <c r="F16" s="20" t="s">
-        <v>110</v>
-      </c>
-      <c r="G16" s="21" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A17" s="61" t="s">
-        <v>68</v>
-      </c>
-      <c r="B17" s="64" t="s">
-        <v>114</v>
-      </c>
-      <c r="C17" s="64" t="s">
-        <v>9</v>
-      </c>
-      <c r="D17" s="64">
-        <v>4</v>
-      </c>
-      <c r="E17" s="67" t="s">
-        <v>115</v>
-      </c>
-      <c r="F17" s="20" t="s">
-        <v>116</v>
-      </c>
-      <c r="G17" s="21" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A18" s="62"/>
-      <c r="B18" s="65"/>
-      <c r="C18" s="65"/>
-      <c r="D18" s="65"/>
-      <c r="E18" s="68"/>
-      <c r="F18" s="20" t="s">
-        <v>117</v>
-      </c>
-      <c r="G18" s="21" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A19" s="63"/>
-      <c r="B19" s="66"/>
-      <c r="C19" s="66"/>
-      <c r="D19" s="66"/>
-      <c r="E19" s="69"/>
-      <c r="F19" s="20" t="s">
-        <v>118</v>
-      </c>
-      <c r="G19" s="21" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="40.5" x14ac:dyDescent="0.2">
-      <c r="A20" s="22" t="s">
-        <v>68</v>
-      </c>
-      <c r="B20" s="23" t="s">
-        <v>122</v>
-      </c>
-      <c r="C20" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="D20" s="23">
-        <v>4</v>
-      </c>
-      <c r="E20" s="20" t="s">
-        <v>123</v>
-      </c>
-      <c r="F20" s="20" t="s">
-        <v>124</v>
-      </c>
-      <c r="G20" s="21" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="60.75" x14ac:dyDescent="0.2">
-      <c r="A21" s="57" t="s">
-        <v>68</v>
-      </c>
-      <c r="B21" s="58" t="s">
-        <v>126</v>
-      </c>
-      <c r="C21" s="58" t="s">
-        <v>127</v>
-      </c>
-      <c r="D21" s="58">
-        <v>5</v>
-      </c>
-      <c r="E21" s="59" t="s">
-        <v>128</v>
-      </c>
-      <c r="F21" s="26" t="s">
-        <v>129</v>
-      </c>
-      <c r="G21" s="27" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="40.5" x14ac:dyDescent="0.2">
-      <c r="A22" s="57"/>
-      <c r="B22" s="58"/>
-      <c r="C22" s="58"/>
-      <c r="D22" s="58"/>
-      <c r="E22" s="59"/>
-      <c r="F22" s="26" t="s">
-        <v>130</v>
-      </c>
-      <c r="G22" s="27" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="60.75" x14ac:dyDescent="0.2">
-      <c r="A23" s="57" t="s">
-        <v>68</v>
-      </c>
-      <c r="B23" s="58" t="s">
-        <v>50</v>
-      </c>
-      <c r="C23" s="58" t="s">
-        <v>127</v>
-      </c>
-      <c r="D23" s="58">
-        <v>3</v>
-      </c>
-      <c r="E23" s="59" t="s">
-        <v>133</v>
-      </c>
-      <c r="F23" s="26" t="s">
-        <v>134</v>
-      </c>
-      <c r="G23" s="27" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A24" s="57"/>
-      <c r="B24" s="58"/>
-      <c r="C24" s="58"/>
-      <c r="D24" s="58"/>
-      <c r="E24" s="59"/>
-      <c r="F24" s="26" t="s">
-        <v>54</v>
-      </c>
-      <c r="G24" s="27" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" ht="40.5" x14ac:dyDescent="0.2">
-      <c r="A25" s="48" t="s">
-        <v>68</v>
-      </c>
-      <c r="B25" s="51" t="s">
-        <v>137</v>
-      </c>
-      <c r="C25" s="51" t="s">
-        <v>138</v>
-      </c>
-      <c r="D25" s="51">
-        <v>3</v>
-      </c>
-      <c r="E25" s="54" t="s">
-        <v>145</v>
-      </c>
-      <c r="F25" s="26" t="s">
-        <v>139</v>
-      </c>
-      <c r="G25" s="27" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" ht="40.5" x14ac:dyDescent="0.2">
-      <c r="A26" s="49"/>
-      <c r="B26" s="52"/>
-      <c r="C26" s="52"/>
-      <c r="D26" s="52"/>
-      <c r="E26" s="55"/>
-      <c r="F26" s="26" t="s">
-        <v>140</v>
-      </c>
-      <c r="G26" s="27" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A27" s="50"/>
-      <c r="B27" s="53"/>
-      <c r="C27" s="53"/>
-      <c r="D27" s="53"/>
-      <c r="E27" s="56"/>
-      <c r="F27" s="26" t="s">
-        <v>141</v>
-      </c>
-      <c r="G27" s="27" t="s">
-        <v>144</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="45">
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="A14:A16"/>
-    <mergeCell ref="B14:B16"/>
-    <mergeCell ref="C14:C16"/>
-    <mergeCell ref="D14:D16"/>
-    <mergeCell ref="E14:E16"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="A9:A11"/>
-    <mergeCell ref="B9:B11"/>
-    <mergeCell ref="C9:C11"/>
-    <mergeCell ref="D9:D11"/>
-    <mergeCell ref="E9:E11"/>
-    <mergeCell ref="A17:A19"/>
-    <mergeCell ref="B17:B19"/>
-    <mergeCell ref="C17:C19"/>
-    <mergeCell ref="D17:D19"/>
-    <mergeCell ref="E17:E19"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="A25:A27"/>
-    <mergeCell ref="B25:B27"/>
-    <mergeCell ref="C25:C27"/>
-    <mergeCell ref="D25:D27"/>
-    <mergeCell ref="E25:E27"/>
-  </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23AA394C-E7D3-447E-9C08-D599E302E2F5}">
   <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I10" sqref="A1:XFD1048576"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3183,19 +5195,19 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="40.5" x14ac:dyDescent="0.2">
-      <c r="A2" s="61" t="s">
-        <v>68</v>
-      </c>
-      <c r="B2" s="64" t="s">
+      <c r="A2" s="67" t="s">
+        <v>68</v>
+      </c>
+      <c r="B2" s="70" t="s">
         <v>146</v>
       </c>
-      <c r="C2" s="64" t="s">
+      <c r="C2" s="70" t="s">
         <v>149</v>
       </c>
-      <c r="D2" s="64">
+      <c r="D2" s="70">
         <v>3</v>
       </c>
-      <c r="E2" s="67" t="s">
+      <c r="E2" s="73" t="s">
         <v>147</v>
       </c>
       <c r="F2" s="20" t="s">
@@ -3206,11 +5218,11 @@
       </c>
     </row>
     <row r="3" spans="1:7" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A3" s="62"/>
-      <c r="B3" s="65"/>
-      <c r="C3" s="65"/>
-      <c r="D3" s="65"/>
-      <c r="E3" s="68"/>
+      <c r="A3" s="68"/>
+      <c r="B3" s="71"/>
+      <c r="C3" s="71"/>
+      <c r="D3" s="71"/>
+      <c r="E3" s="74"/>
       <c r="F3" s="20" t="s">
         <v>110</v>
       </c>
@@ -3219,11 +5231,11 @@
       </c>
     </row>
     <row r="4" spans="1:7" ht="21" x14ac:dyDescent="0.2">
-      <c r="A4" s="63"/>
-      <c r="B4" s="66"/>
-      <c r="C4" s="66"/>
-      <c r="D4" s="66"/>
-      <c r="E4" s="69"/>
+      <c r="A4" s="69"/>
+      <c r="B4" s="72"/>
+      <c r="C4" s="72"/>
+      <c r="D4" s="72"/>
+      <c r="E4" s="75"/>
       <c r="F4" s="20" t="s">
         <v>148</v>
       </c>
@@ -3232,19 +5244,19 @@
       </c>
     </row>
     <row r="5" spans="1:7" ht="40.5" x14ac:dyDescent="0.2">
-      <c r="A5" s="61" t="s">
-        <v>68</v>
-      </c>
-      <c r="B5" s="64" t="s">
+      <c r="A5" s="67" t="s">
+        <v>68</v>
+      </c>
+      <c r="B5" s="70" t="s">
         <v>152</v>
       </c>
-      <c r="C5" s="64" t="s">
+      <c r="C5" s="70" t="s">
         <v>149</v>
       </c>
-      <c r="D5" s="64">
+      <c r="D5" s="70">
         <v>3</v>
       </c>
-      <c r="E5" s="67" t="s">
+      <c r="E5" s="73" t="s">
         <v>153</v>
       </c>
       <c r="F5" s="20" t="s">
@@ -3255,11 +5267,11 @@
       </c>
     </row>
     <row r="6" spans="1:7" ht="21" x14ac:dyDescent="0.2">
-      <c r="A6" s="62"/>
-      <c r="B6" s="65"/>
-      <c r="C6" s="65"/>
-      <c r="D6" s="65"/>
-      <c r="E6" s="68"/>
+      <c r="A6" s="68"/>
+      <c r="B6" s="71"/>
+      <c r="C6" s="71"/>
+      <c r="D6" s="71"/>
+      <c r="E6" s="74"/>
       <c r="F6" s="20" t="s">
         <v>155</v>
       </c>
@@ -3268,11 +5280,11 @@
       </c>
     </row>
     <row r="7" spans="1:7" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A7" s="63"/>
-      <c r="B7" s="66"/>
-      <c r="C7" s="66"/>
-      <c r="D7" s="66"/>
-      <c r="E7" s="69"/>
+      <c r="A7" s="69"/>
+      <c r="B7" s="72"/>
+      <c r="C7" s="72"/>
+      <c r="D7" s="72"/>
+      <c r="E7" s="75"/>
       <c r="F7" s="20" t="s">
         <v>156</v>
       </c>
@@ -3281,19 +5293,19 @@
       </c>
     </row>
     <row r="8" spans="1:7" ht="40.5" x14ac:dyDescent="0.2">
-      <c r="A8" s="77" t="s">
-        <v>68</v>
-      </c>
-      <c r="B8" s="78" t="s">
+      <c r="A8" s="95" t="s">
+        <v>68</v>
+      </c>
+      <c r="B8" s="96" t="s">
         <v>159</v>
       </c>
-      <c r="C8" s="78" t="s">
+      <c r="C8" s="96" t="s">
         <v>149</v>
       </c>
-      <c r="D8" s="78">
+      <c r="D8" s="96">
         <v>4</v>
       </c>
-      <c r="E8" s="79" t="s">
+      <c r="E8" s="97" t="s">
         <v>160</v>
       </c>
       <c r="F8" s="20" t="s">
@@ -3304,11 +5316,11 @@
       </c>
     </row>
     <row r="9" spans="1:7" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A9" s="77"/>
-      <c r="B9" s="78"/>
-      <c r="C9" s="78"/>
-      <c r="D9" s="78"/>
-      <c r="E9" s="79"/>
+      <c r="A9" s="95"/>
+      <c r="B9" s="96"/>
+      <c r="C9" s="96"/>
+      <c r="D9" s="96"/>
+      <c r="E9" s="97"/>
       <c r="F9" s="20" t="s">
         <v>162</v>
       </c>
@@ -3409,19 +5421,19 @@
       </c>
     </row>
     <row r="14" spans="1:7" ht="40.5" x14ac:dyDescent="0.2">
-      <c r="A14" s="77" t="s">
-        <v>68</v>
-      </c>
-      <c r="B14" s="78" t="s">
+      <c r="A14" s="95" t="s">
+        <v>68</v>
+      </c>
+      <c r="B14" s="96" t="s">
         <v>69</v>
       </c>
-      <c r="C14" s="78" t="s">
+      <c r="C14" s="96" t="s">
         <v>149</v>
       </c>
-      <c r="D14" s="78">
+      <c r="D14" s="96">
         <v>4</v>
       </c>
-      <c r="E14" s="79" t="s">
+      <c r="E14" s="97" t="s">
         <v>181</v>
       </c>
       <c r="F14" s="20" t="s">
@@ -3432,11 +5444,11 @@
       </c>
     </row>
     <row r="15" spans="1:7" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A15" s="77"/>
-      <c r="B15" s="78"/>
-      <c r="C15" s="78"/>
-      <c r="D15" s="78"/>
-      <c r="E15" s="79"/>
+      <c r="A15" s="95"/>
+      <c r="B15" s="96"/>
+      <c r="C15" s="96"/>
+      <c r="D15" s="96"/>
+      <c r="E15" s="97"/>
       <c r="F15" s="20" t="s">
         <v>183</v>
       </c>
@@ -3468,19 +5480,19 @@
       </c>
     </row>
     <row r="17" spans="1:7" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A17" s="77" t="s">
+      <c r="A17" s="95" t="s">
         <v>190</v>
       </c>
-      <c r="B17" s="78" t="s">
+      <c r="B17" s="96" t="s">
         <v>191</v>
       </c>
-      <c r="C17" s="78" t="s">
+      <c r="C17" s="96" t="s">
         <v>149</v>
       </c>
-      <c r="D17" s="78">
+      <c r="D17" s="96">
         <v>4</v>
       </c>
-      <c r="E17" s="79" t="s">
+      <c r="E17" s="97" t="s">
         <v>196</v>
       </c>
       <c r="F17" s="20" t="s">
@@ -3491,11 +5503,11 @@
       </c>
     </row>
     <row r="18" spans="1:7" ht="40.5" x14ac:dyDescent="0.2">
-      <c r="A18" s="77"/>
-      <c r="B18" s="78"/>
-      <c r="C18" s="78"/>
-      <c r="D18" s="78"/>
-      <c r="E18" s="79"/>
+      <c r="A18" s="95"/>
+      <c r="B18" s="96"/>
+      <c r="C18" s="96"/>
+      <c r="D18" s="96"/>
+      <c r="E18" s="97"/>
       <c r="F18" s="20" t="s">
         <v>193</v>
       </c>
@@ -3505,42 +5517,42 @@
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="C2:C4"/>
+    <mergeCell ref="D2:D4"/>
+    <mergeCell ref="E2:E4"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="C5:C7"/>
+    <mergeCell ref="D5:D7"/>
+    <mergeCell ref="E5:E7"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="E17:E18"/>
     <mergeCell ref="A14:A15"/>
     <mergeCell ref="B14:B15"/>
     <mergeCell ref="C14:C15"/>
     <mergeCell ref="D14:D15"/>
     <mergeCell ref="E14:E15"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="C5:C7"/>
-    <mergeCell ref="D5:D7"/>
-    <mergeCell ref="E5:E7"/>
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="C2:C4"/>
-    <mergeCell ref="D2:D4"/>
-    <mergeCell ref="E2:E4"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8ECA984E-4AA1-44D3-BEED-815A44B95A92}">
   <dimension ref="A1:G34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
@@ -3577,19 +5589,19 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="21" x14ac:dyDescent="0.2">
-      <c r="A2" s="48" t="s">
-        <v>68</v>
-      </c>
-      <c r="B2" s="51" t="s">
+      <c r="A2" s="86" t="s">
+        <v>68</v>
+      </c>
+      <c r="B2" s="89" t="s">
         <v>199</v>
       </c>
-      <c r="C2" s="51" t="s">
+      <c r="C2" s="89" t="s">
         <v>200</v>
       </c>
-      <c r="D2" s="51">
+      <c r="D2" s="89">
         <v>4</v>
       </c>
-      <c r="E2" s="54" t="s">
+      <c r="E2" s="92" t="s">
         <v>201</v>
       </c>
       <c r="F2" s="26" t="s">
@@ -3600,11 +5612,11 @@
       </c>
     </row>
     <row r="3" spans="1:7" ht="60.75" x14ac:dyDescent="0.2">
-      <c r="A3" s="49"/>
-      <c r="B3" s="52"/>
-      <c r="C3" s="52"/>
-      <c r="D3" s="52"/>
-      <c r="E3" s="55"/>
+      <c r="A3" s="87"/>
+      <c r="B3" s="90"/>
+      <c r="C3" s="90"/>
+      <c r="D3" s="90"/>
+      <c r="E3" s="93"/>
       <c r="F3" s="26" t="s">
         <v>203</v>
       </c>
@@ -3613,11 +5625,11 @@
       </c>
     </row>
     <row r="4" spans="1:7" ht="42" x14ac:dyDescent="0.2">
-      <c r="A4" s="50"/>
-      <c r="B4" s="53"/>
-      <c r="C4" s="53"/>
-      <c r="D4" s="53"/>
-      <c r="E4" s="56"/>
+      <c r="A4" s="88"/>
+      <c r="B4" s="91"/>
+      <c r="C4" s="91"/>
+      <c r="D4" s="91"/>
+      <c r="E4" s="94"/>
       <c r="F4" s="26" t="s">
         <v>204</v>
       </c>
@@ -3626,19 +5638,19 @@
       </c>
     </row>
     <row r="5" spans="1:7" ht="41.25" x14ac:dyDescent="0.2">
-      <c r="A5" s="48" t="s">
-        <v>68</v>
-      </c>
-      <c r="B5" s="51" t="s">
+      <c r="A5" s="86" t="s">
+        <v>68</v>
+      </c>
+      <c r="B5" s="89" t="s">
         <v>208</v>
       </c>
-      <c r="C5" s="51" t="s">
+      <c r="C5" s="89" t="s">
         <v>200</v>
       </c>
-      <c r="D5" s="51">
+      <c r="D5" s="89">
         <v>4</v>
       </c>
-      <c r="E5" s="54" t="s">
+      <c r="E5" s="92" t="s">
         <v>209</v>
       </c>
       <c r="F5" s="26" t="s">
@@ -3649,11 +5661,11 @@
       </c>
     </row>
     <row r="6" spans="1:7" ht="40.5" x14ac:dyDescent="0.2">
-      <c r="A6" s="49"/>
-      <c r="B6" s="52"/>
-      <c r="C6" s="52"/>
-      <c r="D6" s="52"/>
-      <c r="E6" s="55"/>
+      <c r="A6" s="87"/>
+      <c r="B6" s="90"/>
+      <c r="C6" s="90"/>
+      <c r="D6" s="90"/>
+      <c r="E6" s="93"/>
       <c r="F6" s="26" t="s">
         <v>211</v>
       </c>
@@ -3662,11 +5674,11 @@
       </c>
     </row>
     <row r="7" spans="1:7" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A7" s="49"/>
-      <c r="B7" s="52"/>
-      <c r="C7" s="52"/>
-      <c r="D7" s="52"/>
-      <c r="E7" s="55"/>
+      <c r="A7" s="87"/>
+      <c r="B7" s="90"/>
+      <c r="C7" s="90"/>
+      <c r="D7" s="90"/>
+      <c r="E7" s="93"/>
       <c r="F7" s="26" t="s">
         <v>212</v>
       </c>
@@ -3675,32 +5687,32 @@
       </c>
     </row>
     <row r="8" spans="1:7" ht="40.5" x14ac:dyDescent="0.2">
-      <c r="A8" s="50"/>
-      <c r="B8" s="53"/>
-      <c r="C8" s="53"/>
-      <c r="D8" s="53"/>
-      <c r="E8" s="56"/>
-      <c r="F8" s="80" t="s">
+      <c r="A8" s="88"/>
+      <c r="B8" s="91"/>
+      <c r="C8" s="91"/>
+      <c r="D8" s="91"/>
+      <c r="E8" s="94"/>
+      <c r="F8" s="44" t="s">
         <v>216</v>
       </c>
-      <c r="G8" s="81" t="s">
+      <c r="G8" s="45" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="21" x14ac:dyDescent="0.2">
-      <c r="A9" s="57" t="s">
-        <v>68</v>
-      </c>
-      <c r="B9" s="58" t="s">
+      <c r="A9" s="83" t="s">
+        <v>68</v>
+      </c>
+      <c r="B9" s="84" t="s">
         <v>218</v>
       </c>
-      <c r="C9" s="58" t="s">
+      <c r="C9" s="84" t="s">
         <v>200</v>
       </c>
-      <c r="D9" s="58">
+      <c r="D9" s="84">
         <v>4</v>
       </c>
-      <c r="E9" s="59" t="s">
+      <c r="E9" s="85" t="s">
         <v>219</v>
       </c>
       <c r="F9" s="26" t="s">
@@ -3711,11 +5723,11 @@
       </c>
     </row>
     <row r="10" spans="1:7" ht="41.25" x14ac:dyDescent="0.2">
-      <c r="A10" s="57"/>
-      <c r="B10" s="58"/>
-      <c r="C10" s="58"/>
-      <c r="D10" s="58"/>
-      <c r="E10" s="59"/>
+      <c r="A10" s="83"/>
+      <c r="B10" s="84"/>
+      <c r="C10" s="84"/>
+      <c r="D10" s="84"/>
+      <c r="E10" s="85"/>
       <c r="F10" s="26" t="s">
         <v>221</v>
       </c>
@@ -3724,19 +5736,19 @@
       </c>
     </row>
     <row r="11" spans="1:7" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A11" s="57" t="s">
-        <v>68</v>
-      </c>
-      <c r="B11" s="58" t="s">
+      <c r="A11" s="83" t="s">
+        <v>68</v>
+      </c>
+      <c r="B11" s="84" t="s">
         <v>224</v>
       </c>
-      <c r="C11" s="58" t="s">
+      <c r="C11" s="84" t="s">
         <v>200</v>
       </c>
-      <c r="D11" s="58">
+      <c r="D11" s="84">
         <v>4</v>
       </c>
-      <c r="E11" s="59" t="s">
+      <c r="E11" s="85" t="s">
         <v>225</v>
       </c>
       <c r="F11" s="26" t="s">
@@ -3747,11 +5759,11 @@
       </c>
     </row>
     <row r="12" spans="1:7" ht="21" x14ac:dyDescent="0.2">
-      <c r="A12" s="57"/>
-      <c r="B12" s="58"/>
-      <c r="C12" s="58"/>
-      <c r="D12" s="58"/>
-      <c r="E12" s="59"/>
+      <c r="A12" s="83"/>
+      <c r="B12" s="84"/>
+      <c r="C12" s="84"/>
+      <c r="D12" s="84"/>
+      <c r="E12" s="85"/>
       <c r="F12" s="26" t="s">
         <v>227</v>
       </c>
@@ -3760,45 +5772,45 @@
       </c>
     </row>
     <row r="13" spans="1:7" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A13" s="57"/>
-      <c r="B13" s="58"/>
-      <c r="C13" s="58"/>
-      <c r="D13" s="58"/>
-      <c r="E13" s="59"/>
-      <c r="F13" s="80" t="s">
+      <c r="A13" s="83"/>
+      <c r="B13" s="84"/>
+      <c r="C13" s="84"/>
+      <c r="D13" s="84"/>
+      <c r="E13" s="85"/>
+      <c r="F13" s="44" t="s">
         <v>216</v>
       </c>
-      <c r="G13" s="81" t="s">
+      <c r="G13" s="45" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="40.5" x14ac:dyDescent="0.2">
-      <c r="A14" s="57"/>
-      <c r="B14" s="58"/>
-      <c r="C14" s="58"/>
-      <c r="D14" s="58"/>
-      <c r="E14" s="59"/>
-      <c r="F14" s="80" t="s">
+      <c r="A14" s="83"/>
+      <c r="B14" s="84"/>
+      <c r="C14" s="84"/>
+      <c r="D14" s="84"/>
+      <c r="E14" s="85"/>
+      <c r="F14" s="44" t="s">
         <v>216</v>
       </c>
-      <c r="G14" s="81" t="s">
+      <c r="G14" s="45" t="s">
         <v>231</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="40.5" x14ac:dyDescent="0.2">
-      <c r="A15" s="57" t="s">
-        <v>68</v>
-      </c>
-      <c r="B15" s="58" t="s">
+      <c r="A15" s="83" t="s">
+        <v>68</v>
+      </c>
+      <c r="B15" s="84" t="s">
         <v>232</v>
       </c>
-      <c r="C15" s="58" t="s">
+      <c r="C15" s="84" t="s">
         <v>200</v>
       </c>
-      <c r="D15" s="58">
+      <c r="D15" s="84">
         <v>4</v>
       </c>
-      <c r="E15" s="59" t="s">
+      <c r="E15" s="85" t="s">
         <v>233</v>
       </c>
       <c r="F15" s="26" t="s">
@@ -3809,11 +5821,11 @@
       </c>
     </row>
     <row r="16" spans="1:7" ht="41.25" x14ac:dyDescent="0.2">
-      <c r="A16" s="57"/>
-      <c r="B16" s="58"/>
-      <c r="C16" s="58"/>
-      <c r="D16" s="58"/>
-      <c r="E16" s="59"/>
+      <c r="A16" s="83"/>
+      <c r="B16" s="84"/>
+      <c r="C16" s="84"/>
+      <c r="D16" s="84"/>
+      <c r="E16" s="85"/>
       <c r="F16" s="26" t="s">
         <v>235</v>
       </c>
@@ -3822,19 +5834,19 @@
       </c>
     </row>
     <row r="17" spans="1:7" ht="60.75" x14ac:dyDescent="0.2">
-      <c r="A17" s="48" t="s">
-        <v>68</v>
-      </c>
-      <c r="B17" s="51" t="s">
+      <c r="A17" s="86" t="s">
+        <v>68</v>
+      </c>
+      <c r="B17" s="89" t="s">
         <v>238</v>
       </c>
-      <c r="C17" s="51" t="s">
+      <c r="C17" s="89" t="s">
         <v>200</v>
       </c>
-      <c r="D17" s="51">
+      <c r="D17" s="89">
         <v>3</v>
       </c>
-      <c r="E17" s="54" t="s">
+      <c r="E17" s="92" t="s">
         <v>239</v>
       </c>
       <c r="F17" s="26" t="s">
@@ -3845,11 +5857,11 @@
       </c>
     </row>
     <row r="18" spans="1:7" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A18" s="49"/>
-      <c r="B18" s="52"/>
-      <c r="C18" s="52"/>
-      <c r="D18" s="52"/>
-      <c r="E18" s="55"/>
+      <c r="A18" s="87"/>
+      <c r="B18" s="90"/>
+      <c r="C18" s="90"/>
+      <c r="D18" s="90"/>
+      <c r="E18" s="93"/>
       <c r="F18" s="26" t="s">
         <v>241</v>
       </c>
@@ -3858,11 +5870,11 @@
       </c>
     </row>
     <row r="19" spans="1:7" ht="40.5" x14ac:dyDescent="0.2">
-      <c r="A19" s="50"/>
-      <c r="B19" s="53"/>
-      <c r="C19" s="53"/>
-      <c r="D19" s="53"/>
-      <c r="E19" s="56"/>
+      <c r="A19" s="88"/>
+      <c r="B19" s="91"/>
+      <c r="C19" s="91"/>
+      <c r="D19" s="91"/>
+      <c r="E19" s="94"/>
       <c r="F19" s="26" t="s">
         <v>242</v>
       </c>
@@ -3871,19 +5883,19 @@
       </c>
     </row>
     <row r="20" spans="1:7" ht="21" x14ac:dyDescent="0.2">
-      <c r="A20" s="57" t="s">
-        <v>68</v>
-      </c>
-      <c r="B20" s="58" t="s">
+      <c r="A20" s="83" t="s">
+        <v>68</v>
+      </c>
+      <c r="B20" s="84" t="s">
         <v>246</v>
       </c>
-      <c r="C20" s="58" t="s">
+      <c r="C20" s="84" t="s">
         <v>200</v>
       </c>
-      <c r="D20" s="58">
+      <c r="D20" s="84">
         <v>4</v>
       </c>
-      <c r="E20" s="59" t="s">
+      <c r="E20" s="85" t="s">
         <v>247</v>
       </c>
       <c r="F20" s="26" t="s">
@@ -3894,11 +5906,11 @@
       </c>
     </row>
     <row r="21" spans="1:7" ht="61.5" x14ac:dyDescent="0.2">
-      <c r="A21" s="57"/>
-      <c r="B21" s="58"/>
-      <c r="C21" s="58"/>
-      <c r="D21" s="58"/>
-      <c r="E21" s="59"/>
+      <c r="A21" s="83"/>
+      <c r="B21" s="84"/>
+      <c r="C21" s="84"/>
+      <c r="D21" s="84"/>
+      <c r="E21" s="85"/>
       <c r="F21" s="26" t="s">
         <v>249</v>
       </c>
@@ -3907,19 +5919,19 @@
       </c>
     </row>
     <row r="22" spans="1:7" ht="21" x14ac:dyDescent="0.2">
-      <c r="A22" s="57" t="s">
-        <v>68</v>
-      </c>
-      <c r="B22" s="58" t="s">
+      <c r="A22" s="83" t="s">
+        <v>68</v>
+      </c>
+      <c r="B22" s="84" t="s">
         <v>252</v>
       </c>
-      <c r="C22" s="58" t="s">
+      <c r="C22" s="84" t="s">
         <v>200</v>
       </c>
-      <c r="D22" s="58">
+      <c r="D22" s="84">
         <v>5</v>
       </c>
-      <c r="E22" s="59" t="s">
+      <c r="E22" s="85" t="s">
         <v>253</v>
       </c>
       <c r="F22" s="26" t="s">
@@ -3930,11 +5942,11 @@
       </c>
     </row>
     <row r="23" spans="1:7" ht="21" x14ac:dyDescent="0.2">
-      <c r="A23" s="57"/>
-      <c r="B23" s="58"/>
-      <c r="C23" s="58"/>
-      <c r="D23" s="58"/>
-      <c r="E23" s="59"/>
+      <c r="A23" s="83"/>
+      <c r="B23" s="84"/>
+      <c r="C23" s="84"/>
+      <c r="D23" s="84"/>
+      <c r="E23" s="85"/>
       <c r="F23" s="26" t="s">
         <v>255</v>
       </c>
@@ -3943,19 +5955,19 @@
       </c>
     </row>
     <row r="24" spans="1:7" ht="61.5" x14ac:dyDescent="0.2">
-      <c r="A24" s="48" t="s">
-        <v>68</v>
-      </c>
-      <c r="B24" s="51" t="s">
+      <c r="A24" s="86" t="s">
+        <v>68</v>
+      </c>
+      <c r="B24" s="89" t="s">
         <v>258</v>
       </c>
-      <c r="C24" s="51" t="s">
+      <c r="C24" s="89" t="s">
         <v>200</v>
       </c>
-      <c r="D24" s="51">
+      <c r="D24" s="89">
         <v>3</v>
       </c>
-      <c r="E24" s="54" t="s">
+      <c r="E24" s="92" t="s">
         <v>259</v>
       </c>
       <c r="F24" s="26" t="s">
@@ -3966,11 +5978,11 @@
       </c>
     </row>
     <row r="25" spans="1:7" ht="40.5" x14ac:dyDescent="0.2">
-      <c r="A25" s="49"/>
-      <c r="B25" s="52"/>
-      <c r="C25" s="52"/>
-      <c r="D25" s="52"/>
-      <c r="E25" s="55"/>
+      <c r="A25" s="87"/>
+      <c r="B25" s="90"/>
+      <c r="C25" s="90"/>
+      <c r="D25" s="90"/>
+      <c r="E25" s="93"/>
       <c r="F25" s="26" t="s">
         <v>261</v>
       </c>
@@ -3979,11 +5991,11 @@
       </c>
     </row>
     <row r="26" spans="1:7" ht="21" x14ac:dyDescent="0.2">
-      <c r="A26" s="50"/>
-      <c r="B26" s="53"/>
-      <c r="C26" s="53"/>
-      <c r="D26" s="53"/>
-      <c r="E26" s="56"/>
+      <c r="A26" s="88"/>
+      <c r="B26" s="91"/>
+      <c r="C26" s="91"/>
+      <c r="D26" s="91"/>
+      <c r="E26" s="94"/>
       <c r="F26" s="26" t="s">
         <v>262</v>
       </c>
@@ -4038,19 +6050,19 @@
       </c>
     </row>
     <row r="29" spans="1:7" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A29" s="57" t="s">
-        <v>68</v>
-      </c>
-      <c r="B29" s="58" t="s">
+      <c r="A29" s="83" t="s">
+        <v>68</v>
+      </c>
+      <c r="B29" s="84" t="s">
         <v>274</v>
       </c>
-      <c r="C29" s="58" t="s">
+      <c r="C29" s="84" t="s">
         <v>200</v>
       </c>
-      <c r="D29" s="58">
+      <c r="D29" s="84">
         <v>4</v>
       </c>
-      <c r="E29" s="59" t="s">
+      <c r="E29" s="85" t="s">
         <v>68</v>
       </c>
       <c r="F29" s="26" t="s">
@@ -4061,11 +6073,11 @@
       </c>
     </row>
     <row r="30" spans="1:7" ht="40.5" x14ac:dyDescent="0.2">
-      <c r="A30" s="57"/>
-      <c r="B30" s="58"/>
-      <c r="C30" s="58"/>
-      <c r="D30" s="58"/>
-      <c r="E30" s="59"/>
+      <c r="A30" s="83"/>
+      <c r="B30" s="84"/>
+      <c r="C30" s="84"/>
+      <c r="D30" s="84"/>
+      <c r="E30" s="85"/>
       <c r="F30" s="26" t="s">
         <v>276</v>
       </c>
@@ -4074,19 +6086,19 @@
       </c>
     </row>
     <row r="31" spans="1:7" ht="40.5" x14ac:dyDescent="0.2">
-      <c r="A31" s="57" t="s">
-        <v>68</v>
-      </c>
-      <c r="B31" s="58" t="s">
+      <c r="A31" s="83" t="s">
+        <v>68</v>
+      </c>
+      <c r="B31" s="84" t="s">
         <v>279</v>
       </c>
-      <c r="C31" s="58" t="s">
+      <c r="C31" s="84" t="s">
         <v>200</v>
       </c>
-      <c r="D31" s="58">
+      <c r="D31" s="84">
         <v>5</v>
       </c>
-      <c r="E31" s="59" t="s">
+      <c r="E31" s="85" t="s">
         <v>280</v>
       </c>
       <c r="F31" s="26" t="s">
@@ -4097,11 +6109,11 @@
       </c>
     </row>
     <row r="32" spans="1:7" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A32" s="57"/>
-      <c r="B32" s="58"/>
-      <c r="C32" s="58"/>
-      <c r="D32" s="58"/>
-      <c r="E32" s="59"/>
+      <c r="A32" s="83"/>
+      <c r="B32" s="84"/>
+      <c r="C32" s="84"/>
+      <c r="D32" s="84"/>
+      <c r="E32" s="85"/>
       <c r="F32" s="26" t="s">
         <v>254</v>
       </c>
@@ -4110,19 +6122,19 @@
       </c>
     </row>
     <row r="33" spans="1:7" ht="40.5" x14ac:dyDescent="0.2">
-      <c r="A33" s="57" t="s">
-        <v>68</v>
-      </c>
-      <c r="B33" s="58" t="s">
+      <c r="A33" s="83" t="s">
+        <v>68</v>
+      </c>
+      <c r="B33" s="84" t="s">
         <v>284</v>
       </c>
-      <c r="C33" s="58" t="s">
+      <c r="C33" s="84" t="s">
         <v>200</v>
       </c>
-      <c r="D33" s="58">
+      <c r="D33" s="84">
         <v>4</v>
       </c>
-      <c r="E33" s="59" t="s">
+      <c r="E33" s="85" t="s">
         <v>68</v>
       </c>
       <c r="F33" s="26" t="s">
@@ -4133,11 +6145,11 @@
       </c>
     </row>
     <row r="34" spans="1:7" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A34" s="57"/>
-      <c r="B34" s="58"/>
-      <c r="C34" s="58"/>
-      <c r="D34" s="58"/>
-      <c r="E34" s="59"/>
+      <c r="A34" s="83"/>
+      <c r="B34" s="84"/>
+      <c r="C34" s="84"/>
+      <c r="D34" s="84"/>
+      <c r="E34" s="85"/>
       <c r="F34" s="26" t="s">
         <v>286</v>
       </c>
@@ -4147,56 +6159,479 @@
     </row>
   </sheetData>
   <mergeCells count="60">
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="C2:C4"/>
+    <mergeCell ref="D2:D4"/>
+    <mergeCell ref="E2:E4"/>
+    <mergeCell ref="A5:A8"/>
+    <mergeCell ref="B5:B8"/>
+    <mergeCell ref="C5:C8"/>
+    <mergeCell ref="D5:D8"/>
+    <mergeCell ref="E5:E8"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="A11:A14"/>
+    <mergeCell ref="B11:B14"/>
+    <mergeCell ref="C11:C14"/>
+    <mergeCell ref="D11:D14"/>
+    <mergeCell ref="E11:E14"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="A17:A19"/>
+    <mergeCell ref="B17:B19"/>
+    <mergeCell ref="C17:C19"/>
+    <mergeCell ref="D17:D19"/>
+    <mergeCell ref="E17:E19"/>
+    <mergeCell ref="A24:A26"/>
+    <mergeCell ref="B24:B26"/>
+    <mergeCell ref="C24:C26"/>
+    <mergeCell ref="D24:D26"/>
+    <mergeCell ref="E24:E26"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="C33:C34"/>
+    <mergeCell ref="D33:D34"/>
+    <mergeCell ref="E33:E34"/>
     <mergeCell ref="A31:A32"/>
     <mergeCell ref="B31:B32"/>
     <mergeCell ref="C31:C32"/>
     <mergeCell ref="D31:D32"/>
     <mergeCell ref="E31:E32"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="C33:C34"/>
-    <mergeCell ref="D33:D34"/>
-    <mergeCell ref="E33:E34"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="D29:D30"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="A24:A26"/>
-    <mergeCell ref="B24:B26"/>
-    <mergeCell ref="C24:C26"/>
-    <mergeCell ref="D24:D26"/>
-    <mergeCell ref="E24:E26"/>
-    <mergeCell ref="A17:A19"/>
-    <mergeCell ref="B17:B19"/>
-    <mergeCell ref="C17:C19"/>
-    <mergeCell ref="D17:D19"/>
-    <mergeCell ref="E17:E19"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="A11:A14"/>
-    <mergeCell ref="B11:B14"/>
-    <mergeCell ref="C11:C14"/>
-    <mergeCell ref="D11:D14"/>
-    <mergeCell ref="E11:E14"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="E15:E16"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4156FD6-A0FE-4F83-AA16-51B740270BA0}">
+  <dimension ref="A1:G21"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14:D16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="16.375" customWidth="1"/>
+    <col min="4" max="4" width="8.25" customWidth="1"/>
+    <col min="5" max="5" width="25" customWidth="1"/>
+    <col min="7" max="7" width="82.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="21" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="60.75" x14ac:dyDescent="0.2">
+      <c r="A2" s="102" t="s">
+        <v>68</v>
+      </c>
+      <c r="B2" s="102" t="s">
+        <v>146</v>
+      </c>
+      <c r="C2" s="102" t="s">
+        <v>378</v>
+      </c>
+      <c r="D2" s="103">
+        <v>3</v>
+      </c>
+      <c r="E2" s="104" t="s">
+        <v>386</v>
+      </c>
+      <c r="F2" s="105" t="s">
+        <v>379</v>
+      </c>
+      <c r="G2" s="106" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="20.25" x14ac:dyDescent="0.2">
+      <c r="A3" s="102"/>
+      <c r="B3" s="102"/>
+      <c r="C3" s="102"/>
+      <c r="D3" s="107"/>
+      <c r="E3" s="104"/>
+      <c r="F3" s="105" t="s">
+        <v>380</v>
+      </c>
+      <c r="G3" s="106" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="21" x14ac:dyDescent="0.2">
+      <c r="A4" s="102"/>
+      <c r="B4" s="102"/>
+      <c r="C4" s="102"/>
+      <c r="D4" s="108"/>
+      <c r="E4" s="104"/>
+      <c r="F4" s="105" t="s">
+        <v>381</v>
+      </c>
+      <c r="G4" s="106" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="20.25" x14ac:dyDescent="0.2">
+      <c r="A5" s="102" t="s">
+        <v>68</v>
+      </c>
+      <c r="B5" s="102" t="s">
+        <v>385</v>
+      </c>
+      <c r="C5" s="102" t="s">
+        <v>378</v>
+      </c>
+      <c r="D5" s="103">
+        <v>3</v>
+      </c>
+      <c r="E5" s="104" t="s">
+        <v>387</v>
+      </c>
+      <c r="F5" s="105" t="s">
+        <v>389</v>
+      </c>
+      <c r="G5" s="106" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="20.25" x14ac:dyDescent="0.2">
+      <c r="A6" s="102"/>
+      <c r="B6" s="102"/>
+      <c r="C6" s="102"/>
+      <c r="D6" s="107"/>
+      <c r="E6" s="104"/>
+      <c r="F6" s="105" t="s">
+        <v>393</v>
+      </c>
+      <c r="G6" s="106" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="20.25" x14ac:dyDescent="0.2">
+      <c r="A7" s="102"/>
+      <c r="B7" s="102"/>
+      <c r="C7" s="102"/>
+      <c r="D7" s="107"/>
+      <c r="E7" s="104"/>
+      <c r="F7" s="105" t="s">
+        <v>390</v>
+      </c>
+      <c r="G7" s="106" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="20.25" x14ac:dyDescent="0.2">
+      <c r="A8" s="102"/>
+      <c r="B8" s="102"/>
+      <c r="C8" s="102"/>
+      <c r="D8" s="108"/>
+      <c r="E8" s="104"/>
+      <c r="F8" s="105" t="s">
+        <v>391</v>
+      </c>
+      <c r="G8" s="106" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="20.25" x14ac:dyDescent="0.2">
+      <c r="A9" s="102" t="s">
+        <v>68</v>
+      </c>
+      <c r="B9" s="102" t="s">
+        <v>397</v>
+      </c>
+      <c r="C9" s="102" t="s">
+        <v>378</v>
+      </c>
+      <c r="D9" s="103">
+        <v>3</v>
+      </c>
+      <c r="E9" s="104" t="s">
+        <v>396</v>
+      </c>
+      <c r="F9" s="105" t="s">
+        <v>398</v>
+      </c>
+      <c r="G9" s="106" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="20.25" x14ac:dyDescent="0.2">
+      <c r="A10" s="102"/>
+      <c r="B10" s="102"/>
+      <c r="C10" s="102"/>
+      <c r="D10" s="108"/>
+      <c r="E10" s="104"/>
+      <c r="F10" s="105" t="s">
+        <v>399</v>
+      </c>
+      <c r="G10" s="106" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="40.5" x14ac:dyDescent="0.2">
+      <c r="A11" s="102" t="s">
+        <v>68</v>
+      </c>
+      <c r="B11" s="102" t="s">
+        <v>402</v>
+      </c>
+      <c r="C11" s="102" t="s">
+        <v>378</v>
+      </c>
+      <c r="D11" s="103">
+        <v>3</v>
+      </c>
+      <c r="E11" s="104" t="s">
+        <v>403</v>
+      </c>
+      <c r="F11" s="105" t="s">
+        <v>404</v>
+      </c>
+      <c r="G11" s="106" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="21" x14ac:dyDescent="0.2">
+      <c r="A12" s="102"/>
+      <c r="B12" s="102"/>
+      <c r="C12" s="102"/>
+      <c r="D12" s="107"/>
+      <c r="E12" s="104"/>
+      <c r="F12" s="105" t="s">
+        <v>405</v>
+      </c>
+      <c r="G12" s="106" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="41.25" x14ac:dyDescent="0.2">
+      <c r="A13" s="102"/>
+      <c r="B13" s="102"/>
+      <c r="C13" s="102"/>
+      <c r="D13" s="108"/>
+      <c r="E13" s="104"/>
+      <c r="F13" s="105" t="s">
+        <v>406</v>
+      </c>
+      <c r="G13" s="106" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="40.5" x14ac:dyDescent="0.2">
+      <c r="A14" s="102" t="s">
+        <v>68</v>
+      </c>
+      <c r="B14" s="102" t="s">
+        <v>410</v>
+      </c>
+      <c r="C14" s="102" t="s">
+        <v>378</v>
+      </c>
+      <c r="D14" s="103">
+        <v>3</v>
+      </c>
+      <c r="E14" s="104" t="s">
+        <v>414</v>
+      </c>
+      <c r="F14" s="105" t="s">
+        <v>411</v>
+      </c>
+      <c r="G14" s="106" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="40.5" x14ac:dyDescent="0.2">
+      <c r="A15" s="102"/>
+      <c r="B15" s="102"/>
+      <c r="C15" s="102"/>
+      <c r="D15" s="107"/>
+      <c r="E15" s="104"/>
+      <c r="F15" s="105" t="s">
+        <v>412</v>
+      </c>
+      <c r="G15" s="106" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="20.25" x14ac:dyDescent="0.2">
+      <c r="A16" s="102"/>
+      <c r="B16" s="102"/>
+      <c r="C16" s="102"/>
+      <c r="D16" s="108"/>
+      <c r="E16" s="104"/>
+      <c r="F16" s="105" t="s">
+        <v>413</v>
+      </c>
+      <c r="G16" s="106" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="21" x14ac:dyDescent="0.2">
+      <c r="A17" s="102" t="s">
+        <v>68</v>
+      </c>
+      <c r="B17" s="102" t="s">
+        <v>418</v>
+      </c>
+      <c r="C17" s="102" t="s">
+        <v>378</v>
+      </c>
+      <c r="D17" s="103">
+        <v>4</v>
+      </c>
+      <c r="E17" s="104" t="s">
+        <v>419</v>
+      </c>
+      <c r="F17" s="105" t="s">
+        <v>420</v>
+      </c>
+      <c r="G17" s="106" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="21" x14ac:dyDescent="0.2">
+      <c r="A18" s="102"/>
+      <c r="B18" s="102"/>
+      <c r="C18" s="102"/>
+      <c r="D18" s="108"/>
+      <c r="E18" s="104"/>
+      <c r="F18" s="105" t="s">
+        <v>423</v>
+      </c>
+      <c r="G18" s="106" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="40.5" x14ac:dyDescent="0.2">
+      <c r="A19" s="50" t="s">
+        <v>68</v>
+      </c>
+      <c r="B19" s="50" t="s">
+        <v>424</v>
+      </c>
+      <c r="C19" s="50" t="s">
+        <v>8</v>
+      </c>
+      <c r="D19" s="51">
+        <v>3</v>
+      </c>
+      <c r="E19" s="53" t="s">
+        <v>427</v>
+      </c>
+      <c r="F19" s="37" t="s">
+        <v>425</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="40.5" x14ac:dyDescent="0.2">
+      <c r="A20" s="50"/>
+      <c r="B20" s="50"/>
+      <c r="C20" s="50"/>
+      <c r="D20" s="52"/>
+      <c r="E20" s="53"/>
+      <c r="F20" s="37" t="s">
+        <v>426</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="40.5" x14ac:dyDescent="0.2">
+      <c r="A21" s="29" t="s">
+        <v>68</v>
+      </c>
+      <c r="B21" s="29" t="s">
+        <v>40</v>
+      </c>
+      <c r="C21" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="D21" s="29">
+        <v>4</v>
+      </c>
+      <c r="E21" s="31" t="s">
+        <v>430</v>
+      </c>
+      <c r="F21" s="31" t="s">
+        <v>431</v>
+      </c>
+      <c r="G21" s="12" t="s">
+        <v>432</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="35">
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="A14:A16"/>
+    <mergeCell ref="B14:B16"/>
+    <mergeCell ref="C14:C16"/>
+    <mergeCell ref="D14:D16"/>
+    <mergeCell ref="E14:E16"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="E17:E18"/>
     <mergeCell ref="A9:A10"/>
     <mergeCell ref="B9:B10"/>
     <mergeCell ref="C9:C10"/>
     <mergeCell ref="D9:D10"/>
     <mergeCell ref="E9:E10"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="C11:C13"/>
+    <mergeCell ref="D11:D13"/>
+    <mergeCell ref="E11:E13"/>
     <mergeCell ref="A5:A8"/>
     <mergeCell ref="B5:B8"/>
     <mergeCell ref="C5:C8"/>
@@ -4210,6 +6645,2656 @@
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40DD3314-3E21-4730-98C4-2DAAAAB5E295}">
+  <dimension ref="A1:G19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C10" sqref="C10:C12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="16.375" customWidth="1"/>
+    <col min="2" max="2" width="15.375" customWidth="1"/>
+    <col min="4" max="4" width="8.25" customWidth="1"/>
+    <col min="5" max="5" width="25" customWidth="1"/>
+    <col min="7" max="7" width="82.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="21" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="20.25" x14ac:dyDescent="0.2">
+      <c r="A2" s="102" t="s">
+        <v>68</v>
+      </c>
+      <c r="B2" s="102" t="s">
+        <v>433</v>
+      </c>
+      <c r="C2" s="102" t="s">
+        <v>138</v>
+      </c>
+      <c r="D2" s="103">
+        <v>3</v>
+      </c>
+      <c r="E2" s="104" t="s">
+        <v>436</v>
+      </c>
+      <c r="F2" s="105" t="s">
+        <v>434</v>
+      </c>
+      <c r="G2" s="106" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="40.5" x14ac:dyDescent="0.2">
+      <c r="A3" s="102"/>
+      <c r="B3" s="102"/>
+      <c r="C3" s="102"/>
+      <c r="D3" s="107"/>
+      <c r="E3" s="104"/>
+      <c r="F3" s="105" t="s">
+        <v>349</v>
+      </c>
+      <c r="G3" s="106" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="40.5" x14ac:dyDescent="0.2">
+      <c r="A4" s="102"/>
+      <c r="B4" s="102"/>
+      <c r="C4" s="102"/>
+      <c r="D4" s="108"/>
+      <c r="E4" s="104"/>
+      <c r="F4" s="105" t="s">
+        <v>435</v>
+      </c>
+      <c r="G4" s="106" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="20.25" x14ac:dyDescent="0.2">
+      <c r="A5" s="102" t="s">
+        <v>68</v>
+      </c>
+      <c r="B5" s="102" t="s">
+        <v>441</v>
+      </c>
+      <c r="C5" s="102" t="s">
+        <v>138</v>
+      </c>
+      <c r="D5" s="103">
+        <v>3</v>
+      </c>
+      <c r="E5" s="104" t="s">
+        <v>440</v>
+      </c>
+      <c r="F5" s="105" t="s">
+        <v>442</v>
+      </c>
+      <c r="G5" s="106" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="60.75" x14ac:dyDescent="0.2">
+      <c r="A6" s="102"/>
+      <c r="B6" s="102"/>
+      <c r="C6" s="102"/>
+      <c r="D6" s="107"/>
+      <c r="E6" s="104"/>
+      <c r="F6" s="105" t="s">
+        <v>443</v>
+      </c>
+      <c r="G6" s="106" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="60.75" x14ac:dyDescent="0.2">
+      <c r="A7" s="102" t="s">
+        <v>68</v>
+      </c>
+      <c r="B7" s="102" t="s">
+        <v>446</v>
+      </c>
+      <c r="C7" s="102" t="s">
+        <v>138</v>
+      </c>
+      <c r="D7" s="103">
+        <v>3</v>
+      </c>
+      <c r="E7" s="104" t="s">
+        <v>447</v>
+      </c>
+      <c r="F7" s="105" t="s">
+        <v>448</v>
+      </c>
+      <c r="G7" s="106" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="20.25" x14ac:dyDescent="0.2">
+      <c r="A8" s="102"/>
+      <c r="B8" s="102"/>
+      <c r="C8" s="102"/>
+      <c r="D8" s="107"/>
+      <c r="E8" s="104"/>
+      <c r="F8" s="105" t="s">
+        <v>449</v>
+      </c>
+      <c r="G8" s="106" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="20.25" x14ac:dyDescent="0.2">
+      <c r="A9" s="102"/>
+      <c r="B9" s="102"/>
+      <c r="C9" s="102"/>
+      <c r="D9" s="108"/>
+      <c r="E9" s="104"/>
+      <c r="F9" s="105" t="s">
+        <v>450</v>
+      </c>
+      <c r="G9" s="106" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="40.5" x14ac:dyDescent="0.2">
+      <c r="A10" s="102" t="s">
+        <v>68</v>
+      </c>
+      <c r="B10" s="102" t="s">
+        <v>50</v>
+      </c>
+      <c r="C10" s="102" t="s">
+        <v>138</v>
+      </c>
+      <c r="D10" s="103">
+        <v>3</v>
+      </c>
+      <c r="E10" s="102" t="s">
+        <v>454</v>
+      </c>
+      <c r="F10" s="105" t="s">
+        <v>455</v>
+      </c>
+      <c r="G10" s="106" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="40.5" x14ac:dyDescent="0.2">
+      <c r="A11" s="102"/>
+      <c r="B11" s="102"/>
+      <c r="C11" s="102"/>
+      <c r="D11" s="107"/>
+      <c r="E11" s="102"/>
+      <c r="F11" s="105" t="s">
+        <v>456</v>
+      </c>
+      <c r="G11" s="106" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="40.5" x14ac:dyDescent="0.2">
+      <c r="A12" s="102"/>
+      <c r="B12" s="102"/>
+      <c r="C12" s="102"/>
+      <c r="D12" s="108"/>
+      <c r="E12" s="102"/>
+      <c r="F12" s="105" t="s">
+        <v>457</v>
+      </c>
+      <c r="G12" s="106" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="40.5" x14ac:dyDescent="0.2">
+      <c r="A13" s="46" t="s">
+        <v>68</v>
+      </c>
+      <c r="B13" s="46" t="s">
+        <v>461</v>
+      </c>
+      <c r="C13" s="46" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13" s="47">
+        <v>4</v>
+      </c>
+      <c r="E13" s="46" t="s">
+        <v>462</v>
+      </c>
+      <c r="F13" s="34" t="s">
+        <v>463</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="20.25" x14ac:dyDescent="0.2">
+      <c r="A14" s="46"/>
+      <c r="B14" s="46"/>
+      <c r="C14" s="46"/>
+      <c r="D14" s="99"/>
+      <c r="E14" s="46"/>
+      <c r="F14" s="34" t="s">
+        <v>464</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="21" x14ac:dyDescent="0.2">
+      <c r="A15" s="46"/>
+      <c r="B15" s="46"/>
+      <c r="C15" s="46"/>
+      <c r="D15" s="48"/>
+      <c r="E15" s="46"/>
+      <c r="F15" s="34" t="s">
+        <v>465</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="40.5" x14ac:dyDescent="0.2">
+      <c r="A16" s="32" t="s">
+        <v>68</v>
+      </c>
+      <c r="B16" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="D16" s="33">
+        <v>4</v>
+      </c>
+      <c r="E16" s="32" t="s">
+        <v>468</v>
+      </c>
+      <c r="F16" s="34" t="s">
+        <v>469</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="41.25" x14ac:dyDescent="0.2">
+      <c r="A17" s="86" t="s">
+        <v>68</v>
+      </c>
+      <c r="B17" s="89" t="s">
+        <v>137</v>
+      </c>
+      <c r="C17" s="89" t="s">
+        <v>138</v>
+      </c>
+      <c r="D17" s="89">
+        <v>3</v>
+      </c>
+      <c r="E17" s="92" t="s">
+        <v>145</v>
+      </c>
+      <c r="F17" s="40" t="s">
+        <v>139</v>
+      </c>
+      <c r="G17" s="27" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="40.5" x14ac:dyDescent="0.2">
+      <c r="A18" s="87"/>
+      <c r="B18" s="90"/>
+      <c r="C18" s="90"/>
+      <c r="D18" s="90"/>
+      <c r="E18" s="93"/>
+      <c r="F18" s="40" t="s">
+        <v>140</v>
+      </c>
+      <c r="G18" s="27" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="21" x14ac:dyDescent="0.2">
+      <c r="A19" s="88"/>
+      <c r="B19" s="91"/>
+      <c r="C19" s="91"/>
+      <c r="D19" s="91"/>
+      <c r="E19" s="94"/>
+      <c r="F19" s="40" t="s">
+        <v>141</v>
+      </c>
+      <c r="G19" s="27" t="s">
+        <v>473</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="30">
+    <mergeCell ref="A17:A19"/>
+    <mergeCell ref="B17:B19"/>
+    <mergeCell ref="C17:C19"/>
+    <mergeCell ref="D17:D19"/>
+    <mergeCell ref="E17:E19"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="B13:B15"/>
+    <mergeCell ref="C13:C15"/>
+    <mergeCell ref="D13:D15"/>
+    <mergeCell ref="E13:E15"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="C7:C9"/>
+    <mergeCell ref="D7:D9"/>
+    <mergeCell ref="E7:E9"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="B10:B12"/>
+    <mergeCell ref="C10:C12"/>
+    <mergeCell ref="D10:D12"/>
+    <mergeCell ref="E10:E12"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="C2:C4"/>
+    <mergeCell ref="D2:D4"/>
+    <mergeCell ref="E2:E4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:E6"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D5BDF17-F995-4578-B63E-0839A02E0885}">
+  <dimension ref="A1:G18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G23" sqref="G23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="16.375" customWidth="1"/>
+    <col min="2" max="2" width="15.375" customWidth="1"/>
+    <col min="4" max="4" width="8.25" customWidth="1"/>
+    <col min="5" max="5" width="25" customWidth="1"/>
+    <col min="7" max="7" width="82.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="21" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="40.5" x14ac:dyDescent="0.2">
+      <c r="A2" s="102" t="s">
+        <v>68</v>
+      </c>
+      <c r="B2" s="102" t="s">
+        <v>474</v>
+      </c>
+      <c r="C2" s="102" t="s">
+        <v>475</v>
+      </c>
+      <c r="D2" s="103">
+        <v>4</v>
+      </c>
+      <c r="E2" s="104" t="s">
+        <v>479</v>
+      </c>
+      <c r="F2" s="105" t="s">
+        <v>476</v>
+      </c>
+      <c r="G2" s="106" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="21" x14ac:dyDescent="0.2">
+      <c r="A3" s="102"/>
+      <c r="B3" s="102"/>
+      <c r="C3" s="102"/>
+      <c r="D3" s="107"/>
+      <c r="E3" s="104"/>
+      <c r="F3" s="105" t="s">
+        <v>477</v>
+      </c>
+      <c r="G3" s="106" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="40.5" x14ac:dyDescent="0.2">
+      <c r="A4" s="102" t="s">
+        <v>68</v>
+      </c>
+      <c r="B4" s="102" t="s">
+        <v>480</v>
+      </c>
+      <c r="C4" s="102" t="s">
+        <v>475</v>
+      </c>
+      <c r="D4" s="103">
+        <v>3</v>
+      </c>
+      <c r="E4" s="104" t="s">
+        <v>481</v>
+      </c>
+      <c r="F4" s="105" t="s">
+        <v>482</v>
+      </c>
+      <c r="G4" s="106" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="20.25" x14ac:dyDescent="0.2">
+      <c r="A5" s="102"/>
+      <c r="B5" s="102"/>
+      <c r="C5" s="102"/>
+      <c r="D5" s="107"/>
+      <c r="E5" s="104"/>
+      <c r="F5" s="105" t="s">
+        <v>483</v>
+      </c>
+      <c r="G5" s="106" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="21" x14ac:dyDescent="0.2">
+      <c r="A6" s="102"/>
+      <c r="B6" s="102"/>
+      <c r="C6" s="102"/>
+      <c r="D6" s="108"/>
+      <c r="E6" s="104"/>
+      <c r="F6" s="105" t="s">
+        <v>484</v>
+      </c>
+      <c r="G6" s="106" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="40.5" x14ac:dyDescent="0.2">
+      <c r="A7" s="102" t="s">
+        <v>68</v>
+      </c>
+      <c r="B7" s="102" t="s">
+        <v>490</v>
+      </c>
+      <c r="C7" s="102" t="s">
+        <v>475</v>
+      </c>
+      <c r="D7" s="103">
+        <v>3</v>
+      </c>
+      <c r="E7" s="102" t="s">
+        <v>489</v>
+      </c>
+      <c r="F7" s="105" t="s">
+        <v>491</v>
+      </c>
+      <c r="G7" s="106" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="21" x14ac:dyDescent="0.2">
+      <c r="A8" s="102"/>
+      <c r="B8" s="102"/>
+      <c r="C8" s="102"/>
+      <c r="D8" s="107"/>
+      <c r="E8" s="102"/>
+      <c r="F8" s="105" t="s">
+        <v>492</v>
+      </c>
+      <c r="G8" s="106" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="41.25" x14ac:dyDescent="0.2">
+      <c r="A9" s="102" t="s">
+        <v>68</v>
+      </c>
+      <c r="B9" s="102" t="s">
+        <v>494</v>
+      </c>
+      <c r="C9" s="102" t="s">
+        <v>475</v>
+      </c>
+      <c r="D9" s="103">
+        <v>4</v>
+      </c>
+      <c r="E9" s="102" t="s">
+        <v>495</v>
+      </c>
+      <c r="F9" s="105" t="s">
+        <v>496</v>
+      </c>
+      <c r="G9" s="106" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="40.5" x14ac:dyDescent="0.2">
+      <c r="A10" s="102"/>
+      <c r="B10" s="102"/>
+      <c r="C10" s="102"/>
+      <c r="D10" s="107"/>
+      <c r="E10" s="102"/>
+      <c r="F10" s="105" t="s">
+        <v>497</v>
+      </c>
+      <c r="G10" s="106" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="20.25" x14ac:dyDescent="0.2">
+      <c r="A11" s="102" t="s">
+        <v>68</v>
+      </c>
+      <c r="B11" s="102" t="s">
+        <v>79</v>
+      </c>
+      <c r="C11" s="102" t="s">
+        <v>475</v>
+      </c>
+      <c r="D11" s="103">
+        <v>4</v>
+      </c>
+      <c r="E11" s="102" t="s">
+        <v>501</v>
+      </c>
+      <c r="F11" s="105" t="s">
+        <v>502</v>
+      </c>
+      <c r="G11" s="106" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="40.5" x14ac:dyDescent="0.2">
+      <c r="A12" s="102"/>
+      <c r="B12" s="102"/>
+      <c r="C12" s="102"/>
+      <c r="D12" s="107"/>
+      <c r="E12" s="102"/>
+      <c r="F12" s="105" t="s">
+        <v>503</v>
+      </c>
+      <c r="G12" s="106" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="20.25" x14ac:dyDescent="0.2">
+      <c r="A13" s="102" t="s">
+        <v>68</v>
+      </c>
+      <c r="B13" s="102" t="s">
+        <v>506</v>
+      </c>
+      <c r="C13" s="102" t="s">
+        <v>475</v>
+      </c>
+      <c r="D13" s="103">
+        <v>4</v>
+      </c>
+      <c r="E13" s="102" t="s">
+        <v>507</v>
+      </c>
+      <c r="F13" s="105" t="s">
+        <v>508</v>
+      </c>
+      <c r="G13" s="106" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="20.25" x14ac:dyDescent="0.2">
+      <c r="A14" s="102"/>
+      <c r="B14" s="102"/>
+      <c r="C14" s="102"/>
+      <c r="D14" s="107"/>
+      <c r="E14" s="102"/>
+      <c r="F14" s="105" t="s">
+        <v>285</v>
+      </c>
+      <c r="G14" s="106" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="40.5" x14ac:dyDescent="0.2">
+      <c r="A15" s="109" t="s">
+        <v>68</v>
+      </c>
+      <c r="B15" s="109" t="s">
+        <v>122</v>
+      </c>
+      <c r="C15" s="109" t="s">
+        <v>475</v>
+      </c>
+      <c r="D15" s="109">
+        <v>4</v>
+      </c>
+      <c r="E15" s="109" t="s">
+        <v>511</v>
+      </c>
+      <c r="F15" s="105" t="s">
+        <v>512</v>
+      </c>
+      <c r="G15" s="106" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="60.75" x14ac:dyDescent="0.2">
+      <c r="A16" s="32" t="s">
+        <v>68</v>
+      </c>
+      <c r="B16" s="32" t="s">
+        <v>270</v>
+      </c>
+      <c r="C16" s="32" t="s">
+        <v>7</v>
+      </c>
+      <c r="D16" s="32">
+        <v>4</v>
+      </c>
+      <c r="E16" s="32" t="s">
+        <v>520</v>
+      </c>
+      <c r="F16" s="34" t="s">
+        <v>521</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="40.5" x14ac:dyDescent="0.2">
+      <c r="A17" s="96" t="s">
+        <v>68</v>
+      </c>
+      <c r="B17" s="96" t="s">
+        <v>514</v>
+      </c>
+      <c r="C17" s="96" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" s="96">
+        <v>3</v>
+      </c>
+      <c r="E17" s="96" t="s">
+        <v>515</v>
+      </c>
+      <c r="F17" s="43" t="s">
+        <v>516</v>
+      </c>
+      <c r="G17" s="21" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="41.25" x14ac:dyDescent="0.2">
+      <c r="A18" s="96"/>
+      <c r="B18" s="96"/>
+      <c r="C18" s="96"/>
+      <c r="D18" s="96"/>
+      <c r="E18" s="96"/>
+      <c r="F18" s="43" t="s">
+        <v>517</v>
+      </c>
+      <c r="G18" s="21" t="s">
+        <v>519</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="35">
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="B4:B6"/>
+    <mergeCell ref="C4:C6"/>
+    <mergeCell ref="D4:D6"/>
+    <mergeCell ref="E4:E6"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17A3C537-0021-4D53-911D-6AE0363343C3}">
+  <dimension ref="A1:G15"/>
+  <sheetViews>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="16.375" customWidth="1"/>
+    <col min="2" max="2" width="15.375" customWidth="1"/>
+    <col min="4" max="4" width="8.25" customWidth="1"/>
+    <col min="5" max="5" width="25" customWidth="1"/>
+    <col min="7" max="7" width="82.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="21" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="20.25" x14ac:dyDescent="0.2">
+      <c r="A2" s="102" t="s">
+        <v>68</v>
+      </c>
+      <c r="B2" s="102" t="s">
+        <v>524</v>
+      </c>
+      <c r="C2" s="102" t="s">
+        <v>523</v>
+      </c>
+      <c r="D2" s="103">
+        <v>4</v>
+      </c>
+      <c r="E2" s="104" t="s">
+        <v>525</v>
+      </c>
+      <c r="F2" s="105" t="s">
+        <v>526</v>
+      </c>
+      <c r="G2" s="106" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="40.5" x14ac:dyDescent="0.2">
+      <c r="A3" s="102"/>
+      <c r="B3" s="102"/>
+      <c r="C3" s="102"/>
+      <c r="D3" s="107"/>
+      <c r="E3" s="104"/>
+      <c r="F3" s="105" t="s">
+        <v>527</v>
+      </c>
+      <c r="G3" s="106" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="20.25" x14ac:dyDescent="0.2">
+      <c r="A4" s="102"/>
+      <c r="B4" s="102"/>
+      <c r="C4" s="102"/>
+      <c r="D4" s="108"/>
+      <c r="E4" s="104"/>
+      <c r="F4" s="105" t="s">
+        <v>528</v>
+      </c>
+      <c r="G4" s="106" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="40.5" x14ac:dyDescent="0.2">
+      <c r="A5" s="109" t="s">
+        <v>68</v>
+      </c>
+      <c r="B5" s="109" t="s">
+        <v>39</v>
+      </c>
+      <c r="C5" s="109" t="s">
+        <v>523</v>
+      </c>
+      <c r="D5" s="110">
+        <v>4</v>
+      </c>
+      <c r="E5" s="105" t="s">
+        <v>532</v>
+      </c>
+      <c r="F5" s="105" t="s">
+        <v>533</v>
+      </c>
+      <c r="G5" s="106" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="20.25" x14ac:dyDescent="0.2">
+      <c r="A6" s="102" t="s">
+        <v>68</v>
+      </c>
+      <c r="B6" s="102" t="s">
+        <v>535</v>
+      </c>
+      <c r="C6" s="102" t="s">
+        <v>523</v>
+      </c>
+      <c r="D6" s="103">
+        <v>3</v>
+      </c>
+      <c r="E6" s="104" t="s">
+        <v>536</v>
+      </c>
+      <c r="F6" s="105" t="s">
+        <v>537</v>
+      </c>
+      <c r="G6" s="106" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="60.75" x14ac:dyDescent="0.2">
+      <c r="A7" s="102"/>
+      <c r="B7" s="102"/>
+      <c r="C7" s="102"/>
+      <c r="D7" s="107"/>
+      <c r="E7" s="104"/>
+      <c r="F7" s="105" t="s">
+        <v>538</v>
+      </c>
+      <c r="G7" s="106" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="60.75" x14ac:dyDescent="0.2">
+      <c r="A8" s="102" t="s">
+        <v>68</v>
+      </c>
+      <c r="B8" s="102" t="s">
+        <v>541</v>
+      </c>
+      <c r="C8" s="102" t="s">
+        <v>523</v>
+      </c>
+      <c r="D8" s="103">
+        <v>4</v>
+      </c>
+      <c r="E8" s="104" t="s">
+        <v>542</v>
+      </c>
+      <c r="F8" s="105" t="s">
+        <v>543</v>
+      </c>
+      <c r="G8" s="106" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="20.25" x14ac:dyDescent="0.2">
+      <c r="A9" s="102"/>
+      <c r="B9" s="102"/>
+      <c r="C9" s="102"/>
+      <c r="D9" s="107"/>
+      <c r="E9" s="104"/>
+      <c r="F9" s="105" t="s">
+        <v>544</v>
+      </c>
+      <c r="G9" s="106" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="20.25" x14ac:dyDescent="0.2">
+      <c r="A10" s="102"/>
+      <c r="B10" s="102"/>
+      <c r="C10" s="102"/>
+      <c r="D10" s="108"/>
+      <c r="E10" s="104"/>
+      <c r="F10" s="105" t="s">
+        <v>545</v>
+      </c>
+      <c r="G10" s="106" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="40.5" x14ac:dyDescent="0.2">
+      <c r="A11" s="102" t="s">
+        <v>68</v>
+      </c>
+      <c r="B11" s="102" t="s">
+        <v>549</v>
+      </c>
+      <c r="C11" s="102" t="s">
+        <v>523</v>
+      </c>
+      <c r="D11" s="103">
+        <v>3</v>
+      </c>
+      <c r="E11" s="104" t="s">
+        <v>550</v>
+      </c>
+      <c r="F11" s="105" t="s">
+        <v>551</v>
+      </c>
+      <c r="G11" s="106" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="40.5" x14ac:dyDescent="0.2">
+      <c r="A12" s="102"/>
+      <c r="B12" s="102"/>
+      <c r="C12" s="102"/>
+      <c r="D12" s="107"/>
+      <c r="E12" s="104"/>
+      <c r="F12" s="105" t="s">
+        <v>552</v>
+      </c>
+      <c r="G12" s="106" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="20.25" x14ac:dyDescent="0.2">
+      <c r="A13" s="54" t="s">
+        <v>68</v>
+      </c>
+      <c r="B13" s="54" t="s">
+        <v>555</v>
+      </c>
+      <c r="C13" s="54" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" s="55">
+        <v>4</v>
+      </c>
+      <c r="E13" s="58" t="s">
+        <v>556</v>
+      </c>
+      <c r="F13" s="31" t="s">
+        <v>557</v>
+      </c>
+      <c r="G13" s="12" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="40.5" x14ac:dyDescent="0.2">
+      <c r="A14" s="54"/>
+      <c r="B14" s="54"/>
+      <c r="C14" s="54"/>
+      <c r="D14" s="56"/>
+      <c r="E14" s="58"/>
+      <c r="F14" s="31" t="s">
+        <v>558</v>
+      </c>
+      <c r="G14" s="12" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="60.75" x14ac:dyDescent="0.2">
+      <c r="A15" s="42" t="s">
+        <v>68</v>
+      </c>
+      <c r="B15" s="42" t="s">
+        <v>51</v>
+      </c>
+      <c r="C15" s="42" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15" s="42">
+        <v>4</v>
+      </c>
+      <c r="E15" s="43" t="s">
+        <v>561</v>
+      </c>
+      <c r="F15" s="43" t="s">
+        <v>562</v>
+      </c>
+      <c r="G15" s="21" t="s">
+        <v>563</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="25">
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="C8:C10"/>
+    <mergeCell ref="D8:D10"/>
+    <mergeCell ref="E8:E10"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="C2:C4"/>
+    <mergeCell ref="D2:D4"/>
+    <mergeCell ref="E2:E4"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD08E1EE-B863-47DF-8B69-6DA101296CB5}">
+  <dimension ref="A1:G44"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="G48" sqref="G48"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="16.375" customWidth="1"/>
+    <col min="2" max="2" width="16.5" customWidth="1"/>
+    <col min="4" max="4" width="8.25" customWidth="1"/>
+    <col min="5" max="5" width="25" customWidth="1"/>
+    <col min="7" max="7" width="90.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="21" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="20.25" x14ac:dyDescent="0.2">
+      <c r="A2" s="46" t="s">
+        <v>68</v>
+      </c>
+      <c r="B2" s="46" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="46" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="47">
+        <v>3</v>
+      </c>
+      <c r="E2" s="49" t="s">
+        <v>564</v>
+      </c>
+      <c r="F2" s="34" t="s">
+        <v>565</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="40.5" x14ac:dyDescent="0.2">
+      <c r="A3" s="46"/>
+      <c r="B3" s="46"/>
+      <c r="C3" s="46"/>
+      <c r="D3" s="48"/>
+      <c r="E3" s="49"/>
+      <c r="F3" s="34" t="s">
+        <v>566</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="40.5" x14ac:dyDescent="0.2">
+      <c r="A4" s="32" t="s">
+        <v>68</v>
+      </c>
+      <c r="B4" s="32" t="s">
+        <v>569</v>
+      </c>
+      <c r="C4" s="32" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="33">
+        <v>4</v>
+      </c>
+      <c r="E4" s="34" t="s">
+        <v>571</v>
+      </c>
+      <c r="F4" s="34" t="s">
+        <v>570</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="20.25" x14ac:dyDescent="0.2">
+      <c r="A5" s="46" t="s">
+        <v>68</v>
+      </c>
+      <c r="B5" s="46" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="46" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="47">
+        <v>4</v>
+      </c>
+      <c r="E5" s="49" t="s">
+        <v>572</v>
+      </c>
+      <c r="F5" s="34" t="s">
+        <v>565</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="20.25" x14ac:dyDescent="0.2">
+      <c r="A6" s="46"/>
+      <c r="B6" s="46"/>
+      <c r="C6" s="46"/>
+      <c r="D6" s="48"/>
+      <c r="E6" s="49"/>
+      <c r="F6" s="34" t="s">
+        <v>573</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="60.75" x14ac:dyDescent="0.2">
+      <c r="A7" s="46" t="s">
+        <v>216</v>
+      </c>
+      <c r="B7" s="46" t="s">
+        <v>574</v>
+      </c>
+      <c r="C7" s="46" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="47">
+        <v>4</v>
+      </c>
+      <c r="E7" s="49" t="s">
+        <v>575</v>
+      </c>
+      <c r="F7" s="34" t="s">
+        <v>576</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="20.25" x14ac:dyDescent="0.2">
+      <c r="A8" s="46"/>
+      <c r="B8" s="46"/>
+      <c r="C8" s="46"/>
+      <c r="D8" s="48"/>
+      <c r="E8" s="49"/>
+      <c r="F8" s="34" t="s">
+        <v>577</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="60.75" x14ac:dyDescent="0.2">
+      <c r="A9" s="50" t="s">
+        <v>68</v>
+      </c>
+      <c r="B9" s="50" t="s">
+        <v>579</v>
+      </c>
+      <c r="C9" s="50" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="51">
+        <v>4</v>
+      </c>
+      <c r="E9" s="53" t="s">
+        <v>580</v>
+      </c>
+      <c r="F9" s="37" t="s">
+        <v>581</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="60.75" x14ac:dyDescent="0.2">
+      <c r="A10" s="50"/>
+      <c r="B10" s="50"/>
+      <c r="C10" s="50"/>
+      <c r="D10" s="52"/>
+      <c r="E10" s="53"/>
+      <c r="F10" s="37" t="s">
+        <v>582</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="60.75" x14ac:dyDescent="0.2">
+      <c r="A11" s="35" t="s">
+        <v>68</v>
+      </c>
+      <c r="B11" s="35" t="s">
+        <v>585</v>
+      </c>
+      <c r="C11" s="35" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" s="36">
+        <v>4</v>
+      </c>
+      <c r="E11" s="37" t="s">
+        <v>586</v>
+      </c>
+      <c r="F11" s="37" t="s">
+        <v>587</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="20.25" x14ac:dyDescent="0.2">
+      <c r="A12" s="50" t="s">
+        <v>68</v>
+      </c>
+      <c r="B12" s="50" t="s">
+        <v>589</v>
+      </c>
+      <c r="C12" s="50" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" s="51">
+        <v>3</v>
+      </c>
+      <c r="E12" s="53" t="s">
+        <v>590</v>
+      </c>
+      <c r="F12" s="37" t="s">
+        <v>591</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="60.75" x14ac:dyDescent="0.2">
+      <c r="A13" s="50"/>
+      <c r="B13" s="50"/>
+      <c r="C13" s="50"/>
+      <c r="D13" s="52"/>
+      <c r="E13" s="53"/>
+      <c r="F13" s="37" t="s">
+        <v>593</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="40.5" x14ac:dyDescent="0.2">
+      <c r="A14" s="50" t="s">
+        <v>216</v>
+      </c>
+      <c r="B14" s="50" t="s">
+        <v>595</v>
+      </c>
+      <c r="C14" s="50" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14" s="51">
+        <v>3</v>
+      </c>
+      <c r="E14" s="53" t="s">
+        <v>596</v>
+      </c>
+      <c r="F14" s="37" t="s">
+        <v>597</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="40.5" x14ac:dyDescent="0.2">
+      <c r="A15" s="50"/>
+      <c r="B15" s="50"/>
+      <c r="C15" s="50"/>
+      <c r="D15" s="98"/>
+      <c r="E15" s="53"/>
+      <c r="F15" s="37" t="s">
+        <v>598</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="20.25" x14ac:dyDescent="0.2">
+      <c r="A16" s="50"/>
+      <c r="B16" s="50"/>
+      <c r="C16" s="50"/>
+      <c r="D16" s="52"/>
+      <c r="E16" s="53"/>
+      <c r="F16" s="37" t="s">
+        <v>599</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="101.25" x14ac:dyDescent="0.2">
+      <c r="A17" s="29" t="s">
+        <v>68</v>
+      </c>
+      <c r="B17" s="29" t="s">
+        <v>602</v>
+      </c>
+      <c r="C17" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="D17" s="30">
+        <v>4</v>
+      </c>
+      <c r="E17" s="31" t="s">
+        <v>603</v>
+      </c>
+      <c r="F17" s="31" t="s">
+        <v>604</v>
+      </c>
+      <c r="G17" s="12" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="40.5" x14ac:dyDescent="0.2">
+      <c r="A18" s="54" t="s">
+        <v>68</v>
+      </c>
+      <c r="B18" s="54" t="s">
+        <v>606</v>
+      </c>
+      <c r="C18" s="54" t="s">
+        <v>10</v>
+      </c>
+      <c r="D18" s="55">
+        <v>4</v>
+      </c>
+      <c r="E18" s="58" t="s">
+        <v>607</v>
+      </c>
+      <c r="F18" s="31" t="s">
+        <v>608</v>
+      </c>
+      <c r="G18" s="12" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="40.5" x14ac:dyDescent="0.2">
+      <c r="A19" s="54"/>
+      <c r="B19" s="54"/>
+      <c r="C19" s="54"/>
+      <c r="D19" s="56"/>
+      <c r="E19" s="58"/>
+      <c r="F19" s="31" t="s">
+        <v>609</v>
+      </c>
+      <c r="G19" s="12" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="121.5" x14ac:dyDescent="0.2">
+      <c r="A20" s="96" t="s">
+        <v>68</v>
+      </c>
+      <c r="B20" s="96" t="s">
+        <v>294</v>
+      </c>
+      <c r="C20" s="96" t="s">
+        <v>9</v>
+      </c>
+      <c r="D20" s="70">
+        <v>4</v>
+      </c>
+      <c r="E20" s="97" t="s">
+        <v>612</v>
+      </c>
+      <c r="F20" s="43" t="s">
+        <v>613</v>
+      </c>
+      <c r="G20" s="21" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="20.25" x14ac:dyDescent="0.2">
+      <c r="A21" s="96"/>
+      <c r="B21" s="96"/>
+      <c r="C21" s="96"/>
+      <c r="D21" s="71"/>
+      <c r="E21" s="97"/>
+      <c r="F21" s="43" t="s">
+        <v>614</v>
+      </c>
+      <c r="G21" s="21" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="40.5" x14ac:dyDescent="0.2">
+      <c r="A22" s="96"/>
+      <c r="B22" s="96"/>
+      <c r="C22" s="96"/>
+      <c r="D22" s="72"/>
+      <c r="E22" s="97"/>
+      <c r="F22" s="43" t="s">
+        <v>615</v>
+      </c>
+      <c r="G22" s="21" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="20.25" x14ac:dyDescent="0.2">
+      <c r="A23" s="96" t="s">
+        <v>68</v>
+      </c>
+      <c r="B23" s="96" t="s">
+        <v>618</v>
+      </c>
+      <c r="C23" s="96" t="s">
+        <v>9</v>
+      </c>
+      <c r="D23" s="70">
+        <v>4</v>
+      </c>
+      <c r="E23" s="97" t="s">
+        <v>619</v>
+      </c>
+      <c r="F23" s="43" t="s">
+        <v>620</v>
+      </c>
+      <c r="G23" s="21" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="60.75" x14ac:dyDescent="0.2">
+      <c r="A24" s="96"/>
+      <c r="B24" s="96"/>
+      <c r="C24" s="96"/>
+      <c r="D24" s="71"/>
+      <c r="E24" s="97"/>
+      <c r="F24" s="43" t="s">
+        <v>621</v>
+      </c>
+      <c r="G24" s="21" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="20.25" x14ac:dyDescent="0.2">
+      <c r="A25" s="96"/>
+      <c r="B25" s="96"/>
+      <c r="C25" s="96"/>
+      <c r="D25" s="72"/>
+      <c r="E25" s="97"/>
+      <c r="F25" s="43" t="s">
+        <v>622</v>
+      </c>
+      <c r="G25" s="21" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="40.5" x14ac:dyDescent="0.2">
+      <c r="A26" s="96" t="s">
+        <v>68</v>
+      </c>
+      <c r="B26" s="96" t="s">
+        <v>626</v>
+      </c>
+      <c r="C26" s="96" t="s">
+        <v>9</v>
+      </c>
+      <c r="D26" s="70">
+        <v>4</v>
+      </c>
+      <c r="E26" s="97" t="s">
+        <v>627</v>
+      </c>
+      <c r="F26" s="43" t="s">
+        <v>628</v>
+      </c>
+      <c r="G26" s="21" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="60.75" x14ac:dyDescent="0.2">
+      <c r="A27" s="96"/>
+      <c r="B27" s="96"/>
+      <c r="C27" s="96"/>
+      <c r="D27" s="71"/>
+      <c r="E27" s="97"/>
+      <c r="F27" s="43" t="s">
+        <v>629</v>
+      </c>
+      <c r="G27" s="21" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="81" x14ac:dyDescent="0.2">
+      <c r="A28" s="96"/>
+      <c r="B28" s="96"/>
+      <c r="C28" s="96"/>
+      <c r="D28" s="72"/>
+      <c r="E28" s="97"/>
+      <c r="F28" s="43" t="s">
+        <v>630</v>
+      </c>
+      <c r="G28" s="21" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="60.75" x14ac:dyDescent="0.2">
+      <c r="A29" s="42" t="s">
+        <v>68</v>
+      </c>
+      <c r="B29" s="42" t="s">
+        <v>122</v>
+      </c>
+      <c r="C29" s="42" t="s">
+        <v>9</v>
+      </c>
+      <c r="D29" s="41">
+        <v>4</v>
+      </c>
+      <c r="E29" s="43" t="s">
+        <v>634</v>
+      </c>
+      <c r="F29" s="43" t="s">
+        <v>591</v>
+      </c>
+      <c r="G29" s="21" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="60.75" x14ac:dyDescent="0.2">
+      <c r="A30" s="96" t="s">
+        <v>68</v>
+      </c>
+      <c r="B30" s="96" t="s">
+        <v>636</v>
+      </c>
+      <c r="C30" s="96" t="s">
+        <v>9</v>
+      </c>
+      <c r="D30" s="70">
+        <v>4</v>
+      </c>
+      <c r="E30" s="97" t="s">
+        <v>68</v>
+      </c>
+      <c r="F30" s="43" t="s">
+        <v>637</v>
+      </c>
+      <c r="G30" s="21" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="20.25" x14ac:dyDescent="0.2">
+      <c r="A31" s="96"/>
+      <c r="B31" s="96"/>
+      <c r="C31" s="96"/>
+      <c r="D31" s="71"/>
+      <c r="E31" s="97"/>
+      <c r="F31" s="43" t="s">
+        <v>638</v>
+      </c>
+      <c r="G31" s="21" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="40.5" x14ac:dyDescent="0.2">
+      <c r="A32" s="96" t="s">
+        <v>68</v>
+      </c>
+      <c r="B32" s="96" t="s">
+        <v>641</v>
+      </c>
+      <c r="C32" s="96" t="s">
+        <v>9</v>
+      </c>
+      <c r="D32" s="70">
+        <v>3</v>
+      </c>
+      <c r="E32" s="97" t="s">
+        <v>642</v>
+      </c>
+      <c r="F32" s="43" t="s">
+        <v>477</v>
+      </c>
+      <c r="G32" s="21" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="20.25" x14ac:dyDescent="0.2">
+      <c r="A33" s="96"/>
+      <c r="B33" s="96"/>
+      <c r="C33" s="96"/>
+      <c r="D33" s="71"/>
+      <c r="E33" s="97"/>
+      <c r="F33" s="43" t="s">
+        <v>643</v>
+      </c>
+      <c r="G33" s="21" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="60.75" x14ac:dyDescent="0.2">
+      <c r="A34" s="102" t="s">
+        <v>68</v>
+      </c>
+      <c r="B34" s="102" t="s">
+        <v>646</v>
+      </c>
+      <c r="C34" s="102" t="s">
+        <v>647</v>
+      </c>
+      <c r="D34" s="103">
+        <v>6</v>
+      </c>
+      <c r="E34" s="104" t="s">
+        <v>648</v>
+      </c>
+      <c r="F34" s="105" t="s">
+        <v>649</v>
+      </c>
+      <c r="G34" s="106" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="20.25" x14ac:dyDescent="0.2">
+      <c r="A35" s="102"/>
+      <c r="B35" s="102"/>
+      <c r="C35" s="102"/>
+      <c r="D35" s="107"/>
+      <c r="E35" s="104"/>
+      <c r="F35" s="105" t="s">
+        <v>650</v>
+      </c>
+      <c r="G35" s="106" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="40.5" x14ac:dyDescent="0.2">
+      <c r="A36" s="102"/>
+      <c r="B36" s="102"/>
+      <c r="C36" s="102"/>
+      <c r="D36" s="107"/>
+      <c r="E36" s="104"/>
+      <c r="F36" s="105" t="s">
+        <v>651</v>
+      </c>
+      <c r="G36" s="106" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="20.25" x14ac:dyDescent="0.2">
+      <c r="A37" s="102"/>
+      <c r="B37" s="102"/>
+      <c r="C37" s="102"/>
+      <c r="D37" s="108"/>
+      <c r="E37" s="104"/>
+      <c r="F37" s="105" t="s">
+        <v>652</v>
+      </c>
+      <c r="G37" s="106" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="40.5" x14ac:dyDescent="0.2">
+      <c r="A38" s="102" t="s">
+        <v>68</v>
+      </c>
+      <c r="B38" s="102" t="s">
+        <v>667</v>
+      </c>
+      <c r="C38" s="102" t="s">
+        <v>647</v>
+      </c>
+      <c r="D38" s="103">
+        <v>3</v>
+      </c>
+      <c r="E38" s="104" t="s">
+        <v>668</v>
+      </c>
+      <c r="F38" s="105" t="s">
+        <v>663</v>
+      </c>
+      <c r="G38" s="106" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="40.5" x14ac:dyDescent="0.2">
+      <c r="A39" s="102"/>
+      <c r="B39" s="102"/>
+      <c r="C39" s="102"/>
+      <c r="D39" s="107"/>
+      <c r="E39" s="104"/>
+      <c r="F39" s="105" t="s">
+        <v>140</v>
+      </c>
+      <c r="G39" s="106" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="40.5" x14ac:dyDescent="0.2">
+      <c r="A40" s="102"/>
+      <c r="B40" s="102"/>
+      <c r="C40" s="102"/>
+      <c r="D40" s="108"/>
+      <c r="E40" s="104"/>
+      <c r="F40" s="105" t="s">
+        <v>139</v>
+      </c>
+      <c r="G40" s="106" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="60.75" x14ac:dyDescent="0.2">
+      <c r="A41" s="102" t="s">
+        <v>68</v>
+      </c>
+      <c r="B41" s="102" t="s">
+        <v>252</v>
+      </c>
+      <c r="C41" s="102" t="s">
+        <v>647</v>
+      </c>
+      <c r="D41" s="103">
+        <v>5</v>
+      </c>
+      <c r="E41" s="104" t="s">
+        <v>669</v>
+      </c>
+      <c r="F41" s="105" t="s">
+        <v>670</v>
+      </c>
+      <c r="G41" s="106" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" ht="20.25" x14ac:dyDescent="0.2">
+      <c r="A42" s="102"/>
+      <c r="B42" s="102"/>
+      <c r="C42" s="102"/>
+      <c r="D42" s="108"/>
+      <c r="E42" s="104"/>
+      <c r="F42" s="105" t="s">
+        <v>671</v>
+      </c>
+      <c r="G42" s="106" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" ht="60.75" x14ac:dyDescent="0.2">
+      <c r="A43" s="102" t="s">
+        <v>68</v>
+      </c>
+      <c r="B43" s="102" t="s">
+        <v>674</v>
+      </c>
+      <c r="C43" s="102" t="s">
+        <v>647</v>
+      </c>
+      <c r="D43" s="103">
+        <v>3</v>
+      </c>
+      <c r="E43" s="104" t="s">
+        <v>675</v>
+      </c>
+      <c r="F43" s="105" t="s">
+        <v>676</v>
+      </c>
+      <c r="G43" s="106" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" ht="20.25" x14ac:dyDescent="0.2">
+      <c r="A44" s="102"/>
+      <c r="B44" s="102"/>
+      <c r="C44" s="102"/>
+      <c r="D44" s="108"/>
+      <c r="E44" s="104"/>
+      <c r="F44" s="105" t="s">
+        <v>677</v>
+      </c>
+      <c r="G44" s="106" t="s">
+        <v>679</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="80">
+    <mergeCell ref="A41:A42"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="C41:C42"/>
+    <mergeCell ref="D41:D42"/>
+    <mergeCell ref="E41:E42"/>
+    <mergeCell ref="A43:A44"/>
+    <mergeCell ref="B43:B44"/>
+    <mergeCell ref="C43:C44"/>
+    <mergeCell ref="D43:D44"/>
+    <mergeCell ref="E43:E44"/>
+    <mergeCell ref="A38:A40"/>
+    <mergeCell ref="B38:B40"/>
+    <mergeCell ref="C38:C40"/>
+    <mergeCell ref="D38:D40"/>
+    <mergeCell ref="E38:E40"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="C32:C33"/>
+    <mergeCell ref="D32:D33"/>
+    <mergeCell ref="E32:E33"/>
+    <mergeCell ref="A34:A37"/>
+    <mergeCell ref="B34:B37"/>
+    <mergeCell ref="C34:C37"/>
+    <mergeCell ref="D34:D37"/>
+    <mergeCell ref="E34:E37"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="D30:D31"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="A23:A25"/>
+    <mergeCell ref="B23:B25"/>
+    <mergeCell ref="C23:C25"/>
+    <mergeCell ref="D23:D25"/>
+    <mergeCell ref="E23:E25"/>
+    <mergeCell ref="A26:A28"/>
+    <mergeCell ref="B26:B28"/>
+    <mergeCell ref="C26:C28"/>
+    <mergeCell ref="D26:D28"/>
+    <mergeCell ref="E26:E28"/>
+    <mergeCell ref="A14:A16"/>
+    <mergeCell ref="B14:B16"/>
+    <mergeCell ref="C14:C16"/>
+    <mergeCell ref="D14:D16"/>
+    <mergeCell ref="E14:E16"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="A20:A22"/>
+    <mergeCell ref="B20:B22"/>
+    <mergeCell ref="C20:C22"/>
+    <mergeCell ref="D20:D22"/>
+    <mergeCell ref="E20:E22"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA1E5598-9C7A-4736-9880-1CC4846608C8}">
+  <dimension ref="A1:G31"/>
+  <sheetViews>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="16.375" customWidth="1"/>
+    <col min="4" max="4" width="8.25" customWidth="1"/>
+    <col min="5" max="5" width="25" customWidth="1"/>
+    <col min="7" max="7" width="85.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="21" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="60.75" x14ac:dyDescent="0.2">
+      <c r="A2" s="39" t="s">
+        <v>68</v>
+      </c>
+      <c r="B2" s="39" t="s">
+        <v>290</v>
+      </c>
+      <c r="C2" s="39" t="s">
+        <v>289</v>
+      </c>
+      <c r="D2" s="38">
+        <v>4</v>
+      </c>
+      <c r="E2" s="40" t="s">
+        <v>291</v>
+      </c>
+      <c r="F2" s="40" t="s">
+        <v>292</v>
+      </c>
+      <c r="G2" s="27" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="40.5" x14ac:dyDescent="0.2">
+      <c r="A3" s="84" t="s">
+        <v>68</v>
+      </c>
+      <c r="B3" s="84" t="s">
+        <v>294</v>
+      </c>
+      <c r="C3" s="84" t="s">
+        <v>289</v>
+      </c>
+      <c r="D3" s="89">
+        <v>4</v>
+      </c>
+      <c r="E3" s="85" t="s">
+        <v>295</v>
+      </c>
+      <c r="F3" s="40" t="s">
+        <v>296</v>
+      </c>
+      <c r="G3" s="27" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="21" x14ac:dyDescent="0.2">
+      <c r="A4" s="84"/>
+      <c r="B4" s="84"/>
+      <c r="C4" s="84"/>
+      <c r="D4" s="90"/>
+      <c r="E4" s="85"/>
+      <c r="F4" s="40" t="s">
+        <v>297</v>
+      </c>
+      <c r="G4" s="27" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="41.25" x14ac:dyDescent="0.2">
+      <c r="A5" s="39" t="s">
+        <v>68</v>
+      </c>
+      <c r="B5" s="39" t="s">
+        <v>122</v>
+      </c>
+      <c r="C5" s="39" t="s">
+        <v>289</v>
+      </c>
+      <c r="D5" s="38">
+        <v>4</v>
+      </c>
+      <c r="E5" s="40" t="s">
+        <v>300</v>
+      </c>
+      <c r="F5" s="40" t="s">
+        <v>301</v>
+      </c>
+      <c r="G5" s="27" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="40.5" x14ac:dyDescent="0.2">
+      <c r="A6" s="54" t="s">
+        <v>68</v>
+      </c>
+      <c r="B6" s="54" t="s">
+        <v>303</v>
+      </c>
+      <c r="C6" s="54" t="s">
+        <v>304</v>
+      </c>
+      <c r="D6" s="55">
+        <v>3</v>
+      </c>
+      <c r="E6" s="58" t="s">
+        <v>305</v>
+      </c>
+      <c r="F6" s="31" t="s">
+        <v>306</v>
+      </c>
+      <c r="G6" s="12" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="21" x14ac:dyDescent="0.2">
+      <c r="A7" s="54"/>
+      <c r="B7" s="54"/>
+      <c r="C7" s="54"/>
+      <c r="D7" s="56"/>
+      <c r="E7" s="58"/>
+      <c r="F7" s="31" t="s">
+        <v>307</v>
+      </c>
+      <c r="G7" s="12" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="21" x14ac:dyDescent="0.2">
+      <c r="A8" s="54"/>
+      <c r="B8" s="54"/>
+      <c r="C8" s="54"/>
+      <c r="D8" s="57"/>
+      <c r="E8" s="58"/>
+      <c r="F8" s="31" t="s">
+        <v>308</v>
+      </c>
+      <c r="G8" s="12" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="40.5" x14ac:dyDescent="0.2">
+      <c r="A9" s="54" t="s">
+        <v>68</v>
+      </c>
+      <c r="B9" s="54" t="s">
+        <v>312</v>
+      </c>
+      <c r="C9" s="54" t="s">
+        <v>304</v>
+      </c>
+      <c r="D9" s="55">
+        <v>3</v>
+      </c>
+      <c r="E9" s="58" t="s">
+        <v>313</v>
+      </c>
+      <c r="F9" s="31" t="s">
+        <v>314</v>
+      </c>
+      <c r="G9" s="12" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="40.5" x14ac:dyDescent="0.2">
+      <c r="A10" s="54"/>
+      <c r="B10" s="54"/>
+      <c r="C10" s="54"/>
+      <c r="D10" s="56"/>
+      <c r="E10" s="58"/>
+      <c r="F10" s="31" t="s">
+        <v>315</v>
+      </c>
+      <c r="G10" s="12" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="60.75" x14ac:dyDescent="0.2">
+      <c r="A11" s="54" t="s">
+        <v>68</v>
+      </c>
+      <c r="B11" s="54" t="s">
+        <v>318</v>
+      </c>
+      <c r="C11" s="54" t="s">
+        <v>304</v>
+      </c>
+      <c r="D11" s="55">
+        <v>3</v>
+      </c>
+      <c r="E11" s="58" t="s">
+        <v>319</v>
+      </c>
+      <c r="F11" s="31" t="s">
+        <v>320</v>
+      </c>
+      <c r="G11" s="12" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="20.25" x14ac:dyDescent="0.2">
+      <c r="A12" s="54"/>
+      <c r="B12" s="54"/>
+      <c r="C12" s="54"/>
+      <c r="D12" s="56"/>
+      <c r="E12" s="58"/>
+      <c r="F12" s="31" t="s">
+        <v>321</v>
+      </c>
+      <c r="G12" s="12" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="40.5" x14ac:dyDescent="0.2">
+      <c r="A13" s="50" t="s">
+        <v>68</v>
+      </c>
+      <c r="B13" s="50" t="s">
+        <v>325</v>
+      </c>
+      <c r="C13" s="50" t="s">
+        <v>324</v>
+      </c>
+      <c r="D13" s="51">
+        <v>3</v>
+      </c>
+      <c r="E13" s="53" t="s">
+        <v>328</v>
+      </c>
+      <c r="F13" s="37" t="s">
+        <v>326</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="20.25" x14ac:dyDescent="0.2">
+      <c r="A14" s="50"/>
+      <c r="B14" s="50"/>
+      <c r="C14" s="50"/>
+      <c r="D14" s="98"/>
+      <c r="E14" s="53"/>
+      <c r="F14" s="37" t="s">
+        <v>327</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="40.5" x14ac:dyDescent="0.2">
+      <c r="A15" s="50" t="s">
+        <v>68</v>
+      </c>
+      <c r="B15" s="50" t="s">
+        <v>331</v>
+      </c>
+      <c r="C15" s="50" t="s">
+        <v>324</v>
+      </c>
+      <c r="D15" s="51">
+        <v>3</v>
+      </c>
+      <c r="E15" s="53" t="s">
+        <v>334</v>
+      </c>
+      <c r="F15" s="37" t="s">
+        <v>332</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="40.5" x14ac:dyDescent="0.2">
+      <c r="A16" s="50"/>
+      <c r="B16" s="50"/>
+      <c r="C16" s="50"/>
+      <c r="D16" s="98"/>
+      <c r="E16" s="53"/>
+      <c r="F16" s="37" t="s">
+        <v>333</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="40.5" x14ac:dyDescent="0.2">
+      <c r="A17" s="35" t="s">
+        <v>68</v>
+      </c>
+      <c r="B17" s="35" t="s">
+        <v>337</v>
+      </c>
+      <c r="C17" s="35" t="s">
+        <v>324</v>
+      </c>
+      <c r="D17" s="36">
+        <v>4</v>
+      </c>
+      <c r="E17" s="37" t="s">
+        <v>338</v>
+      </c>
+      <c r="F17" s="37" t="s">
+        <v>339</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="40.5" x14ac:dyDescent="0.2">
+      <c r="A18" s="50" t="s">
+        <v>68</v>
+      </c>
+      <c r="B18" s="50" t="s">
+        <v>331</v>
+      </c>
+      <c r="C18" s="50" t="s">
+        <v>324</v>
+      </c>
+      <c r="D18" s="51">
+        <v>3</v>
+      </c>
+      <c r="E18" s="53" t="s">
+        <v>334</v>
+      </c>
+      <c r="F18" s="37" t="s">
+        <v>332</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="40.5" x14ac:dyDescent="0.2">
+      <c r="A19" s="50"/>
+      <c r="B19" s="50"/>
+      <c r="C19" s="50"/>
+      <c r="D19" s="98"/>
+      <c r="E19" s="53"/>
+      <c r="F19" s="37" t="s">
+        <v>333</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="40.5" x14ac:dyDescent="0.2">
+      <c r="A20" s="47" t="s">
+        <v>68</v>
+      </c>
+      <c r="B20" s="100" t="s">
+        <v>377</v>
+      </c>
+      <c r="C20" s="47" t="s">
+        <v>341</v>
+      </c>
+      <c r="D20" s="47">
+        <v>3</v>
+      </c>
+      <c r="E20" s="100" t="s">
+        <v>342</v>
+      </c>
+      <c r="F20" s="34" t="s">
+        <v>343</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="41.25" x14ac:dyDescent="0.2">
+      <c r="A21" s="48"/>
+      <c r="B21" s="48"/>
+      <c r="C21" s="48"/>
+      <c r="D21" s="99"/>
+      <c r="E21" s="101"/>
+      <c r="F21" s="34" t="s">
+        <v>344</v>
+      </c>
+      <c r="G21" s="4" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="40.5" x14ac:dyDescent="0.2">
+      <c r="A22" s="47" t="s">
+        <v>68</v>
+      </c>
+      <c r="B22" s="47" t="s">
+        <v>347</v>
+      </c>
+      <c r="C22" s="47" t="s">
+        <v>341</v>
+      </c>
+      <c r="D22" s="47">
+        <v>3</v>
+      </c>
+      <c r="E22" s="100" t="s">
+        <v>348</v>
+      </c>
+      <c r="F22" s="34" t="s">
+        <v>349</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="40.5" x14ac:dyDescent="0.2">
+      <c r="A23" s="48"/>
+      <c r="B23" s="48"/>
+      <c r="C23" s="48"/>
+      <c r="D23" s="99"/>
+      <c r="E23" s="101"/>
+      <c r="F23" s="34" t="s">
+        <v>350</v>
+      </c>
+      <c r="G23" s="4" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="40.5" x14ac:dyDescent="0.2">
+      <c r="A24" s="47" t="s">
+        <v>68</v>
+      </c>
+      <c r="B24" s="47" t="s">
+        <v>353</v>
+      </c>
+      <c r="C24" s="47" t="s">
+        <v>341</v>
+      </c>
+      <c r="D24" s="47">
+        <v>3</v>
+      </c>
+      <c r="E24" s="100" t="s">
+        <v>354</v>
+      </c>
+      <c r="F24" s="34" t="s">
+        <v>355</v>
+      </c>
+      <c r="G24" s="4" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="40.5" x14ac:dyDescent="0.2">
+      <c r="A25" s="48"/>
+      <c r="B25" s="48"/>
+      <c r="C25" s="48"/>
+      <c r="D25" s="99"/>
+      <c r="E25" s="101"/>
+      <c r="F25" s="34" t="s">
+        <v>356</v>
+      </c>
+      <c r="G25" s="4" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="20.25" x14ac:dyDescent="0.2">
+      <c r="A26" s="62" t="s">
+        <v>68</v>
+      </c>
+      <c r="B26" s="62" t="s">
+        <v>360</v>
+      </c>
+      <c r="C26" s="62" t="s">
+        <v>359</v>
+      </c>
+      <c r="D26" s="62">
+        <v>3</v>
+      </c>
+      <c r="E26" s="59" t="s">
+        <v>361</v>
+      </c>
+      <c r="F26" s="28" t="s">
+        <v>362</v>
+      </c>
+      <c r="G26" s="9" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="21" x14ac:dyDescent="0.2">
+      <c r="A27" s="64"/>
+      <c r="B27" s="64"/>
+      <c r="C27" s="64"/>
+      <c r="D27" s="63"/>
+      <c r="E27" s="60"/>
+      <c r="F27" s="28" t="s">
+        <v>363</v>
+      </c>
+      <c r="G27" s="9" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="20.25" x14ac:dyDescent="0.2">
+      <c r="A28" s="62" t="s">
+        <v>68</v>
+      </c>
+      <c r="B28" s="62" t="s">
+        <v>366</v>
+      </c>
+      <c r="C28" s="62" t="s">
+        <v>359</v>
+      </c>
+      <c r="D28" s="62">
+        <v>3</v>
+      </c>
+      <c r="E28" s="59" t="s">
+        <v>367</v>
+      </c>
+      <c r="F28" s="28" t="s">
+        <v>368</v>
+      </c>
+      <c r="G28" s="9" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="40.5" x14ac:dyDescent="0.2">
+      <c r="A29" s="64"/>
+      <c r="B29" s="64"/>
+      <c r="C29" s="64"/>
+      <c r="D29" s="63"/>
+      <c r="E29" s="60"/>
+      <c r="F29" s="28" t="s">
+        <v>369</v>
+      </c>
+      <c r="G29" s="9" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="40.5" x14ac:dyDescent="0.2">
+      <c r="A30" s="62" t="s">
+        <v>68</v>
+      </c>
+      <c r="B30" s="62" t="s">
+        <v>372</v>
+      </c>
+      <c r="C30" s="62" t="s">
+        <v>359</v>
+      </c>
+      <c r="D30" s="62">
+        <v>3</v>
+      </c>
+      <c r="E30" s="59" t="s">
+        <v>373</v>
+      </c>
+      <c r="F30" s="28" t="s">
+        <v>374</v>
+      </c>
+      <c r="G30" s="9" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="20.25" x14ac:dyDescent="0.2">
+      <c r="A31" s="64"/>
+      <c r="B31" s="64"/>
+      <c r="C31" s="64"/>
+      <c r="D31" s="63"/>
+      <c r="E31" s="60"/>
+      <c r="F31" s="28" t="s">
+        <v>34</v>
+      </c>
+      <c r="G31" s="9" t="s">
+        <v>376</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="65">
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="D30:D31"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="D28:D29"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="C6:C8"/>
+    <mergeCell ref="D6:D8"/>
+    <mergeCell ref="E6:E8"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/三国杀技能记录_Other.xlsx
+++ b/三国杀技能记录_Other.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\ws\tk-xls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{329D4727-5BEA-4BEC-B027-BAF86764A8C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D6D29BC-8F91-4216-B653-243F592A0D93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2025" windowWidth="26880" windowHeight="13230" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="恶" sheetId="2" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="988" uniqueCount="680">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1021" uniqueCount="701">
   <si>
     <t>编号</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -3404,6 +3404,90 @@
   </si>
   <si>
     <t>锁定技，你对一名女性角色造成伤害并死亡，你可恢复一点血。</t>
+  </si>
+  <si>
+    <t>丁奉</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>雪中奋短兵</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>御敌</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>在合理的时机，你可以弃置一张装备区的牌，若如此做：1.当你受到【杀】造成的伤害时，令伤害-1；2.当你使用【杀】造成伤害时，令伤害+1.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>武圣的义子</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>忠勇</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>你可将你的任意两张基本牌当一张无视距离的【杀】，以此法使用的【杀】被【闪】抵消时，你将该【闪】交给一名角色。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>关兴张苞</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>将门虎子</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>勇武</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>当你需要使用或打出【杀】时，你可进行一次判定。若结果为红色时，视为你使用或打出了一张【杀】，为黑色时，你不可继续使用勇武直到回合结束，每回合限用一次。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>韩遂</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>军阀</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>出牌阶段，当你使用的【杀】指定目标后，你可进行二选一。1.令目标角色摸一张牌，该【杀】不可被闪避；2.令目标角色弃一张牌，目标角色可以将任意一张牌当【闪】使用。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>张任</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>益州从事</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>伏击</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>绝杀</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>其他角色的回合开始阶段，若你在其攻击范围以外，你可弃置一张牌，视为你对该角色使用了一张【杀】。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>当你使用【杀】造成一名角色进入濒死状态时，你可进行一次判定，除非结果为红桃，否则该角色立即死亡。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>当你受到【杀】造成的伤害时/使用【杀】造成伤害时，你可以弃置装备区的一张牌，令此伤害-1/+1。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -3595,7 +3679,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="111">
+  <cellXfs count="114">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3728,6 +3812,129 @@
     <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3740,6 +3947,15 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="3" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3752,20 +3968,35 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3773,155 +4004,17 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4270,19 +4363,19 @@
       </c>
     </row>
     <row r="3" spans="1:7" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A3" s="66" t="s">
-        <v>68</v>
-      </c>
-      <c r="B3" s="46" t="s">
+      <c r="A3" s="86" t="s">
+        <v>68</v>
+      </c>
+      <c r="B3" s="87" t="s">
         <v>73</v>
       </c>
-      <c r="C3" s="46" t="s">
+      <c r="C3" s="87" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="47">
+      <c r="D3" s="88">
         <v>4</v>
       </c>
-      <c r="E3" s="49" t="s">
+      <c r="E3" s="90" t="s">
         <v>74</v>
       </c>
       <c r="F3" s="3" t="s">
@@ -4293,11 +4386,11 @@
       </c>
     </row>
     <row r="4" spans="1:7" ht="40.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="66"/>
-      <c r="B4" s="46"/>
-      <c r="C4" s="46"/>
-      <c r="D4" s="48"/>
-      <c r="E4" s="49"/>
+      <c r="A4" s="86"/>
+      <c r="B4" s="87"/>
+      <c r="C4" s="87"/>
+      <c r="D4" s="89"/>
+      <c r="E4" s="90"/>
       <c r="F4" s="3" t="s">
         <v>76</v>
       </c>
@@ -4306,19 +4399,19 @@
       </c>
     </row>
     <row r="5" spans="1:7" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A5" s="66" t="s">
-        <v>68</v>
-      </c>
-      <c r="B5" s="46" t="s">
+      <c r="A5" s="86" t="s">
+        <v>68</v>
+      </c>
+      <c r="B5" s="87" t="s">
         <v>79</v>
       </c>
-      <c r="C5" s="46" t="s">
+      <c r="C5" s="87" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="47">
+      <c r="D5" s="88">
         <v>4</v>
       </c>
-      <c r="E5" s="49" t="s">
+      <c r="E5" s="90" t="s">
         <v>84</v>
       </c>
       <c r="F5" s="3" t="s">
@@ -4329,11 +4422,11 @@
       </c>
     </row>
     <row r="6" spans="1:7" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A6" s="66"/>
-      <c r="B6" s="46"/>
-      <c r="C6" s="46"/>
-      <c r="D6" s="48"/>
-      <c r="E6" s="49"/>
+      <c r="A6" s="86"/>
+      <c r="B6" s="87"/>
+      <c r="C6" s="87"/>
+      <c r="D6" s="89"/>
+      <c r="E6" s="90"/>
       <c r="F6" s="3" t="s">
         <v>81</v>
       </c>
@@ -4388,19 +4481,19 @@
       </c>
     </row>
     <row r="9" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="76" t="s">
-        <v>68</v>
-      </c>
-      <c r="B9" s="55" t="s">
+      <c r="A9" s="77" t="s">
+        <v>68</v>
+      </c>
+      <c r="B9" s="80" t="s">
         <v>92</v>
       </c>
-      <c r="C9" s="55" t="s">
+      <c r="C9" s="80" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="55">
+      <c r="D9" s="80">
         <v>3</v>
       </c>
-      <c r="E9" s="79" t="s">
+      <c r="E9" s="83" t="s">
         <v>93</v>
       </c>
       <c r="F9" s="11" t="s">
@@ -4411,11 +4504,11 @@
       </c>
     </row>
     <row r="10" spans="1:7" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A10" s="77"/>
-      <c r="B10" s="56"/>
-      <c r="C10" s="56"/>
-      <c r="D10" s="56"/>
-      <c r="E10" s="80"/>
+      <c r="A10" s="78"/>
+      <c r="B10" s="81"/>
+      <c r="C10" s="81"/>
+      <c r="D10" s="81"/>
+      <c r="E10" s="84"/>
       <c r="F10" s="11" t="s">
         <v>95</v>
       </c>
@@ -4424,11 +4517,11 @@
       </c>
     </row>
     <row r="11" spans="1:7" ht="40.5" x14ac:dyDescent="0.2">
-      <c r="A11" s="78"/>
-      <c r="B11" s="57"/>
-      <c r="C11" s="57"/>
-      <c r="D11" s="57"/>
-      <c r="E11" s="81"/>
+      <c r="A11" s="79"/>
+      <c r="B11" s="82"/>
+      <c r="C11" s="82"/>
+      <c r="D11" s="82"/>
+      <c r="E11" s="85"/>
       <c r="F11" s="11" t="s">
         <v>96</v>
       </c>
@@ -4437,19 +4530,19 @@
       </c>
     </row>
     <row r="12" spans="1:7" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A12" s="82" t="s">
-        <v>68</v>
-      </c>
-      <c r="B12" s="54" t="s">
+      <c r="A12" s="65" t="s">
+        <v>68</v>
+      </c>
+      <c r="B12" s="66" t="s">
         <v>100</v>
       </c>
-      <c r="C12" s="54" t="s">
+      <c r="C12" s="66" t="s">
         <v>10</v>
       </c>
-      <c r="D12" s="54">
+      <c r="D12" s="66">
         <v>3</v>
       </c>
-      <c r="E12" s="58" t="s">
+      <c r="E12" s="67" t="s">
         <v>101</v>
       </c>
       <c r="F12" s="11" t="s">
@@ -4460,11 +4553,11 @@
       </c>
     </row>
     <row r="13" spans="1:7" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A13" s="82"/>
-      <c r="B13" s="54"/>
-      <c r="C13" s="54"/>
-      <c r="D13" s="54"/>
-      <c r="E13" s="58"/>
+      <c r="A13" s="65"/>
+      <c r="B13" s="66"/>
+      <c r="C13" s="66"/>
+      <c r="D13" s="66"/>
+      <c r="E13" s="67"/>
       <c r="F13" s="11" t="s">
         <v>103</v>
       </c>
@@ -4473,19 +4566,19 @@
       </c>
     </row>
     <row r="14" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="67" t="s">
-        <v>68</v>
-      </c>
-      <c r="B14" s="70" t="s">
+      <c r="A14" s="68" t="s">
+        <v>68</v>
+      </c>
+      <c r="B14" s="71" t="s">
         <v>106</v>
       </c>
-      <c r="C14" s="70" t="s">
+      <c r="C14" s="71" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="70">
+      <c r="D14" s="71">
         <v>4</v>
       </c>
-      <c r="E14" s="73" t="s">
+      <c r="E14" s="74" t="s">
         <v>107</v>
       </c>
       <c r="F14" s="20" t="s">
@@ -4496,11 +4589,11 @@
       </c>
     </row>
     <row r="15" spans="1:7" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A15" s="68"/>
-      <c r="B15" s="71"/>
-      <c r="C15" s="71"/>
-      <c r="D15" s="71"/>
-      <c r="E15" s="74"/>
+      <c r="A15" s="69"/>
+      <c r="B15" s="72"/>
+      <c r="C15" s="72"/>
+      <c r="D15" s="72"/>
+      <c r="E15" s="75"/>
       <c r="F15" s="20" t="s">
         <v>109</v>
       </c>
@@ -4509,11 +4602,11 @@
       </c>
     </row>
     <row r="16" spans="1:7" ht="40.5" x14ac:dyDescent="0.2">
-      <c r="A16" s="69"/>
-      <c r="B16" s="72"/>
-      <c r="C16" s="72"/>
-      <c r="D16" s="72"/>
-      <c r="E16" s="75"/>
+      <c r="A16" s="70"/>
+      <c r="B16" s="73"/>
+      <c r="C16" s="73"/>
+      <c r="D16" s="73"/>
+      <c r="E16" s="76"/>
       <c r="F16" s="20" t="s">
         <v>110</v>
       </c>
@@ -4522,19 +4615,19 @@
       </c>
     </row>
     <row r="17" spans="1:7" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A17" s="67" t="s">
-        <v>68</v>
-      </c>
-      <c r="B17" s="70" t="s">
+      <c r="A17" s="68" t="s">
+        <v>68</v>
+      </c>
+      <c r="B17" s="71" t="s">
         <v>114</v>
       </c>
-      <c r="C17" s="70" t="s">
+      <c r="C17" s="71" t="s">
         <v>9</v>
       </c>
-      <c r="D17" s="70">
+      <c r="D17" s="71">
         <v>4</v>
       </c>
-      <c r="E17" s="73" t="s">
+      <c r="E17" s="74" t="s">
         <v>115</v>
       </c>
       <c r="F17" s="20" t="s">
@@ -4545,11 +4638,11 @@
       </c>
     </row>
     <row r="18" spans="1:7" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A18" s="68"/>
-      <c r="B18" s="71"/>
-      <c r="C18" s="71"/>
-      <c r="D18" s="71"/>
-      <c r="E18" s="74"/>
+      <c r="A18" s="69"/>
+      <c r="B18" s="72"/>
+      <c r="C18" s="72"/>
+      <c r="D18" s="72"/>
+      <c r="E18" s="75"/>
       <c r="F18" s="20" t="s">
         <v>117</v>
       </c>
@@ -4558,11 +4651,11 @@
       </c>
     </row>
     <row r="19" spans="1:7" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A19" s="69"/>
-      <c r="B19" s="72"/>
-      <c r="C19" s="72"/>
-      <c r="D19" s="72"/>
-      <c r="E19" s="75"/>
+      <c r="A19" s="70"/>
+      <c r="B19" s="73"/>
+      <c r="C19" s="73"/>
+      <c r="D19" s="73"/>
+      <c r="E19" s="76"/>
       <c r="F19" s="20" t="s">
         <v>118</v>
       </c>
@@ -4594,19 +4687,19 @@
       </c>
     </row>
     <row r="21" spans="1:7" ht="60.75" x14ac:dyDescent="0.2">
-      <c r="A21" s="83" t="s">
-        <v>68</v>
-      </c>
-      <c r="B21" s="84" t="s">
+      <c r="A21" s="62" t="s">
+        <v>68</v>
+      </c>
+      <c r="B21" s="63" t="s">
         <v>126</v>
       </c>
-      <c r="C21" s="84" t="s">
+      <c r="C21" s="63" t="s">
         <v>127</v>
       </c>
-      <c r="D21" s="84">
+      <c r="D21" s="63">
         <v>5</v>
       </c>
-      <c r="E21" s="85" t="s">
+      <c r="E21" s="64" t="s">
         <v>128</v>
       </c>
       <c r="F21" s="26" t="s">
@@ -4617,11 +4710,11 @@
       </c>
     </row>
     <row r="22" spans="1:7" ht="40.5" x14ac:dyDescent="0.2">
-      <c r="A22" s="83"/>
-      <c r="B22" s="84"/>
-      <c r="C22" s="84"/>
-      <c r="D22" s="84"/>
-      <c r="E22" s="85"/>
+      <c r="A22" s="62"/>
+      <c r="B22" s="63"/>
+      <c r="C22" s="63"/>
+      <c r="D22" s="63"/>
+      <c r="E22" s="64"/>
       <c r="F22" s="26" t="s">
         <v>130</v>
       </c>
@@ -4630,19 +4723,19 @@
       </c>
     </row>
     <row r="23" spans="1:7" ht="60.75" x14ac:dyDescent="0.2">
-      <c r="A23" s="83" t="s">
-        <v>68</v>
-      </c>
-      <c r="B23" s="84" t="s">
+      <c r="A23" s="62" t="s">
+        <v>68</v>
+      </c>
+      <c r="B23" s="63" t="s">
         <v>50</v>
       </c>
-      <c r="C23" s="84" t="s">
+      <c r="C23" s="63" t="s">
         <v>127</v>
       </c>
-      <c r="D23" s="84">
+      <c r="D23" s="63">
         <v>3</v>
       </c>
-      <c r="E23" s="85" t="s">
+      <c r="E23" s="64" t="s">
         <v>133</v>
       </c>
       <c r="F23" s="26" t="s">
@@ -4653,11 +4746,11 @@
       </c>
     </row>
     <row r="24" spans="1:7" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A24" s="83"/>
-      <c r="B24" s="84"/>
-      <c r="C24" s="84"/>
-      <c r="D24" s="84"/>
-      <c r="E24" s="85"/>
+      <c r="A24" s="62"/>
+      <c r="B24" s="63"/>
+      <c r="C24" s="63"/>
+      <c r="D24" s="63"/>
+      <c r="E24" s="64"/>
       <c r="F24" s="26" t="s">
         <v>54</v>
       </c>
@@ -4666,19 +4759,19 @@
       </c>
     </row>
     <row r="25" spans="1:7" ht="40.5" x14ac:dyDescent="0.2">
-      <c r="A25" s="86" t="s">
-        <v>68</v>
-      </c>
-      <c r="B25" s="89" t="s">
+      <c r="A25" s="53" t="s">
+        <v>68</v>
+      </c>
+      <c r="B25" s="56" t="s">
         <v>137</v>
       </c>
-      <c r="C25" s="89" t="s">
+      <c r="C25" s="56" t="s">
         <v>138</v>
       </c>
-      <c r="D25" s="89">
+      <c r="D25" s="56">
         <v>3</v>
       </c>
-      <c r="E25" s="92" t="s">
+      <c r="E25" s="59" t="s">
         <v>145</v>
       </c>
       <c r="F25" s="26" t="s">
@@ -4689,11 +4782,11 @@
       </c>
     </row>
     <row r="26" spans="1:7" ht="40.5" x14ac:dyDescent="0.2">
-      <c r="A26" s="87"/>
-      <c r="B26" s="90"/>
-      <c r="C26" s="90"/>
-      <c r="D26" s="90"/>
-      <c r="E26" s="93"/>
+      <c r="A26" s="54"/>
+      <c r="B26" s="57"/>
+      <c r="C26" s="57"/>
+      <c r="D26" s="57"/>
+      <c r="E26" s="60"/>
       <c r="F26" s="26" t="s">
         <v>140</v>
       </c>
@@ -4702,11 +4795,11 @@
       </c>
     </row>
     <row r="27" spans="1:7" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A27" s="88"/>
-      <c r="B27" s="91"/>
-      <c r="C27" s="91"/>
-      <c r="D27" s="91"/>
-      <c r="E27" s="94"/>
+      <c r="A27" s="55"/>
+      <c r="B27" s="58"/>
+      <c r="C27" s="58"/>
+      <c r="D27" s="58"/>
+      <c r="E27" s="61"/>
       <c r="F27" s="26" t="s">
         <v>141</v>
       </c>
@@ -4716,51 +4809,51 @@
     </row>
   </sheetData>
   <mergeCells count="45">
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="A14:A16"/>
+    <mergeCell ref="B14:B16"/>
+    <mergeCell ref="C14:C16"/>
+    <mergeCell ref="D14:D16"/>
+    <mergeCell ref="E14:E16"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="C9:C11"/>
+    <mergeCell ref="D9:D11"/>
+    <mergeCell ref="E9:E11"/>
+    <mergeCell ref="A17:A19"/>
+    <mergeCell ref="B17:B19"/>
+    <mergeCell ref="C17:C19"/>
+    <mergeCell ref="D17:D19"/>
+    <mergeCell ref="E17:E19"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="E21:E22"/>
     <mergeCell ref="A25:A27"/>
     <mergeCell ref="B25:B27"/>
     <mergeCell ref="C25:C27"/>
     <mergeCell ref="D25:D27"/>
     <mergeCell ref="E25:E27"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="A17:A19"/>
-    <mergeCell ref="B17:B19"/>
-    <mergeCell ref="C17:C19"/>
-    <mergeCell ref="D17:D19"/>
-    <mergeCell ref="E17:E19"/>
-    <mergeCell ref="A9:A11"/>
-    <mergeCell ref="B9:B11"/>
-    <mergeCell ref="C9:C11"/>
-    <mergeCell ref="D9:D11"/>
-    <mergeCell ref="E9:E11"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="A14:A16"/>
-    <mergeCell ref="B14:B16"/>
-    <mergeCell ref="C14:C16"/>
-    <mergeCell ref="D14:D16"/>
-    <mergeCell ref="E14:E16"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:E4"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4811,19 +4904,19 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A2" s="46" t="s">
+      <c r="A2" s="87" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="46" t="s">
+      <c r="B2" s="87" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="46" t="s">
+      <c r="C2" s="87" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="47">
+      <c r="D2" s="88">
         <v>3</v>
       </c>
-      <c r="E2" s="49" t="s">
+      <c r="E2" s="90" t="s">
         <v>13</v>
       </c>
       <c r="F2" s="3" t="s">
@@ -4834,11 +4927,11 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A3" s="46"/>
-      <c r="B3" s="46"/>
-      <c r="C3" s="46"/>
-      <c r="D3" s="48"/>
-      <c r="E3" s="49"/>
+      <c r="A3" s="87"/>
+      <c r="B3" s="87"/>
+      <c r="C3" s="87"/>
+      <c r="D3" s="89"/>
+      <c r="E3" s="90"/>
       <c r="F3" s="3" t="s">
         <v>15</v>
       </c>
@@ -4847,19 +4940,19 @@
       </c>
     </row>
     <row r="4" spans="1:7" ht="41.25" x14ac:dyDescent="0.35">
-      <c r="A4" s="46" t="s">
+      <c r="A4" s="87" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="46" t="s">
+      <c r="B4" s="87" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="46" t="s">
+      <c r="C4" s="87" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="47">
+      <c r="D4" s="88">
         <v>4</v>
       </c>
-      <c r="E4" s="49" t="s">
+      <c r="E4" s="90" t="s">
         <v>20</v>
       </c>
       <c r="F4" s="3" t="s">
@@ -4870,11 +4963,11 @@
       </c>
     </row>
     <row r="5" spans="1:7" ht="40.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="46"/>
-      <c r="B5" s="46"/>
-      <c r="C5" s="46"/>
-      <c r="D5" s="48"/>
-      <c r="E5" s="49"/>
+      <c r="A5" s="87"/>
+      <c r="B5" s="87"/>
+      <c r="C5" s="87"/>
+      <c r="D5" s="89"/>
+      <c r="E5" s="90"/>
       <c r="F5" s="3" t="s">
         <v>22</v>
       </c>
@@ -4883,19 +4976,19 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A6" s="50" t="s">
+      <c r="A6" s="94" t="s">
         <v>24</v>
       </c>
-      <c r="B6" s="50" t="s">
+      <c r="B6" s="94" t="s">
         <v>25</v>
       </c>
-      <c r="C6" s="50" t="s">
+      <c r="C6" s="94" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="51">
+      <c r="D6" s="95">
         <v>4</v>
       </c>
-      <c r="E6" s="53" t="s">
+      <c r="E6" s="97" t="s">
         <v>28</v>
       </c>
       <c r="F6" s="6" t="s">
@@ -4906,11 +4999,11 @@
       </c>
     </row>
     <row r="7" spans="1:7" ht="41.25" x14ac:dyDescent="0.35">
-      <c r="A7" s="50"/>
-      <c r="B7" s="50"/>
-      <c r="C7" s="50"/>
-      <c r="D7" s="52"/>
-      <c r="E7" s="53"/>
+      <c r="A7" s="94"/>
+      <c r="B7" s="94"/>
+      <c r="C7" s="94"/>
+      <c r="D7" s="96"/>
+      <c r="E7" s="97"/>
       <c r="F7" s="6" t="s">
         <v>31</v>
       </c>
@@ -4919,19 +5012,19 @@
       </c>
     </row>
     <row r="8" spans="1:7" ht="60.75" x14ac:dyDescent="0.35">
-      <c r="A8" s="50" t="s">
+      <c r="A8" s="94" t="s">
         <v>26</v>
       </c>
-      <c r="B8" s="50" t="s">
+      <c r="B8" s="94" t="s">
         <v>27</v>
       </c>
-      <c r="C8" s="50" t="s">
+      <c r="C8" s="94" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="51">
+      <c r="D8" s="95">
         <v>4</v>
       </c>
-      <c r="E8" s="53" t="s">
+      <c r="E8" s="97" t="s">
         <v>29</v>
       </c>
       <c r="F8" s="6" t="s">
@@ -4942,11 +5035,11 @@
       </c>
     </row>
     <row r="9" spans="1:7" ht="40.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="50"/>
-      <c r="B9" s="50"/>
-      <c r="C9" s="50"/>
-      <c r="D9" s="52"/>
-      <c r="E9" s="53"/>
+      <c r="A9" s="94"/>
+      <c r="B9" s="94"/>
+      <c r="C9" s="94"/>
+      <c r="D9" s="96"/>
+      <c r="E9" s="97"/>
       <c r="F9" s="6" t="s">
         <v>34</v>
       </c>
@@ -4955,19 +5048,19 @@
       </c>
     </row>
     <row r="10" spans="1:7" ht="21" x14ac:dyDescent="0.35">
-      <c r="A10" s="54" t="s">
+      <c r="A10" s="66" t="s">
         <v>37</v>
       </c>
-      <c r="B10" s="54" t="s">
+      <c r="B10" s="66" t="s">
         <v>39</v>
       </c>
-      <c r="C10" s="54" t="s">
+      <c r="C10" s="66" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="55">
+      <c r="D10" s="80">
         <v>3</v>
       </c>
-      <c r="E10" s="58" t="s">
+      <c r="E10" s="67" t="s">
         <v>29</v>
       </c>
       <c r="F10" s="11" t="s">
@@ -4978,11 +5071,11 @@
       </c>
     </row>
     <row r="11" spans="1:7" ht="60.75" x14ac:dyDescent="0.35">
-      <c r="A11" s="54"/>
-      <c r="B11" s="54"/>
-      <c r="C11" s="54"/>
-      <c r="D11" s="56"/>
-      <c r="E11" s="58"/>
+      <c r="A11" s="66"/>
+      <c r="B11" s="66"/>
+      <c r="C11" s="66"/>
+      <c r="D11" s="81"/>
+      <c r="E11" s="67"/>
       <c r="F11" s="11" t="s">
         <v>43</v>
       </c>
@@ -4991,11 +5084,11 @@
       </c>
     </row>
     <row r="12" spans="1:7" ht="21" x14ac:dyDescent="0.35">
-      <c r="A12" s="54"/>
-      <c r="B12" s="54"/>
-      <c r="C12" s="54"/>
-      <c r="D12" s="57"/>
-      <c r="E12" s="58"/>
+      <c r="A12" s="66"/>
+      <c r="B12" s="66"/>
+      <c r="C12" s="66"/>
+      <c r="D12" s="82"/>
+      <c r="E12" s="67"/>
       <c r="F12" s="11" t="s">
         <v>44</v>
       </c>
@@ -5027,19 +5120,19 @@
       </c>
     </row>
     <row r="14" spans="1:7" ht="40.5" x14ac:dyDescent="0.35">
-      <c r="A14" s="61" t="s">
+      <c r="A14" s="112" t="s">
         <v>48</v>
       </c>
-      <c r="B14" s="61" t="s">
+      <c r="B14" s="112" t="s">
         <v>50</v>
       </c>
-      <c r="C14" s="61" t="s">
+      <c r="C14" s="112" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="62">
+      <c r="D14" s="105">
         <v>3</v>
       </c>
-      <c r="E14" s="65" t="s">
+      <c r="E14" s="113" t="s">
         <v>67</v>
       </c>
       <c r="F14" s="8" t="s">
@@ -5050,11 +5143,11 @@
       </c>
     </row>
     <row r="15" spans="1:7" ht="40.5" x14ac:dyDescent="0.35">
-      <c r="A15" s="61"/>
-      <c r="B15" s="61"/>
-      <c r="C15" s="61"/>
-      <c r="D15" s="63"/>
-      <c r="E15" s="65"/>
+      <c r="A15" s="112"/>
+      <c r="B15" s="112"/>
+      <c r="C15" s="112"/>
+      <c r="D15" s="107"/>
+      <c r="E15" s="113"/>
       <c r="F15" s="8" t="s">
         <v>53</v>
       </c>
@@ -5063,11 +5156,11 @@
       </c>
     </row>
     <row r="16" spans="1:7" ht="40.5" x14ac:dyDescent="0.35">
-      <c r="A16" s="61"/>
-      <c r="B16" s="61"/>
-      <c r="C16" s="61"/>
-      <c r="D16" s="64"/>
-      <c r="E16" s="65"/>
+      <c r="A16" s="112"/>
+      <c r="B16" s="112"/>
+      <c r="C16" s="112"/>
+      <c r="D16" s="106"/>
+      <c r="E16" s="113"/>
       <c r="F16" s="8" t="s">
         <v>54</v>
       </c>
@@ -5076,19 +5169,19 @@
       </c>
     </row>
     <row r="17" spans="1:7" ht="60.75" x14ac:dyDescent="0.35">
-      <c r="A17" s="62" t="s">
+      <c r="A17" s="105" t="s">
         <v>49</v>
       </c>
-      <c r="B17" s="62" t="s">
+      <c r="B17" s="105" t="s">
         <v>51</v>
       </c>
-      <c r="C17" s="62" t="s">
+      <c r="C17" s="105" t="s">
         <v>9</v>
       </c>
-      <c r="D17" s="62">
+      <c r="D17" s="105">
         <v>4</v>
       </c>
-      <c r="E17" s="59" t="s">
+      <c r="E17" s="108" t="s">
         <v>66</v>
       </c>
       <c r="F17" s="8" t="s">
@@ -5099,11 +5192,11 @@
       </c>
     </row>
     <row r="18" spans="1:7" ht="21" x14ac:dyDescent="0.35">
-      <c r="A18" s="64"/>
-      <c r="B18" s="64"/>
-      <c r="C18" s="64"/>
-      <c r="D18" s="64"/>
-      <c r="E18" s="60"/>
+      <c r="A18" s="106"/>
+      <c r="B18" s="106"/>
+      <c r="C18" s="106"/>
+      <c r="D18" s="106"/>
+      <c r="E18" s="109"/>
       <c r="F18" s="8" t="s">
         <v>59</v>
       </c>
@@ -5113,6 +5206,31 @@
     </row>
   </sheetData>
   <mergeCells count="35">
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="B10:B12"/>
+    <mergeCell ref="C10:C12"/>
+    <mergeCell ref="D10:D12"/>
+    <mergeCell ref="E10:E12"/>
     <mergeCell ref="E17:E18"/>
     <mergeCell ref="A14:A16"/>
     <mergeCell ref="B14:B16"/>
@@ -5123,31 +5241,6 @@
     <mergeCell ref="B17:B18"/>
     <mergeCell ref="C17:C18"/>
     <mergeCell ref="D17:D18"/>
-    <mergeCell ref="A10:A12"/>
-    <mergeCell ref="B10:B12"/>
-    <mergeCell ref="C10:C12"/>
-    <mergeCell ref="D10:D12"/>
-    <mergeCell ref="E10:E12"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:E3"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5195,19 +5288,19 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="40.5" x14ac:dyDescent="0.2">
-      <c r="A2" s="67" t="s">
-        <v>68</v>
-      </c>
-      <c r="B2" s="70" t="s">
+      <c r="A2" s="68" t="s">
+        <v>68</v>
+      </c>
+      <c r="B2" s="71" t="s">
         <v>146</v>
       </c>
-      <c r="C2" s="70" t="s">
+      <c r="C2" s="71" t="s">
         <v>149</v>
       </c>
-      <c r="D2" s="70">
+      <c r="D2" s="71">
         <v>3</v>
       </c>
-      <c r="E2" s="73" t="s">
+      <c r="E2" s="74" t="s">
         <v>147</v>
       </c>
       <c r="F2" s="20" t="s">
@@ -5218,11 +5311,11 @@
       </c>
     </row>
     <row r="3" spans="1:7" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A3" s="68"/>
-      <c r="B3" s="71"/>
-      <c r="C3" s="71"/>
-      <c r="D3" s="71"/>
-      <c r="E3" s="74"/>
+      <c r="A3" s="69"/>
+      <c r="B3" s="72"/>
+      <c r="C3" s="72"/>
+      <c r="D3" s="72"/>
+      <c r="E3" s="75"/>
       <c r="F3" s="20" t="s">
         <v>110</v>
       </c>
@@ -5231,11 +5324,11 @@
       </c>
     </row>
     <row r="4" spans="1:7" ht="21" x14ac:dyDescent="0.2">
-      <c r="A4" s="69"/>
-      <c r="B4" s="72"/>
-      <c r="C4" s="72"/>
-      <c r="D4" s="72"/>
-      <c r="E4" s="75"/>
+      <c r="A4" s="70"/>
+      <c r="B4" s="73"/>
+      <c r="C4" s="73"/>
+      <c r="D4" s="73"/>
+      <c r="E4" s="76"/>
       <c r="F4" s="20" t="s">
         <v>148</v>
       </c>
@@ -5244,19 +5337,19 @@
       </c>
     </row>
     <row r="5" spans="1:7" ht="40.5" x14ac:dyDescent="0.2">
-      <c r="A5" s="67" t="s">
-        <v>68</v>
-      </c>
-      <c r="B5" s="70" t="s">
+      <c r="A5" s="68" t="s">
+        <v>68</v>
+      </c>
+      <c r="B5" s="71" t="s">
         <v>152</v>
       </c>
-      <c r="C5" s="70" t="s">
+      <c r="C5" s="71" t="s">
         <v>149</v>
       </c>
-      <c r="D5" s="70">
+      <c r="D5" s="71">
         <v>3</v>
       </c>
-      <c r="E5" s="73" t="s">
+      <c r="E5" s="74" t="s">
         <v>153</v>
       </c>
       <c r="F5" s="20" t="s">
@@ -5267,11 +5360,11 @@
       </c>
     </row>
     <row r="6" spans="1:7" ht="21" x14ac:dyDescent="0.2">
-      <c r="A6" s="68"/>
-      <c r="B6" s="71"/>
-      <c r="C6" s="71"/>
-      <c r="D6" s="71"/>
-      <c r="E6" s="74"/>
+      <c r="A6" s="69"/>
+      <c r="B6" s="72"/>
+      <c r="C6" s="72"/>
+      <c r="D6" s="72"/>
+      <c r="E6" s="75"/>
       <c r="F6" s="20" t="s">
         <v>155</v>
       </c>
@@ -5280,11 +5373,11 @@
       </c>
     </row>
     <row r="7" spans="1:7" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A7" s="69"/>
-      <c r="B7" s="72"/>
-      <c r="C7" s="72"/>
-      <c r="D7" s="72"/>
-      <c r="E7" s="75"/>
+      <c r="A7" s="70"/>
+      <c r="B7" s="73"/>
+      <c r="C7" s="73"/>
+      <c r="D7" s="73"/>
+      <c r="E7" s="76"/>
       <c r="F7" s="20" t="s">
         <v>156</v>
       </c>
@@ -5293,19 +5386,19 @@
       </c>
     </row>
     <row r="8" spans="1:7" ht="40.5" x14ac:dyDescent="0.2">
-      <c r="A8" s="95" t="s">
-        <v>68</v>
-      </c>
-      <c r="B8" s="96" t="s">
+      <c r="A8" s="91" t="s">
+        <v>68</v>
+      </c>
+      <c r="B8" s="92" t="s">
         <v>159</v>
       </c>
-      <c r="C8" s="96" t="s">
+      <c r="C8" s="92" t="s">
         <v>149</v>
       </c>
-      <c r="D8" s="96">
+      <c r="D8" s="92">
         <v>4</v>
       </c>
-      <c r="E8" s="97" t="s">
+      <c r="E8" s="93" t="s">
         <v>160</v>
       </c>
       <c r="F8" s="20" t="s">
@@ -5316,11 +5409,11 @@
       </c>
     </row>
     <row r="9" spans="1:7" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A9" s="95"/>
-      <c r="B9" s="96"/>
-      <c r="C9" s="96"/>
-      <c r="D9" s="96"/>
-      <c r="E9" s="97"/>
+      <c r="A9" s="91"/>
+      <c r="B9" s="92"/>
+      <c r="C9" s="92"/>
+      <c r="D9" s="92"/>
+      <c r="E9" s="93"/>
       <c r="F9" s="20" t="s">
         <v>162</v>
       </c>
@@ -5421,19 +5514,19 @@
       </c>
     </row>
     <row r="14" spans="1:7" ht="40.5" x14ac:dyDescent="0.2">
-      <c r="A14" s="95" t="s">
-        <v>68</v>
-      </c>
-      <c r="B14" s="96" t="s">
+      <c r="A14" s="91" t="s">
+        <v>68</v>
+      </c>
+      <c r="B14" s="92" t="s">
         <v>69</v>
       </c>
-      <c r="C14" s="96" t="s">
+      <c r="C14" s="92" t="s">
         <v>149</v>
       </c>
-      <c r="D14" s="96">
+      <c r="D14" s="92">
         <v>4</v>
       </c>
-      <c r="E14" s="97" t="s">
+      <c r="E14" s="93" t="s">
         <v>181</v>
       </c>
       <c r="F14" s="20" t="s">
@@ -5444,11 +5537,11 @@
       </c>
     </row>
     <row r="15" spans="1:7" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A15" s="95"/>
-      <c r="B15" s="96"/>
-      <c r="C15" s="96"/>
-      <c r="D15" s="96"/>
-      <c r="E15" s="97"/>
+      <c r="A15" s="91"/>
+      <c r="B15" s="92"/>
+      <c r="C15" s="92"/>
+      <c r="D15" s="92"/>
+      <c r="E15" s="93"/>
       <c r="F15" s="20" t="s">
         <v>183</v>
       </c>
@@ -5480,19 +5573,19 @@
       </c>
     </row>
     <row r="17" spans="1:7" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A17" s="95" t="s">
+      <c r="A17" s="91" t="s">
         <v>190</v>
       </c>
-      <c r="B17" s="96" t="s">
+      <c r="B17" s="92" t="s">
         <v>191</v>
       </c>
-      <c r="C17" s="96" t="s">
+      <c r="C17" s="92" t="s">
         <v>149</v>
       </c>
-      <c r="D17" s="96">
+      <c r="D17" s="92">
         <v>4</v>
       </c>
-      <c r="E17" s="97" t="s">
+      <c r="E17" s="93" t="s">
         <v>196</v>
       </c>
       <c r="F17" s="20" t="s">
@@ -5503,11 +5596,11 @@
       </c>
     </row>
     <row r="18" spans="1:7" ht="40.5" x14ac:dyDescent="0.2">
-      <c r="A18" s="95"/>
-      <c r="B18" s="96"/>
-      <c r="C18" s="96"/>
-      <c r="D18" s="96"/>
-      <c r="E18" s="97"/>
+      <c r="A18" s="91"/>
+      <c r="B18" s="92"/>
+      <c r="C18" s="92"/>
+      <c r="D18" s="92"/>
+      <c r="E18" s="93"/>
       <c r="F18" s="20" t="s">
         <v>193</v>
       </c>
@@ -5517,31 +5610,31 @@
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="C5:C7"/>
+    <mergeCell ref="D5:D7"/>
+    <mergeCell ref="E5:E7"/>
     <mergeCell ref="A2:A4"/>
     <mergeCell ref="B2:B4"/>
     <mergeCell ref="C2:C4"/>
     <mergeCell ref="D2:D4"/>
     <mergeCell ref="E2:E4"/>
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="C5:C7"/>
-    <mergeCell ref="D5:D7"/>
-    <mergeCell ref="E5:E7"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="E14:E15"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5589,19 +5682,19 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="21" x14ac:dyDescent="0.2">
-      <c r="A2" s="86" t="s">
-        <v>68</v>
-      </c>
-      <c r="B2" s="89" t="s">
+      <c r="A2" s="53" t="s">
+        <v>68</v>
+      </c>
+      <c r="B2" s="56" t="s">
         <v>199</v>
       </c>
-      <c r="C2" s="89" t="s">
+      <c r="C2" s="56" t="s">
         <v>200</v>
       </c>
-      <c r="D2" s="89">
+      <c r="D2" s="56">
         <v>4</v>
       </c>
-      <c r="E2" s="92" t="s">
+      <c r="E2" s="59" t="s">
         <v>201</v>
       </c>
       <c r="F2" s="26" t="s">
@@ -5612,11 +5705,11 @@
       </c>
     </row>
     <row r="3" spans="1:7" ht="60.75" x14ac:dyDescent="0.2">
-      <c r="A3" s="87"/>
-      <c r="B3" s="90"/>
-      <c r="C3" s="90"/>
-      <c r="D3" s="90"/>
-      <c r="E3" s="93"/>
+      <c r="A3" s="54"/>
+      <c r="B3" s="57"/>
+      <c r="C3" s="57"/>
+      <c r="D3" s="57"/>
+      <c r="E3" s="60"/>
       <c r="F3" s="26" t="s">
         <v>203</v>
       </c>
@@ -5625,11 +5718,11 @@
       </c>
     </row>
     <row r="4" spans="1:7" ht="42" x14ac:dyDescent="0.2">
-      <c r="A4" s="88"/>
-      <c r="B4" s="91"/>
-      <c r="C4" s="91"/>
-      <c r="D4" s="91"/>
-      <c r="E4" s="94"/>
+      <c r="A4" s="55"/>
+      <c r="B4" s="58"/>
+      <c r="C4" s="58"/>
+      <c r="D4" s="58"/>
+      <c r="E4" s="61"/>
       <c r="F4" s="26" t="s">
         <v>204</v>
       </c>
@@ -5638,19 +5731,19 @@
       </c>
     </row>
     <row r="5" spans="1:7" ht="41.25" x14ac:dyDescent="0.2">
-      <c r="A5" s="86" t="s">
-        <v>68</v>
-      </c>
-      <c r="B5" s="89" t="s">
+      <c r="A5" s="53" t="s">
+        <v>68</v>
+      </c>
+      <c r="B5" s="56" t="s">
         <v>208</v>
       </c>
-      <c r="C5" s="89" t="s">
+      <c r="C5" s="56" t="s">
         <v>200</v>
       </c>
-      <c r="D5" s="89">
+      <c r="D5" s="56">
         <v>4</v>
       </c>
-      <c r="E5" s="92" t="s">
+      <c r="E5" s="59" t="s">
         <v>209</v>
       </c>
       <c r="F5" s="26" t="s">
@@ -5661,11 +5754,11 @@
       </c>
     </row>
     <row r="6" spans="1:7" ht="40.5" x14ac:dyDescent="0.2">
-      <c r="A6" s="87"/>
-      <c r="B6" s="90"/>
-      <c r="C6" s="90"/>
-      <c r="D6" s="90"/>
-      <c r="E6" s="93"/>
+      <c r="A6" s="54"/>
+      <c r="B6" s="57"/>
+      <c r="C6" s="57"/>
+      <c r="D6" s="57"/>
+      <c r="E6" s="60"/>
       <c r="F6" s="26" t="s">
         <v>211</v>
       </c>
@@ -5674,11 +5767,11 @@
       </c>
     </row>
     <row r="7" spans="1:7" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A7" s="87"/>
-      <c r="B7" s="90"/>
-      <c r="C7" s="90"/>
-      <c r="D7" s="90"/>
-      <c r="E7" s="93"/>
+      <c r="A7" s="54"/>
+      <c r="B7" s="57"/>
+      <c r="C7" s="57"/>
+      <c r="D7" s="57"/>
+      <c r="E7" s="60"/>
       <c r="F7" s="26" t="s">
         <v>212</v>
       </c>
@@ -5687,11 +5780,11 @@
       </c>
     </row>
     <row r="8" spans="1:7" ht="40.5" x14ac:dyDescent="0.2">
-      <c r="A8" s="88"/>
-      <c r="B8" s="91"/>
-      <c r="C8" s="91"/>
-      <c r="D8" s="91"/>
-      <c r="E8" s="94"/>
+      <c r="A8" s="55"/>
+      <c r="B8" s="58"/>
+      <c r="C8" s="58"/>
+      <c r="D8" s="58"/>
+      <c r="E8" s="61"/>
       <c r="F8" s="44" t="s">
         <v>216</v>
       </c>
@@ -5700,19 +5793,19 @@
       </c>
     </row>
     <row r="9" spans="1:7" ht="21" x14ac:dyDescent="0.2">
-      <c r="A9" s="83" t="s">
-        <v>68</v>
-      </c>
-      <c r="B9" s="84" t="s">
+      <c r="A9" s="62" t="s">
+        <v>68</v>
+      </c>
+      <c r="B9" s="63" t="s">
         <v>218</v>
       </c>
-      <c r="C9" s="84" t="s">
+      <c r="C9" s="63" t="s">
         <v>200</v>
       </c>
-      <c r="D9" s="84">
+      <c r="D9" s="63">
         <v>4</v>
       </c>
-      <c r="E9" s="85" t="s">
+      <c r="E9" s="64" t="s">
         <v>219</v>
       </c>
       <c r="F9" s="26" t="s">
@@ -5723,11 +5816,11 @@
       </c>
     </row>
     <row r="10" spans="1:7" ht="41.25" x14ac:dyDescent="0.2">
-      <c r="A10" s="83"/>
-      <c r="B10" s="84"/>
-      <c r="C10" s="84"/>
-      <c r="D10" s="84"/>
-      <c r="E10" s="85"/>
+      <c r="A10" s="62"/>
+      <c r="B10" s="63"/>
+      <c r="C10" s="63"/>
+      <c r="D10" s="63"/>
+      <c r="E10" s="64"/>
       <c r="F10" s="26" t="s">
         <v>221</v>
       </c>
@@ -5736,19 +5829,19 @@
       </c>
     </row>
     <row r="11" spans="1:7" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A11" s="83" t="s">
-        <v>68</v>
-      </c>
-      <c r="B11" s="84" t="s">
+      <c r="A11" s="62" t="s">
+        <v>68</v>
+      </c>
+      <c r="B11" s="63" t="s">
         <v>224</v>
       </c>
-      <c r="C11" s="84" t="s">
+      <c r="C11" s="63" t="s">
         <v>200</v>
       </c>
-      <c r="D11" s="84">
+      <c r="D11" s="63">
         <v>4</v>
       </c>
-      <c r="E11" s="85" t="s">
+      <c r="E11" s="64" t="s">
         <v>225</v>
       </c>
       <c r="F11" s="26" t="s">
@@ -5759,11 +5852,11 @@
       </c>
     </row>
     <row r="12" spans="1:7" ht="21" x14ac:dyDescent="0.2">
-      <c r="A12" s="83"/>
-      <c r="B12" s="84"/>
-      <c r="C12" s="84"/>
-      <c r="D12" s="84"/>
-      <c r="E12" s="85"/>
+      <c r="A12" s="62"/>
+      <c r="B12" s="63"/>
+      <c r="C12" s="63"/>
+      <c r="D12" s="63"/>
+      <c r="E12" s="64"/>
       <c r="F12" s="26" t="s">
         <v>227</v>
       </c>
@@ -5772,11 +5865,11 @@
       </c>
     </row>
     <row r="13" spans="1:7" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A13" s="83"/>
-      <c r="B13" s="84"/>
-      <c r="C13" s="84"/>
-      <c r="D13" s="84"/>
-      <c r="E13" s="85"/>
+      <c r="A13" s="62"/>
+      <c r="B13" s="63"/>
+      <c r="C13" s="63"/>
+      <c r="D13" s="63"/>
+      <c r="E13" s="64"/>
       <c r="F13" s="44" t="s">
         <v>216</v>
       </c>
@@ -5785,11 +5878,11 @@
       </c>
     </row>
     <row r="14" spans="1:7" ht="40.5" x14ac:dyDescent="0.2">
-      <c r="A14" s="83"/>
-      <c r="B14" s="84"/>
-      <c r="C14" s="84"/>
-      <c r="D14" s="84"/>
-      <c r="E14" s="85"/>
+      <c r="A14" s="62"/>
+      <c r="B14" s="63"/>
+      <c r="C14" s="63"/>
+      <c r="D14" s="63"/>
+      <c r="E14" s="64"/>
       <c r="F14" s="44" t="s">
         <v>216</v>
       </c>
@@ -5798,19 +5891,19 @@
       </c>
     </row>
     <row r="15" spans="1:7" ht="40.5" x14ac:dyDescent="0.2">
-      <c r="A15" s="83" t="s">
-        <v>68</v>
-      </c>
-      <c r="B15" s="84" t="s">
+      <c r="A15" s="62" t="s">
+        <v>68</v>
+      </c>
+      <c r="B15" s="63" t="s">
         <v>232</v>
       </c>
-      <c r="C15" s="84" t="s">
+      <c r="C15" s="63" t="s">
         <v>200</v>
       </c>
-      <c r="D15" s="84">
+      <c r="D15" s="63">
         <v>4</v>
       </c>
-      <c r="E15" s="85" t="s">
+      <c r="E15" s="64" t="s">
         <v>233</v>
       </c>
       <c r="F15" s="26" t="s">
@@ -5821,11 +5914,11 @@
       </c>
     </row>
     <row r="16" spans="1:7" ht="41.25" x14ac:dyDescent="0.2">
-      <c r="A16" s="83"/>
-      <c r="B16" s="84"/>
-      <c r="C16" s="84"/>
-      <c r="D16" s="84"/>
-      <c r="E16" s="85"/>
+      <c r="A16" s="62"/>
+      <c r="B16" s="63"/>
+      <c r="C16" s="63"/>
+      <c r="D16" s="63"/>
+      <c r="E16" s="64"/>
       <c r="F16" s="26" t="s">
         <v>235</v>
       </c>
@@ -5834,19 +5927,19 @@
       </c>
     </row>
     <row r="17" spans="1:7" ht="60.75" x14ac:dyDescent="0.2">
-      <c r="A17" s="86" t="s">
-        <v>68</v>
-      </c>
-      <c r="B17" s="89" t="s">
+      <c r="A17" s="53" t="s">
+        <v>68</v>
+      </c>
+      <c r="B17" s="56" t="s">
         <v>238</v>
       </c>
-      <c r="C17" s="89" t="s">
+      <c r="C17" s="56" t="s">
         <v>200</v>
       </c>
-      <c r="D17" s="89">
+      <c r="D17" s="56">
         <v>3</v>
       </c>
-      <c r="E17" s="92" t="s">
+      <c r="E17" s="59" t="s">
         <v>239</v>
       </c>
       <c r="F17" s="26" t="s">
@@ -5857,11 +5950,11 @@
       </c>
     </row>
     <row r="18" spans="1:7" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A18" s="87"/>
-      <c r="B18" s="90"/>
-      <c r="C18" s="90"/>
-      <c r="D18" s="90"/>
-      <c r="E18" s="93"/>
+      <c r="A18" s="54"/>
+      <c r="B18" s="57"/>
+      <c r="C18" s="57"/>
+      <c r="D18" s="57"/>
+      <c r="E18" s="60"/>
       <c r="F18" s="26" t="s">
         <v>241</v>
       </c>
@@ -5870,11 +5963,11 @@
       </c>
     </row>
     <row r="19" spans="1:7" ht="40.5" x14ac:dyDescent="0.2">
-      <c r="A19" s="88"/>
-      <c r="B19" s="91"/>
-      <c r="C19" s="91"/>
-      <c r="D19" s="91"/>
-      <c r="E19" s="94"/>
+      <c r="A19" s="55"/>
+      <c r="B19" s="58"/>
+      <c r="C19" s="58"/>
+      <c r="D19" s="58"/>
+      <c r="E19" s="61"/>
       <c r="F19" s="26" t="s">
         <v>242</v>
       </c>
@@ -5883,19 +5976,19 @@
       </c>
     </row>
     <row r="20" spans="1:7" ht="21" x14ac:dyDescent="0.2">
-      <c r="A20" s="83" t="s">
-        <v>68</v>
-      </c>
-      <c r="B20" s="84" t="s">
+      <c r="A20" s="62" t="s">
+        <v>68</v>
+      </c>
+      <c r="B20" s="63" t="s">
         <v>246</v>
       </c>
-      <c r="C20" s="84" t="s">
+      <c r="C20" s="63" t="s">
         <v>200</v>
       </c>
-      <c r="D20" s="84">
+      <c r="D20" s="63">
         <v>4</v>
       </c>
-      <c r="E20" s="85" t="s">
+      <c r="E20" s="64" t="s">
         <v>247</v>
       </c>
       <c r="F20" s="26" t="s">
@@ -5906,11 +5999,11 @@
       </c>
     </row>
     <row r="21" spans="1:7" ht="61.5" x14ac:dyDescent="0.2">
-      <c r="A21" s="83"/>
-      <c r="B21" s="84"/>
-      <c r="C21" s="84"/>
-      <c r="D21" s="84"/>
-      <c r="E21" s="85"/>
+      <c r="A21" s="62"/>
+      <c r="B21" s="63"/>
+      <c r="C21" s="63"/>
+      <c r="D21" s="63"/>
+      <c r="E21" s="64"/>
       <c r="F21" s="26" t="s">
         <v>249</v>
       </c>
@@ -5919,19 +6012,19 @@
       </c>
     </row>
     <row r="22" spans="1:7" ht="21" x14ac:dyDescent="0.2">
-      <c r="A22" s="83" t="s">
-        <v>68</v>
-      </c>
-      <c r="B22" s="84" t="s">
+      <c r="A22" s="62" t="s">
+        <v>68</v>
+      </c>
+      <c r="B22" s="63" t="s">
         <v>252</v>
       </c>
-      <c r="C22" s="84" t="s">
+      <c r="C22" s="63" t="s">
         <v>200</v>
       </c>
-      <c r="D22" s="84">
+      <c r="D22" s="63">
         <v>5</v>
       </c>
-      <c r="E22" s="85" t="s">
+      <c r="E22" s="64" t="s">
         <v>253</v>
       </c>
       <c r="F22" s="26" t="s">
@@ -5942,11 +6035,11 @@
       </c>
     </row>
     <row r="23" spans="1:7" ht="21" x14ac:dyDescent="0.2">
-      <c r="A23" s="83"/>
-      <c r="B23" s="84"/>
-      <c r="C23" s="84"/>
-      <c r="D23" s="84"/>
-      <c r="E23" s="85"/>
+      <c r="A23" s="62"/>
+      <c r="B23" s="63"/>
+      <c r="C23" s="63"/>
+      <c r="D23" s="63"/>
+      <c r="E23" s="64"/>
       <c r="F23" s="26" t="s">
         <v>255</v>
       </c>
@@ -5955,19 +6048,19 @@
       </c>
     </row>
     <row r="24" spans="1:7" ht="61.5" x14ac:dyDescent="0.2">
-      <c r="A24" s="86" t="s">
-        <v>68</v>
-      </c>
-      <c r="B24" s="89" t="s">
+      <c r="A24" s="53" t="s">
+        <v>68</v>
+      </c>
+      <c r="B24" s="56" t="s">
         <v>258</v>
       </c>
-      <c r="C24" s="89" t="s">
+      <c r="C24" s="56" t="s">
         <v>200</v>
       </c>
-      <c r="D24" s="89">
+      <c r="D24" s="56">
         <v>3</v>
       </c>
-      <c r="E24" s="92" t="s">
+      <c r="E24" s="59" t="s">
         <v>259</v>
       </c>
       <c r="F24" s="26" t="s">
@@ -5978,11 +6071,11 @@
       </c>
     </row>
     <row r="25" spans="1:7" ht="40.5" x14ac:dyDescent="0.2">
-      <c r="A25" s="87"/>
-      <c r="B25" s="90"/>
-      <c r="C25" s="90"/>
-      <c r="D25" s="90"/>
-      <c r="E25" s="93"/>
+      <c r="A25" s="54"/>
+      <c r="B25" s="57"/>
+      <c r="C25" s="57"/>
+      <c r="D25" s="57"/>
+      <c r="E25" s="60"/>
       <c r="F25" s="26" t="s">
         <v>261</v>
       </c>
@@ -5991,11 +6084,11 @@
       </c>
     </row>
     <row r="26" spans="1:7" ht="21" x14ac:dyDescent="0.2">
-      <c r="A26" s="88"/>
-      <c r="B26" s="91"/>
-      <c r="C26" s="91"/>
-      <c r="D26" s="91"/>
-      <c r="E26" s="94"/>
+      <c r="A26" s="55"/>
+      <c r="B26" s="58"/>
+      <c r="C26" s="58"/>
+      <c r="D26" s="58"/>
+      <c r="E26" s="61"/>
       <c r="F26" s="26" t="s">
         <v>262</v>
       </c>
@@ -6050,19 +6143,19 @@
       </c>
     </row>
     <row r="29" spans="1:7" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A29" s="83" t="s">
-        <v>68</v>
-      </c>
-      <c r="B29" s="84" t="s">
+      <c r="A29" s="62" t="s">
+        <v>68</v>
+      </c>
+      <c r="B29" s="63" t="s">
         <v>274</v>
       </c>
-      <c r="C29" s="84" t="s">
+      <c r="C29" s="63" t="s">
         <v>200</v>
       </c>
-      <c r="D29" s="84">
+      <c r="D29" s="63">
         <v>4</v>
       </c>
-      <c r="E29" s="85" t="s">
+      <c r="E29" s="64" t="s">
         <v>68</v>
       </c>
       <c r="F29" s="26" t="s">
@@ -6073,11 +6166,11 @@
       </c>
     </row>
     <row r="30" spans="1:7" ht="40.5" x14ac:dyDescent="0.2">
-      <c r="A30" s="83"/>
-      <c r="B30" s="84"/>
-      <c r="C30" s="84"/>
-      <c r="D30" s="84"/>
-      <c r="E30" s="85"/>
+      <c r="A30" s="62"/>
+      <c r="B30" s="63"/>
+      <c r="C30" s="63"/>
+      <c r="D30" s="63"/>
+      <c r="E30" s="64"/>
       <c r="F30" s="26" t="s">
         <v>276</v>
       </c>
@@ -6086,19 +6179,19 @@
       </c>
     </row>
     <row r="31" spans="1:7" ht="40.5" x14ac:dyDescent="0.2">
-      <c r="A31" s="83" t="s">
-        <v>68</v>
-      </c>
-      <c r="B31" s="84" t="s">
+      <c r="A31" s="62" t="s">
+        <v>68</v>
+      </c>
+      <c r="B31" s="63" t="s">
         <v>279</v>
       </c>
-      <c r="C31" s="84" t="s">
+      <c r="C31" s="63" t="s">
         <v>200</v>
       </c>
-      <c r="D31" s="84">
+      <c r="D31" s="63">
         <v>5</v>
       </c>
-      <c r="E31" s="85" t="s">
+      <c r="E31" s="64" t="s">
         <v>280</v>
       </c>
       <c r="F31" s="26" t="s">
@@ -6109,11 +6202,11 @@
       </c>
     </row>
     <row r="32" spans="1:7" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A32" s="83"/>
-      <c r="B32" s="84"/>
-      <c r="C32" s="84"/>
-      <c r="D32" s="84"/>
-      <c r="E32" s="85"/>
+      <c r="A32" s="62"/>
+      <c r="B32" s="63"/>
+      <c r="C32" s="63"/>
+      <c r="D32" s="63"/>
+      <c r="E32" s="64"/>
       <c r="F32" s="26" t="s">
         <v>254</v>
       </c>
@@ -6122,19 +6215,19 @@
       </c>
     </row>
     <row r="33" spans="1:7" ht="40.5" x14ac:dyDescent="0.2">
-      <c r="A33" s="83" t="s">
-        <v>68</v>
-      </c>
-      <c r="B33" s="84" t="s">
+      <c r="A33" s="62" t="s">
+        <v>68</v>
+      </c>
+      <c r="B33" s="63" t="s">
         <v>284</v>
       </c>
-      <c r="C33" s="84" t="s">
+      <c r="C33" s="63" t="s">
         <v>200</v>
       </c>
-      <c r="D33" s="84">
+      <c r="D33" s="63">
         <v>4</v>
       </c>
-      <c r="E33" s="85" t="s">
+      <c r="E33" s="64" t="s">
         <v>68</v>
       </c>
       <c r="F33" s="26" t="s">
@@ -6145,11 +6238,11 @@
       </c>
     </row>
     <row r="34" spans="1:7" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A34" s="83"/>
-      <c r="B34" s="84"/>
-      <c r="C34" s="84"/>
-      <c r="D34" s="84"/>
-      <c r="E34" s="85"/>
+      <c r="A34" s="62"/>
+      <c r="B34" s="63"/>
+      <c r="C34" s="63"/>
+      <c r="D34" s="63"/>
+      <c r="E34" s="64"/>
       <c r="F34" s="26" t="s">
         <v>286</v>
       </c>
@@ -6159,66 +6252,66 @@
     </row>
   </sheetData>
   <mergeCells count="60">
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="C33:C34"/>
+    <mergeCell ref="D33:D34"/>
+    <mergeCell ref="E33:E34"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="A24:A26"/>
+    <mergeCell ref="B24:B26"/>
+    <mergeCell ref="C24:C26"/>
+    <mergeCell ref="D24:D26"/>
+    <mergeCell ref="E24:E26"/>
+    <mergeCell ref="A17:A19"/>
+    <mergeCell ref="B17:B19"/>
+    <mergeCell ref="C17:C19"/>
+    <mergeCell ref="D17:D19"/>
+    <mergeCell ref="E17:E19"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="A11:A14"/>
+    <mergeCell ref="B11:B14"/>
+    <mergeCell ref="C11:C14"/>
+    <mergeCell ref="D11:D14"/>
+    <mergeCell ref="E11:E14"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="A5:A8"/>
+    <mergeCell ref="B5:B8"/>
+    <mergeCell ref="C5:C8"/>
+    <mergeCell ref="D5:D8"/>
+    <mergeCell ref="E5:E8"/>
     <mergeCell ref="A2:A4"/>
     <mergeCell ref="B2:B4"/>
     <mergeCell ref="C2:C4"/>
     <mergeCell ref="D2:D4"/>
     <mergeCell ref="E2:E4"/>
-    <mergeCell ref="A5:A8"/>
-    <mergeCell ref="B5:B8"/>
-    <mergeCell ref="C5:C8"/>
-    <mergeCell ref="D5:D8"/>
-    <mergeCell ref="E5:E8"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="A11:A14"/>
-    <mergeCell ref="B11:B14"/>
-    <mergeCell ref="C11:C14"/>
-    <mergeCell ref="D11:D14"/>
-    <mergeCell ref="E11:E14"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="A17:A19"/>
-    <mergeCell ref="B17:B19"/>
-    <mergeCell ref="C17:C19"/>
-    <mergeCell ref="D17:D19"/>
-    <mergeCell ref="E17:E19"/>
-    <mergeCell ref="A24:A26"/>
-    <mergeCell ref="B24:B26"/>
-    <mergeCell ref="C24:C26"/>
-    <mergeCell ref="D24:D26"/>
-    <mergeCell ref="E24:E26"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="D29:D30"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="C33:C34"/>
-    <mergeCell ref="D33:D34"/>
-    <mergeCell ref="E33:E34"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="C31:C32"/>
-    <mergeCell ref="D31:D32"/>
-    <mergeCell ref="E31:E32"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6266,300 +6359,300 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="60.75" x14ac:dyDescent="0.2">
-      <c r="A2" s="102" t="s">
-        <v>68</v>
-      </c>
-      <c r="B2" s="102" t="s">
+      <c r="A2" s="98" t="s">
+        <v>68</v>
+      </c>
+      <c r="B2" s="98" t="s">
         <v>146</v>
       </c>
-      <c r="C2" s="102" t="s">
+      <c r="C2" s="98" t="s">
         <v>378</v>
       </c>
-      <c r="D2" s="103">
+      <c r="D2" s="99">
         <v>3</v>
       </c>
-      <c r="E2" s="104" t="s">
+      <c r="E2" s="102" t="s">
         <v>386</v>
       </c>
-      <c r="F2" s="105" t="s">
+      <c r="F2" s="49" t="s">
         <v>379</v>
       </c>
-      <c r="G2" s="106" t="s">
+      <c r="G2" s="50" t="s">
         <v>383</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A3" s="102"/>
-      <c r="B3" s="102"/>
-      <c r="C3" s="102"/>
-      <c r="D3" s="107"/>
-      <c r="E3" s="104"/>
-      <c r="F3" s="105" t="s">
+      <c r="A3" s="98"/>
+      <c r="B3" s="98"/>
+      <c r="C3" s="98"/>
+      <c r="D3" s="100"/>
+      <c r="E3" s="102"/>
+      <c r="F3" s="49" t="s">
         <v>380</v>
       </c>
-      <c r="G3" s="106" t="s">
+      <c r="G3" s="50" t="s">
         <v>382</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="21" x14ac:dyDescent="0.2">
-      <c r="A4" s="102"/>
-      <c r="B4" s="102"/>
-      <c r="C4" s="102"/>
-      <c r="D4" s="108"/>
-      <c r="E4" s="104"/>
-      <c r="F4" s="105" t="s">
+      <c r="A4" s="98"/>
+      <c r="B4" s="98"/>
+      <c r="C4" s="98"/>
+      <c r="D4" s="101"/>
+      <c r="E4" s="102"/>
+      <c r="F4" s="49" t="s">
         <v>381</v>
       </c>
-      <c r="G4" s="106" t="s">
+      <c r="G4" s="50" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A5" s="102" t="s">
-        <v>68</v>
-      </c>
-      <c r="B5" s="102" t="s">
+      <c r="A5" s="98" t="s">
+        <v>68</v>
+      </c>
+      <c r="B5" s="98" t="s">
         <v>385</v>
       </c>
-      <c r="C5" s="102" t="s">
+      <c r="C5" s="98" t="s">
         <v>378</v>
       </c>
-      <c r="D5" s="103">
+      <c r="D5" s="99">
         <v>3</v>
       </c>
-      <c r="E5" s="104" t="s">
+      <c r="E5" s="102" t="s">
         <v>387</v>
       </c>
-      <c r="F5" s="105" t="s">
+      <c r="F5" s="49" t="s">
         <v>389</v>
       </c>
-      <c r="G5" s="106" t="s">
+      <c r="G5" s="50" t="s">
         <v>388</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A6" s="102"/>
-      <c r="B6" s="102"/>
-      <c r="C6" s="102"/>
-      <c r="D6" s="107"/>
-      <c r="E6" s="104"/>
-      <c r="F6" s="105" t="s">
+      <c r="A6" s="98"/>
+      <c r="B6" s="98"/>
+      <c r="C6" s="98"/>
+      <c r="D6" s="100"/>
+      <c r="E6" s="102"/>
+      <c r="F6" s="49" t="s">
         <v>393</v>
       </c>
-      <c r="G6" s="106" t="s">
+      <c r="G6" s="50" t="s">
         <v>392</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A7" s="102"/>
-      <c r="B7" s="102"/>
-      <c r="C7" s="102"/>
-      <c r="D7" s="107"/>
-      <c r="E7" s="104"/>
-      <c r="F7" s="105" t="s">
+      <c r="A7" s="98"/>
+      <c r="B7" s="98"/>
+      <c r="C7" s="98"/>
+      <c r="D7" s="100"/>
+      <c r="E7" s="102"/>
+      <c r="F7" s="49" t="s">
         <v>390</v>
       </c>
-      <c r="G7" s="106" t="s">
+      <c r="G7" s="50" t="s">
         <v>394</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A8" s="102"/>
-      <c r="B8" s="102"/>
-      <c r="C8" s="102"/>
-      <c r="D8" s="108"/>
-      <c r="E8" s="104"/>
-      <c r="F8" s="105" t="s">
+      <c r="A8" s="98"/>
+      <c r="B8" s="98"/>
+      <c r="C8" s="98"/>
+      <c r="D8" s="101"/>
+      <c r="E8" s="102"/>
+      <c r="F8" s="49" t="s">
         <v>391</v>
       </c>
-      <c r="G8" s="106" t="s">
+      <c r="G8" s="50" t="s">
         <v>395</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A9" s="102" t="s">
-        <v>68</v>
-      </c>
-      <c r="B9" s="102" t="s">
+      <c r="A9" s="98" t="s">
+        <v>68</v>
+      </c>
+      <c r="B9" s="98" t="s">
         <v>397</v>
       </c>
-      <c r="C9" s="102" t="s">
+      <c r="C9" s="98" t="s">
         <v>378</v>
       </c>
-      <c r="D9" s="103">
+      <c r="D9" s="99">
         <v>3</v>
       </c>
-      <c r="E9" s="104" t="s">
+      <c r="E9" s="102" t="s">
         <v>396</v>
       </c>
-      <c r="F9" s="105" t="s">
+      <c r="F9" s="49" t="s">
         <v>398</v>
       </c>
-      <c r="G9" s="106" t="s">
+      <c r="G9" s="50" t="s">
         <v>400</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A10" s="102"/>
-      <c r="B10" s="102"/>
-      <c r="C10" s="102"/>
-      <c r="D10" s="108"/>
-      <c r="E10" s="104"/>
-      <c r="F10" s="105" t="s">
+      <c r="A10" s="98"/>
+      <c r="B10" s="98"/>
+      <c r="C10" s="98"/>
+      <c r="D10" s="101"/>
+      <c r="E10" s="102"/>
+      <c r="F10" s="49" t="s">
         <v>399</v>
       </c>
-      <c r="G10" s="106" t="s">
+      <c r="G10" s="50" t="s">
         <v>401</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="40.5" x14ac:dyDescent="0.2">
-      <c r="A11" s="102" t="s">
-        <v>68</v>
-      </c>
-      <c r="B11" s="102" t="s">
+      <c r="A11" s="98" t="s">
+        <v>68</v>
+      </c>
+      <c r="B11" s="98" t="s">
         <v>402</v>
       </c>
-      <c r="C11" s="102" t="s">
+      <c r="C11" s="98" t="s">
         <v>378</v>
       </c>
-      <c r="D11" s="103">
+      <c r="D11" s="99">
         <v>3</v>
       </c>
-      <c r="E11" s="104" t="s">
+      <c r="E11" s="102" t="s">
         <v>403</v>
       </c>
-      <c r="F11" s="105" t="s">
+      <c r="F11" s="49" t="s">
         <v>404</v>
       </c>
-      <c r="G11" s="106" t="s">
+      <c r="G11" s="50" t="s">
         <v>407</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="21" x14ac:dyDescent="0.2">
-      <c r="A12" s="102"/>
-      <c r="B12" s="102"/>
-      <c r="C12" s="102"/>
-      <c r="D12" s="107"/>
-      <c r="E12" s="104"/>
-      <c r="F12" s="105" t="s">
+      <c r="A12" s="98"/>
+      <c r="B12" s="98"/>
+      <c r="C12" s="98"/>
+      <c r="D12" s="100"/>
+      <c r="E12" s="102"/>
+      <c r="F12" s="49" t="s">
         <v>405</v>
       </c>
-      <c r="G12" s="106" t="s">
+      <c r="G12" s="50" t="s">
         <v>408</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="41.25" x14ac:dyDescent="0.2">
-      <c r="A13" s="102"/>
-      <c r="B13" s="102"/>
-      <c r="C13" s="102"/>
-      <c r="D13" s="108"/>
-      <c r="E13" s="104"/>
-      <c r="F13" s="105" t="s">
+      <c r="A13" s="98"/>
+      <c r="B13" s="98"/>
+      <c r="C13" s="98"/>
+      <c r="D13" s="101"/>
+      <c r="E13" s="102"/>
+      <c r="F13" s="49" t="s">
         <v>406</v>
       </c>
-      <c r="G13" s="106" t="s">
+      <c r="G13" s="50" t="s">
         <v>409</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="40.5" x14ac:dyDescent="0.2">
-      <c r="A14" s="102" t="s">
-        <v>68</v>
-      </c>
-      <c r="B14" s="102" t="s">
+      <c r="A14" s="98" t="s">
+        <v>68</v>
+      </c>
+      <c r="B14" s="98" t="s">
         <v>410</v>
       </c>
-      <c r="C14" s="102" t="s">
+      <c r="C14" s="98" t="s">
         <v>378</v>
       </c>
-      <c r="D14" s="103">
+      <c r="D14" s="99">
         <v>3</v>
       </c>
-      <c r="E14" s="104" t="s">
+      <c r="E14" s="102" t="s">
         <v>414</v>
       </c>
-      <c r="F14" s="105" t="s">
+      <c r="F14" s="49" t="s">
         <v>411</v>
       </c>
-      <c r="G14" s="106" t="s">
+      <c r="G14" s="50" t="s">
         <v>415</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="40.5" x14ac:dyDescent="0.2">
-      <c r="A15" s="102"/>
-      <c r="B15" s="102"/>
-      <c r="C15" s="102"/>
-      <c r="D15" s="107"/>
-      <c r="E15" s="104"/>
-      <c r="F15" s="105" t="s">
+      <c r="A15" s="98"/>
+      <c r="B15" s="98"/>
+      <c r="C15" s="98"/>
+      <c r="D15" s="100"/>
+      <c r="E15" s="102"/>
+      <c r="F15" s="49" t="s">
         <v>412</v>
       </c>
-      <c r="G15" s="106" t="s">
+      <c r="G15" s="50" t="s">
         <v>417</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A16" s="102"/>
-      <c r="B16" s="102"/>
-      <c r="C16" s="102"/>
-      <c r="D16" s="108"/>
-      <c r="E16" s="104"/>
-      <c r="F16" s="105" t="s">
+      <c r="A16" s="98"/>
+      <c r="B16" s="98"/>
+      <c r="C16" s="98"/>
+      <c r="D16" s="101"/>
+      <c r="E16" s="102"/>
+      <c r="F16" s="49" t="s">
         <v>413</v>
       </c>
-      <c r="G16" s="106" t="s">
+      <c r="G16" s="50" t="s">
         <v>416</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="21" x14ac:dyDescent="0.2">
-      <c r="A17" s="102" t="s">
-        <v>68</v>
-      </c>
-      <c r="B17" s="102" t="s">
+      <c r="A17" s="98" t="s">
+        <v>68</v>
+      </c>
+      <c r="B17" s="98" t="s">
         <v>418</v>
       </c>
-      <c r="C17" s="102" t="s">
+      <c r="C17" s="98" t="s">
         <v>378</v>
       </c>
-      <c r="D17" s="103">
+      <c r="D17" s="99">
         <v>4</v>
       </c>
-      <c r="E17" s="104" t="s">
+      <c r="E17" s="102" t="s">
         <v>419</v>
       </c>
-      <c r="F17" s="105" t="s">
+      <c r="F17" s="49" t="s">
         <v>420</v>
       </c>
-      <c r="G17" s="106" t="s">
+      <c r="G17" s="50" t="s">
         <v>421</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="21" x14ac:dyDescent="0.2">
-      <c r="A18" s="102"/>
-      <c r="B18" s="102"/>
-      <c r="C18" s="102"/>
-      <c r="D18" s="108"/>
-      <c r="E18" s="104"/>
-      <c r="F18" s="105" t="s">
+      <c r="A18" s="98"/>
+      <c r="B18" s="98"/>
+      <c r="C18" s="98"/>
+      <c r="D18" s="101"/>
+      <c r="E18" s="102"/>
+      <c r="F18" s="49" t="s">
         <v>423</v>
       </c>
-      <c r="G18" s="106" t="s">
+      <c r="G18" s="50" t="s">
         <v>422</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="40.5" x14ac:dyDescent="0.2">
-      <c r="A19" s="50" t="s">
-        <v>68</v>
-      </c>
-      <c r="B19" s="50" t="s">
+      <c r="A19" s="94" t="s">
+        <v>68</v>
+      </c>
+      <c r="B19" s="94" t="s">
         <v>424</v>
       </c>
-      <c r="C19" s="50" t="s">
+      <c r="C19" s="94" t="s">
         <v>8</v>
       </c>
-      <c r="D19" s="51">
+      <c r="D19" s="95">
         <v>3</v>
       </c>
-      <c r="E19" s="53" t="s">
+      <c r="E19" s="97" t="s">
         <v>427</v>
       </c>
       <c r="F19" s="37" t="s">
@@ -6570,11 +6663,11 @@
       </c>
     </row>
     <row r="20" spans="1:7" ht="40.5" x14ac:dyDescent="0.2">
-      <c r="A20" s="50"/>
-      <c r="B20" s="50"/>
-      <c r="C20" s="50"/>
-      <c r="D20" s="52"/>
-      <c r="E20" s="53"/>
+      <c r="A20" s="94"/>
+      <c r="B20" s="94"/>
+      <c r="C20" s="94"/>
+      <c r="D20" s="96"/>
+      <c r="E20" s="97"/>
       <c r="F20" s="37" t="s">
         <v>426</v>
       </c>
@@ -6607,41 +6700,41 @@
     </row>
   </sheetData>
   <mergeCells count="35">
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="C2:C4"/>
+    <mergeCell ref="D2:D4"/>
+    <mergeCell ref="E2:E4"/>
+    <mergeCell ref="A5:A8"/>
+    <mergeCell ref="B5:B8"/>
+    <mergeCell ref="C5:C8"/>
+    <mergeCell ref="D5:D8"/>
+    <mergeCell ref="E5:E8"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="C11:C13"/>
+    <mergeCell ref="D11:D13"/>
+    <mergeCell ref="E11:E13"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="A14:A16"/>
+    <mergeCell ref="B14:B16"/>
+    <mergeCell ref="C14:C16"/>
+    <mergeCell ref="D14:D16"/>
+    <mergeCell ref="E14:E16"/>
     <mergeCell ref="A19:A20"/>
     <mergeCell ref="B19:B20"/>
     <mergeCell ref="C19:C20"/>
     <mergeCell ref="D19:D20"/>
     <mergeCell ref="E19:E20"/>
-    <mergeCell ref="A14:A16"/>
-    <mergeCell ref="B14:B16"/>
-    <mergeCell ref="C14:C16"/>
-    <mergeCell ref="D14:D16"/>
-    <mergeCell ref="E14:E16"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="A11:A13"/>
-    <mergeCell ref="B11:B13"/>
-    <mergeCell ref="C11:C13"/>
-    <mergeCell ref="D11:D13"/>
-    <mergeCell ref="E11:E13"/>
-    <mergeCell ref="A5:A8"/>
-    <mergeCell ref="B5:B8"/>
-    <mergeCell ref="C5:C8"/>
-    <mergeCell ref="D5:D8"/>
-    <mergeCell ref="E5:E8"/>
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="C2:C4"/>
-    <mergeCell ref="D2:D4"/>
-    <mergeCell ref="E2:E4"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6689,202 +6782,202 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A2" s="102" t="s">
-        <v>68</v>
-      </c>
-      <c r="B2" s="102" t="s">
+      <c r="A2" s="98" t="s">
+        <v>68</v>
+      </c>
+      <c r="B2" s="98" t="s">
         <v>433</v>
       </c>
-      <c r="C2" s="102" t="s">
+      <c r="C2" s="98" t="s">
         <v>138</v>
       </c>
-      <c r="D2" s="103">
+      <c r="D2" s="99">
         <v>3</v>
       </c>
-      <c r="E2" s="104" t="s">
+      <c r="E2" s="102" t="s">
         <v>436</v>
       </c>
-      <c r="F2" s="105" t="s">
+      <c r="F2" s="49" t="s">
         <v>434</v>
       </c>
-      <c r="G2" s="106" t="s">
+      <c r="G2" s="50" t="s">
         <v>437</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="40.5" x14ac:dyDescent="0.2">
-      <c r="A3" s="102"/>
-      <c r="B3" s="102"/>
-      <c r="C3" s="102"/>
-      <c r="D3" s="107"/>
-      <c r="E3" s="104"/>
-      <c r="F3" s="105" t="s">
+      <c r="A3" s="98"/>
+      <c r="B3" s="98"/>
+      <c r="C3" s="98"/>
+      <c r="D3" s="100"/>
+      <c r="E3" s="102"/>
+      <c r="F3" s="49" t="s">
         <v>349</v>
       </c>
-      <c r="G3" s="106" t="s">
+      <c r="G3" s="50" t="s">
         <v>438</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="40.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="102"/>
-      <c r="B4" s="102"/>
-      <c r="C4" s="102"/>
-      <c r="D4" s="108"/>
-      <c r="E4" s="104"/>
-      <c r="F4" s="105" t="s">
+      <c r="A4" s="98"/>
+      <c r="B4" s="98"/>
+      <c r="C4" s="98"/>
+      <c r="D4" s="101"/>
+      <c r="E4" s="102"/>
+      <c r="F4" s="49" t="s">
         <v>435</v>
       </c>
-      <c r="G4" s="106" t="s">
+      <c r="G4" s="50" t="s">
         <v>439</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A5" s="102" t="s">
-        <v>68</v>
-      </c>
-      <c r="B5" s="102" t="s">
+      <c r="A5" s="98" t="s">
+        <v>68</v>
+      </c>
+      <c r="B5" s="98" t="s">
         <v>441</v>
       </c>
-      <c r="C5" s="102" t="s">
+      <c r="C5" s="98" t="s">
         <v>138</v>
       </c>
-      <c r="D5" s="103">
+      <c r="D5" s="99">
         <v>3</v>
       </c>
-      <c r="E5" s="104" t="s">
+      <c r="E5" s="102" t="s">
         <v>440</v>
       </c>
-      <c r="F5" s="105" t="s">
+      <c r="F5" s="49" t="s">
         <v>442</v>
       </c>
-      <c r="G5" s="106" t="s">
+      <c r="G5" s="50" t="s">
         <v>444</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="60.75" x14ac:dyDescent="0.2">
-      <c r="A6" s="102"/>
-      <c r="B6" s="102"/>
-      <c r="C6" s="102"/>
-      <c r="D6" s="107"/>
-      <c r="E6" s="104"/>
-      <c r="F6" s="105" t="s">
+      <c r="A6" s="98"/>
+      <c r="B6" s="98"/>
+      <c r="C6" s="98"/>
+      <c r="D6" s="100"/>
+      <c r="E6" s="102"/>
+      <c r="F6" s="49" t="s">
         <v>443</v>
       </c>
-      <c r="G6" s="106" t="s">
+      <c r="G6" s="50" t="s">
         <v>445</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="60.75" x14ac:dyDescent="0.2">
-      <c r="A7" s="102" t="s">
-        <v>68</v>
-      </c>
-      <c r="B7" s="102" t="s">
+      <c r="A7" s="98" t="s">
+        <v>68</v>
+      </c>
+      <c r="B7" s="98" t="s">
         <v>446</v>
       </c>
-      <c r="C7" s="102" t="s">
+      <c r="C7" s="98" t="s">
         <v>138</v>
       </c>
-      <c r="D7" s="103">
+      <c r="D7" s="99">
         <v>3</v>
       </c>
-      <c r="E7" s="104" t="s">
+      <c r="E7" s="102" t="s">
         <v>447</v>
       </c>
-      <c r="F7" s="105" t="s">
+      <c r="F7" s="49" t="s">
         <v>448</v>
       </c>
-      <c r="G7" s="106" t="s">
+      <c r="G7" s="50" t="s">
         <v>451</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A8" s="102"/>
-      <c r="B8" s="102"/>
-      <c r="C8" s="102"/>
-      <c r="D8" s="107"/>
-      <c r="E8" s="104"/>
-      <c r="F8" s="105" t="s">
+      <c r="A8" s="98"/>
+      <c r="B8" s="98"/>
+      <c r="C8" s="98"/>
+      <c r="D8" s="100"/>
+      <c r="E8" s="102"/>
+      <c r="F8" s="49" t="s">
         <v>449</v>
       </c>
-      <c r="G8" s="106" t="s">
+      <c r="G8" s="50" t="s">
         <v>452</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A9" s="102"/>
-      <c r="B9" s="102"/>
-      <c r="C9" s="102"/>
-      <c r="D9" s="108"/>
-      <c r="E9" s="104"/>
-      <c r="F9" s="105" t="s">
+      <c r="A9" s="98"/>
+      <c r="B9" s="98"/>
+      <c r="C9" s="98"/>
+      <c r="D9" s="101"/>
+      <c r="E9" s="102"/>
+      <c r="F9" s="49" t="s">
         <v>450</v>
       </c>
-      <c r="G9" s="106" t="s">
+      <c r="G9" s="50" t="s">
         <v>453</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="40.5" x14ac:dyDescent="0.2">
-      <c r="A10" s="102" t="s">
-        <v>68</v>
-      </c>
-      <c r="B10" s="102" t="s">
+      <c r="A10" s="98" t="s">
+        <v>68</v>
+      </c>
+      <c r="B10" s="98" t="s">
         <v>50</v>
       </c>
-      <c r="C10" s="102" t="s">
+      <c r="C10" s="98" t="s">
         <v>138</v>
       </c>
-      <c r="D10" s="103">
+      <c r="D10" s="99">
         <v>3</v>
       </c>
-      <c r="E10" s="102" t="s">
+      <c r="E10" s="98" t="s">
         <v>454</v>
       </c>
-      <c r="F10" s="105" t="s">
+      <c r="F10" s="49" t="s">
         <v>455</v>
       </c>
-      <c r="G10" s="106" t="s">
+      <c r="G10" s="50" t="s">
         <v>458</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="40.5" x14ac:dyDescent="0.2">
-      <c r="A11" s="102"/>
-      <c r="B11" s="102"/>
-      <c r="C11" s="102"/>
-      <c r="D11" s="107"/>
-      <c r="E11" s="102"/>
-      <c r="F11" s="105" t="s">
+      <c r="A11" s="98"/>
+      <c r="B11" s="98"/>
+      <c r="C11" s="98"/>
+      <c r="D11" s="100"/>
+      <c r="E11" s="98"/>
+      <c r="F11" s="49" t="s">
         <v>456</v>
       </c>
-      <c r="G11" s="106" t="s">
+      <c r="G11" s="50" t="s">
         <v>459</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="40.5" x14ac:dyDescent="0.2">
-      <c r="A12" s="102"/>
-      <c r="B12" s="102"/>
-      <c r="C12" s="102"/>
-      <c r="D12" s="108"/>
-      <c r="E12" s="102"/>
-      <c r="F12" s="105" t="s">
+      <c r="A12" s="98"/>
+      <c r="B12" s="98"/>
+      <c r="C12" s="98"/>
+      <c r="D12" s="101"/>
+      <c r="E12" s="98"/>
+      <c r="F12" s="49" t="s">
         <v>457</v>
       </c>
-      <c r="G12" s="106" t="s">
+      <c r="G12" s="50" t="s">
         <v>460</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="40.5" x14ac:dyDescent="0.2">
-      <c r="A13" s="46" t="s">
-        <v>68</v>
-      </c>
-      <c r="B13" s="46" t="s">
+      <c r="A13" s="87" t="s">
+        <v>68</v>
+      </c>
+      <c r="B13" s="87" t="s">
         <v>461</v>
       </c>
-      <c r="C13" s="46" t="s">
+      <c r="C13" s="87" t="s">
         <v>7</v>
       </c>
-      <c r="D13" s="47">
+      <c r="D13" s="88">
         <v>4</v>
       </c>
-      <c r="E13" s="46" t="s">
+      <c r="E13" s="87" t="s">
         <v>462</v>
       </c>
       <c r="F13" s="34" t="s">
@@ -6895,11 +6988,11 @@
       </c>
     </row>
     <row r="14" spans="1:7" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A14" s="46"/>
-      <c r="B14" s="46"/>
-      <c r="C14" s="46"/>
-      <c r="D14" s="99"/>
-      <c r="E14" s="46"/>
+      <c r="A14" s="87"/>
+      <c r="B14" s="87"/>
+      <c r="C14" s="87"/>
+      <c r="D14" s="103"/>
+      <c r="E14" s="87"/>
       <c r="F14" s="34" t="s">
         <v>464</v>
       </c>
@@ -6908,11 +7001,11 @@
       </c>
     </row>
     <row r="15" spans="1:7" ht="21" x14ac:dyDescent="0.2">
-      <c r="A15" s="46"/>
-      <c r="B15" s="46"/>
-      <c r="C15" s="46"/>
-      <c r="D15" s="48"/>
-      <c r="E15" s="46"/>
+      <c r="A15" s="87"/>
+      <c r="B15" s="87"/>
+      <c r="C15" s="87"/>
+      <c r="D15" s="89"/>
+      <c r="E15" s="87"/>
       <c r="F15" s="34" t="s">
         <v>465</v>
       </c>
@@ -6944,19 +7037,19 @@
       </c>
     </row>
     <row r="17" spans="1:7" ht="41.25" x14ac:dyDescent="0.2">
-      <c r="A17" s="86" t="s">
-        <v>68</v>
-      </c>
-      <c r="B17" s="89" t="s">
+      <c r="A17" s="53" t="s">
+        <v>68</v>
+      </c>
+      <c r="B17" s="56" t="s">
         <v>137</v>
       </c>
-      <c r="C17" s="89" t="s">
+      <c r="C17" s="56" t="s">
         <v>138</v>
       </c>
-      <c r="D17" s="89">
+      <c r="D17" s="56">
         <v>3</v>
       </c>
-      <c r="E17" s="92" t="s">
+      <c r="E17" s="59" t="s">
         <v>145</v>
       </c>
       <c r="F17" s="40" t="s">
@@ -6967,11 +7060,11 @@
       </c>
     </row>
     <row r="18" spans="1:7" ht="40.5" x14ac:dyDescent="0.2">
-      <c r="A18" s="87"/>
-      <c r="B18" s="90"/>
-      <c r="C18" s="90"/>
-      <c r="D18" s="90"/>
-      <c r="E18" s="93"/>
+      <c r="A18" s="54"/>
+      <c r="B18" s="57"/>
+      <c r="C18" s="57"/>
+      <c r="D18" s="57"/>
+      <c r="E18" s="60"/>
       <c r="F18" s="40" t="s">
         <v>140</v>
       </c>
@@ -6980,11 +7073,11 @@
       </c>
     </row>
     <row r="19" spans="1:7" ht="21" x14ac:dyDescent="0.2">
-      <c r="A19" s="88"/>
-      <c r="B19" s="91"/>
-      <c r="C19" s="91"/>
-      <c r="D19" s="91"/>
-      <c r="E19" s="94"/>
+      <c r="A19" s="55"/>
+      <c r="B19" s="58"/>
+      <c r="C19" s="58"/>
+      <c r="D19" s="58"/>
+      <c r="E19" s="61"/>
       <c r="F19" s="40" t="s">
         <v>141</v>
       </c>
@@ -6994,36 +7087,36 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="C2:C4"/>
+    <mergeCell ref="D2:D4"/>
+    <mergeCell ref="E2:E4"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="B10:B12"/>
+    <mergeCell ref="C10:C12"/>
+    <mergeCell ref="D10:D12"/>
+    <mergeCell ref="E10:E12"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="C7:C9"/>
+    <mergeCell ref="D7:D9"/>
+    <mergeCell ref="E7:E9"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="B13:B15"/>
+    <mergeCell ref="C13:C15"/>
+    <mergeCell ref="D13:D15"/>
+    <mergeCell ref="E13:E15"/>
     <mergeCell ref="A17:A19"/>
     <mergeCell ref="B17:B19"/>
     <mergeCell ref="C17:C19"/>
     <mergeCell ref="D17:D19"/>
     <mergeCell ref="E17:E19"/>
-    <mergeCell ref="A13:A15"/>
-    <mergeCell ref="B13:B15"/>
-    <mergeCell ref="C13:C15"/>
-    <mergeCell ref="D13:D15"/>
-    <mergeCell ref="E13:E15"/>
-    <mergeCell ref="A7:A9"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="C7:C9"/>
-    <mergeCell ref="D7:D9"/>
-    <mergeCell ref="E7:E9"/>
-    <mergeCell ref="A10:A12"/>
-    <mergeCell ref="B10:B12"/>
-    <mergeCell ref="C10:C12"/>
-    <mergeCell ref="D10:D12"/>
-    <mergeCell ref="E10:E12"/>
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="C2:C4"/>
-    <mergeCell ref="D2:D4"/>
-    <mergeCell ref="E2:E4"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="E5:E6"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7071,254 +7164,254 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="40.5" x14ac:dyDescent="0.2">
-      <c r="A2" s="102" t="s">
-        <v>68</v>
-      </c>
-      <c r="B2" s="102" t="s">
+      <c r="A2" s="98" t="s">
+        <v>68</v>
+      </c>
+      <c r="B2" s="98" t="s">
         <v>474</v>
       </c>
-      <c r="C2" s="102" t="s">
+      <c r="C2" s="98" t="s">
         <v>475</v>
       </c>
-      <c r="D2" s="103">
+      <c r="D2" s="99">
         <v>4</v>
       </c>
-      <c r="E2" s="104" t="s">
+      <c r="E2" s="102" t="s">
         <v>479</v>
       </c>
-      <c r="F2" s="105" t="s">
+      <c r="F2" s="49" t="s">
         <v>476</v>
       </c>
-      <c r="G2" s="106" t="s">
+      <c r="G2" s="50" t="s">
         <v>478</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="21" x14ac:dyDescent="0.2">
-      <c r="A3" s="102"/>
-      <c r="B3" s="102"/>
-      <c r="C3" s="102"/>
-      <c r="D3" s="107"/>
-      <c r="E3" s="104"/>
-      <c r="F3" s="105" t="s">
+      <c r="A3" s="98"/>
+      <c r="B3" s="98"/>
+      <c r="C3" s="98"/>
+      <c r="D3" s="100"/>
+      <c r="E3" s="102"/>
+      <c r="F3" s="49" t="s">
         <v>477</v>
       </c>
-      <c r="G3" s="106" t="s">
+      <c r="G3" s="50" t="s">
         <v>487</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="40.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="102" t="s">
-        <v>68</v>
-      </c>
-      <c r="B4" s="102" t="s">
+      <c r="A4" s="98" t="s">
+        <v>68</v>
+      </c>
+      <c r="B4" s="98" t="s">
         <v>480</v>
       </c>
-      <c r="C4" s="102" t="s">
+      <c r="C4" s="98" t="s">
         <v>475</v>
       </c>
-      <c r="D4" s="103">
+      <c r="D4" s="99">
         <v>3</v>
       </c>
-      <c r="E4" s="104" t="s">
+      <c r="E4" s="102" t="s">
         <v>481</v>
       </c>
-      <c r="F4" s="105" t="s">
+      <c r="F4" s="49" t="s">
         <v>482</v>
       </c>
-      <c r="G4" s="106" t="s">
+      <c r="G4" s="50" t="s">
         <v>485</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A5" s="102"/>
-      <c r="B5" s="102"/>
-      <c r="C5" s="102"/>
-      <c r="D5" s="107"/>
-      <c r="E5" s="104"/>
-      <c r="F5" s="105" t="s">
+      <c r="A5" s="98"/>
+      <c r="B5" s="98"/>
+      <c r="C5" s="98"/>
+      <c r="D5" s="100"/>
+      <c r="E5" s="102"/>
+      <c r="F5" s="49" t="s">
         <v>483</v>
       </c>
-      <c r="G5" s="106" t="s">
+      <c r="G5" s="50" t="s">
         <v>486</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="21" x14ac:dyDescent="0.2">
-      <c r="A6" s="102"/>
-      <c r="B6" s="102"/>
-      <c r="C6" s="102"/>
-      <c r="D6" s="108"/>
-      <c r="E6" s="104"/>
-      <c r="F6" s="105" t="s">
+      <c r="A6" s="98"/>
+      <c r="B6" s="98"/>
+      <c r="C6" s="98"/>
+      <c r="D6" s="101"/>
+      <c r="E6" s="102"/>
+      <c r="F6" s="49" t="s">
         <v>484</v>
       </c>
-      <c r="G6" s="106" t="s">
+      <c r="G6" s="50" t="s">
         <v>488</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="40.5" x14ac:dyDescent="0.2">
-      <c r="A7" s="102" t="s">
-        <v>68</v>
-      </c>
-      <c r="B7" s="102" t="s">
+      <c r="A7" s="98" t="s">
+        <v>68</v>
+      </c>
+      <c r="B7" s="98" t="s">
         <v>490</v>
       </c>
-      <c r="C7" s="102" t="s">
+      <c r="C7" s="98" t="s">
         <v>475</v>
       </c>
-      <c r="D7" s="103">
+      <c r="D7" s="99">
         <v>3</v>
       </c>
-      <c r="E7" s="102" t="s">
+      <c r="E7" s="98" t="s">
         <v>489</v>
       </c>
-      <c r="F7" s="105" t="s">
+      <c r="F7" s="49" t="s">
         <v>491</v>
       </c>
-      <c r="G7" s="106" t="s">
+      <c r="G7" s="50" t="s">
         <v>493</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="21" x14ac:dyDescent="0.2">
-      <c r="A8" s="102"/>
-      <c r="B8" s="102"/>
-      <c r="C8" s="102"/>
-      <c r="D8" s="107"/>
-      <c r="E8" s="102"/>
-      <c r="F8" s="105" t="s">
+      <c r="A8" s="98"/>
+      <c r="B8" s="98"/>
+      <c r="C8" s="98"/>
+      <c r="D8" s="100"/>
+      <c r="E8" s="98"/>
+      <c r="F8" s="49" t="s">
         <v>492</v>
       </c>
-      <c r="G8" s="106" t="s">
+      <c r="G8" s="50" t="s">
         <v>499</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="41.25" x14ac:dyDescent="0.2">
-      <c r="A9" s="102" t="s">
-        <v>68</v>
-      </c>
-      <c r="B9" s="102" t="s">
+      <c r="A9" s="98" t="s">
+        <v>68</v>
+      </c>
+      <c r="B9" s="98" t="s">
         <v>494</v>
       </c>
-      <c r="C9" s="102" t="s">
+      <c r="C9" s="98" t="s">
         <v>475</v>
       </c>
-      <c r="D9" s="103">
+      <c r="D9" s="99">
         <v>4</v>
       </c>
-      <c r="E9" s="102" t="s">
+      <c r="E9" s="98" t="s">
         <v>495</v>
       </c>
-      <c r="F9" s="105" t="s">
+      <c r="F9" s="49" t="s">
         <v>496</v>
       </c>
-      <c r="G9" s="106" t="s">
+      <c r="G9" s="50" t="s">
         <v>500</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="40.5" x14ac:dyDescent="0.2">
-      <c r="A10" s="102"/>
-      <c r="B10" s="102"/>
-      <c r="C10" s="102"/>
-      <c r="D10" s="107"/>
-      <c r="E10" s="102"/>
-      <c r="F10" s="105" t="s">
+      <c r="A10" s="98"/>
+      <c r="B10" s="98"/>
+      <c r="C10" s="98"/>
+      <c r="D10" s="100"/>
+      <c r="E10" s="98"/>
+      <c r="F10" s="49" t="s">
         <v>497</v>
       </c>
-      <c r="G10" s="106" t="s">
+      <c r="G10" s="50" t="s">
         <v>498</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A11" s="102" t="s">
-        <v>68</v>
-      </c>
-      <c r="B11" s="102" t="s">
+      <c r="A11" s="98" t="s">
+        <v>68</v>
+      </c>
+      <c r="B11" s="98" t="s">
         <v>79</v>
       </c>
-      <c r="C11" s="102" t="s">
+      <c r="C11" s="98" t="s">
         <v>475</v>
       </c>
-      <c r="D11" s="103">
+      <c r="D11" s="99">
         <v>4</v>
       </c>
-      <c r="E11" s="102" t="s">
+      <c r="E11" s="98" t="s">
         <v>501</v>
       </c>
-      <c r="F11" s="105" t="s">
+      <c r="F11" s="49" t="s">
         <v>502</v>
       </c>
-      <c r="G11" s="106" t="s">
+      <c r="G11" s="50" t="s">
         <v>504</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="40.5" x14ac:dyDescent="0.2">
-      <c r="A12" s="102"/>
-      <c r="B12" s="102"/>
-      <c r="C12" s="102"/>
-      <c r="D12" s="107"/>
-      <c r="E12" s="102"/>
-      <c r="F12" s="105" t="s">
+      <c r="A12" s="98"/>
+      <c r="B12" s="98"/>
+      <c r="C12" s="98"/>
+      <c r="D12" s="100"/>
+      <c r="E12" s="98"/>
+      <c r="F12" s="49" t="s">
         <v>503</v>
       </c>
-      <c r="G12" s="106" t="s">
+      <c r="G12" s="50" t="s">
         <v>505</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A13" s="102" t="s">
-        <v>68</v>
-      </c>
-      <c r="B13" s="102" t="s">
+      <c r="A13" s="98" t="s">
+        <v>68</v>
+      </c>
+      <c r="B13" s="98" t="s">
         <v>506</v>
       </c>
-      <c r="C13" s="102" t="s">
+      <c r="C13" s="98" t="s">
         <v>475</v>
       </c>
-      <c r="D13" s="103">
+      <c r="D13" s="99">
         <v>4</v>
       </c>
-      <c r="E13" s="102" t="s">
+      <c r="E13" s="98" t="s">
         <v>507</v>
       </c>
-      <c r="F13" s="105" t="s">
+      <c r="F13" s="49" t="s">
         <v>508</v>
       </c>
-      <c r="G13" s="106" t="s">
+      <c r="G13" s="50" t="s">
         <v>509</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A14" s="102"/>
-      <c r="B14" s="102"/>
-      <c r="C14" s="102"/>
-      <c r="D14" s="107"/>
-      <c r="E14" s="102"/>
-      <c r="F14" s="105" t="s">
+      <c r="A14" s="98"/>
+      <c r="B14" s="98"/>
+      <c r="C14" s="98"/>
+      <c r="D14" s="100"/>
+      <c r="E14" s="98"/>
+      <c r="F14" s="49" t="s">
         <v>285</v>
       </c>
-      <c r="G14" s="106" t="s">
+      <c r="G14" s="50" t="s">
         <v>510</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="40.5" x14ac:dyDescent="0.2">
-      <c r="A15" s="109" t="s">
-        <v>68</v>
-      </c>
-      <c r="B15" s="109" t="s">
+      <c r="A15" s="51" t="s">
+        <v>68</v>
+      </c>
+      <c r="B15" s="51" t="s">
         <v>122</v>
       </c>
-      <c r="C15" s="109" t="s">
+      <c r="C15" s="51" t="s">
         <v>475</v>
       </c>
-      <c r="D15" s="109">
+      <c r="D15" s="51">
         <v>4</v>
       </c>
-      <c r="E15" s="109" t="s">
+      <c r="E15" s="51" t="s">
         <v>511</v>
       </c>
-      <c r="F15" s="105" t="s">
+      <c r="F15" s="49" t="s">
         <v>512</v>
       </c>
-      <c r="G15" s="106" t="s">
+      <c r="G15" s="50" t="s">
         <v>513</v>
       </c>
     </row>
@@ -7346,19 +7439,19 @@
       </c>
     </row>
     <row r="17" spans="1:7" ht="40.5" x14ac:dyDescent="0.2">
-      <c r="A17" s="96" t="s">
-        <v>68</v>
-      </c>
-      <c r="B17" s="96" t="s">
+      <c r="A17" s="92" t="s">
+        <v>68</v>
+      </c>
+      <c r="B17" s="92" t="s">
         <v>514</v>
       </c>
-      <c r="C17" s="96" t="s">
+      <c r="C17" s="92" t="s">
         <v>9</v>
       </c>
-      <c r="D17" s="96">
+      <c r="D17" s="92">
         <v>3</v>
       </c>
-      <c r="E17" s="96" t="s">
+      <c r="E17" s="92" t="s">
         <v>515</v>
       </c>
       <c r="F17" s="43" t="s">
@@ -7369,11 +7462,11 @@
       </c>
     </row>
     <row r="18" spans="1:7" ht="41.25" x14ac:dyDescent="0.2">
-      <c r="A18" s="96"/>
-      <c r="B18" s="96"/>
-      <c r="C18" s="96"/>
-      <c r="D18" s="96"/>
-      <c r="E18" s="96"/>
+      <c r="A18" s="92"/>
+      <c r="B18" s="92"/>
+      <c r="C18" s="92"/>
+      <c r="D18" s="92"/>
+      <c r="E18" s="92"/>
       <c r="F18" s="43" t="s">
         <v>517</v>
       </c>
@@ -7383,41 +7476,41 @@
     </row>
   </sheetData>
   <mergeCells count="35">
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="B4:B6"/>
+    <mergeCell ref="C4:C6"/>
+    <mergeCell ref="D4:D6"/>
+    <mergeCell ref="E4:E6"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="E11:E12"/>
     <mergeCell ref="A17:A18"/>
     <mergeCell ref="B17:B18"/>
     <mergeCell ref="C17:C18"/>
     <mergeCell ref="D17:D18"/>
     <mergeCell ref="E17:E18"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="A4:A6"/>
-    <mergeCell ref="B4:B6"/>
-    <mergeCell ref="C4:C6"/>
-    <mergeCell ref="D4:D6"/>
-    <mergeCell ref="E4:E6"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7465,212 +7558,212 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A2" s="102" t="s">
-        <v>68</v>
-      </c>
-      <c r="B2" s="102" t="s">
+      <c r="A2" s="98" t="s">
+        <v>68</v>
+      </c>
+      <c r="B2" s="98" t="s">
         <v>524</v>
       </c>
-      <c r="C2" s="102" t="s">
+      <c r="C2" s="98" t="s">
         <v>523</v>
       </c>
-      <c r="D2" s="103">
+      <c r="D2" s="99">
         <v>4</v>
       </c>
-      <c r="E2" s="104" t="s">
+      <c r="E2" s="102" t="s">
         <v>525</v>
       </c>
-      <c r="F2" s="105" t="s">
+      <c r="F2" s="49" t="s">
         <v>526</v>
       </c>
-      <c r="G2" s="106" t="s">
+      <c r="G2" s="50" t="s">
         <v>529</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="40.5" x14ac:dyDescent="0.2">
-      <c r="A3" s="102"/>
-      <c r="B3" s="102"/>
-      <c r="C3" s="102"/>
-      <c r="D3" s="107"/>
-      <c r="E3" s="104"/>
-      <c r="F3" s="105" t="s">
+      <c r="A3" s="98"/>
+      <c r="B3" s="98"/>
+      <c r="C3" s="98"/>
+      <c r="D3" s="100"/>
+      <c r="E3" s="102"/>
+      <c r="F3" s="49" t="s">
         <v>527</v>
       </c>
-      <c r="G3" s="106" t="s">
+      <c r="G3" s="50" t="s">
         <v>530</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A4" s="102"/>
-      <c r="B4" s="102"/>
-      <c r="C4" s="102"/>
-      <c r="D4" s="108"/>
-      <c r="E4" s="104"/>
-      <c r="F4" s="105" t="s">
+      <c r="A4" s="98"/>
+      <c r="B4" s="98"/>
+      <c r="C4" s="98"/>
+      <c r="D4" s="101"/>
+      <c r="E4" s="102"/>
+      <c r="F4" s="49" t="s">
         <v>528</v>
       </c>
-      <c r="G4" s="106" t="s">
+      <c r="G4" s="50" t="s">
         <v>531</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="40.5" x14ac:dyDescent="0.2">
-      <c r="A5" s="109" t="s">
-        <v>68</v>
-      </c>
-      <c r="B5" s="109" t="s">
+      <c r="A5" s="51" t="s">
+        <v>68</v>
+      </c>
+      <c r="B5" s="51" t="s">
         <v>39</v>
       </c>
-      <c r="C5" s="109" t="s">
+      <c r="C5" s="51" t="s">
         <v>523</v>
       </c>
-      <c r="D5" s="110">
+      <c r="D5" s="52">
         <v>4</v>
       </c>
-      <c r="E5" s="105" t="s">
+      <c r="E5" s="49" t="s">
         <v>532</v>
       </c>
-      <c r="F5" s="105" t="s">
+      <c r="F5" s="49" t="s">
         <v>533</v>
       </c>
-      <c r="G5" s="106" t="s">
+      <c r="G5" s="50" t="s">
         <v>534</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A6" s="102" t="s">
-        <v>68</v>
-      </c>
-      <c r="B6" s="102" t="s">
+      <c r="A6" s="98" t="s">
+        <v>68</v>
+      </c>
+      <c r="B6" s="98" t="s">
         <v>535</v>
       </c>
-      <c r="C6" s="102" t="s">
+      <c r="C6" s="98" t="s">
         <v>523</v>
       </c>
-      <c r="D6" s="103">
+      <c r="D6" s="99">
         <v>3</v>
       </c>
-      <c r="E6" s="104" t="s">
+      <c r="E6" s="102" t="s">
         <v>536</v>
       </c>
-      <c r="F6" s="105" t="s">
+      <c r="F6" s="49" t="s">
         <v>537</v>
       </c>
-      <c r="G6" s="106" t="s">
+      <c r="G6" s="50" t="s">
         <v>539</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="60.75" x14ac:dyDescent="0.2">
-      <c r="A7" s="102"/>
-      <c r="B7" s="102"/>
-      <c r="C7" s="102"/>
-      <c r="D7" s="107"/>
-      <c r="E7" s="104"/>
-      <c r="F7" s="105" t="s">
+      <c r="A7" s="98"/>
+      <c r="B7" s="98"/>
+      <c r="C7" s="98"/>
+      <c r="D7" s="100"/>
+      <c r="E7" s="102"/>
+      <c r="F7" s="49" t="s">
         <v>538</v>
       </c>
-      <c r="G7" s="106" t="s">
+      <c r="G7" s="50" t="s">
         <v>540</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="60.75" x14ac:dyDescent="0.2">
-      <c r="A8" s="102" t="s">
-        <v>68</v>
-      </c>
-      <c r="B8" s="102" t="s">
+      <c r="A8" s="98" t="s">
+        <v>68</v>
+      </c>
+      <c r="B8" s="98" t="s">
         <v>541</v>
       </c>
-      <c r="C8" s="102" t="s">
+      <c r="C8" s="98" t="s">
         <v>523</v>
       </c>
-      <c r="D8" s="103">
+      <c r="D8" s="99">
         <v>4</v>
       </c>
-      <c r="E8" s="104" t="s">
+      <c r="E8" s="102" t="s">
         <v>542</v>
       </c>
-      <c r="F8" s="105" t="s">
+      <c r="F8" s="49" t="s">
         <v>543</v>
       </c>
-      <c r="G8" s="106" t="s">
+      <c r="G8" s="50" t="s">
         <v>548</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A9" s="102"/>
-      <c r="B9" s="102"/>
-      <c r="C9" s="102"/>
-      <c r="D9" s="107"/>
-      <c r="E9" s="104"/>
-      <c r="F9" s="105" t="s">
+      <c r="A9" s="98"/>
+      <c r="B9" s="98"/>
+      <c r="C9" s="98"/>
+      <c r="D9" s="100"/>
+      <c r="E9" s="102"/>
+      <c r="F9" s="49" t="s">
         <v>544</v>
       </c>
-      <c r="G9" s="106" t="s">
+      <c r="G9" s="50" t="s">
         <v>547</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A10" s="102"/>
-      <c r="B10" s="102"/>
-      <c r="C10" s="102"/>
-      <c r="D10" s="108"/>
-      <c r="E10" s="104"/>
-      <c r="F10" s="105" t="s">
+      <c r="A10" s="98"/>
+      <c r="B10" s="98"/>
+      <c r="C10" s="98"/>
+      <c r="D10" s="101"/>
+      <c r="E10" s="102"/>
+      <c r="F10" s="49" t="s">
         <v>545</v>
       </c>
-      <c r="G10" s="106" t="s">
+      <c r="G10" s="50" t="s">
         <v>546</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="40.5" x14ac:dyDescent="0.2">
-      <c r="A11" s="102" t="s">
-        <v>68</v>
-      </c>
-      <c r="B11" s="102" t="s">
+      <c r="A11" s="98" t="s">
+        <v>68</v>
+      </c>
+      <c r="B11" s="98" t="s">
         <v>549</v>
       </c>
-      <c r="C11" s="102" t="s">
+      <c r="C11" s="98" t="s">
         <v>523</v>
       </c>
-      <c r="D11" s="103">
+      <c r="D11" s="99">
         <v>3</v>
       </c>
-      <c r="E11" s="104" t="s">
+      <c r="E11" s="102" t="s">
         <v>550</v>
       </c>
-      <c r="F11" s="105" t="s">
+      <c r="F11" s="49" t="s">
         <v>551</v>
       </c>
-      <c r="G11" s="106" t="s">
+      <c r="G11" s="50" t="s">
         <v>553</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="40.5" x14ac:dyDescent="0.2">
-      <c r="A12" s="102"/>
-      <c r="B12" s="102"/>
-      <c r="C12" s="102"/>
-      <c r="D12" s="107"/>
-      <c r="E12" s="104"/>
-      <c r="F12" s="105" t="s">
+      <c r="A12" s="98"/>
+      <c r="B12" s="98"/>
+      <c r="C12" s="98"/>
+      <c r="D12" s="100"/>
+      <c r="E12" s="102"/>
+      <c r="F12" s="49" t="s">
         <v>552</v>
       </c>
-      <c r="G12" s="106" t="s">
+      <c r="G12" s="50" t="s">
         <v>554</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A13" s="54" t="s">
-        <v>68</v>
-      </c>
-      <c r="B13" s="54" t="s">
+      <c r="A13" s="66" t="s">
+        <v>68</v>
+      </c>
+      <c r="B13" s="66" t="s">
         <v>555</v>
       </c>
-      <c r="C13" s="54" t="s">
+      <c r="C13" s="66" t="s">
         <v>10</v>
       </c>
-      <c r="D13" s="55">
+      <c r="D13" s="80">
         <v>4</v>
       </c>
-      <c r="E13" s="58" t="s">
+      <c r="E13" s="67" t="s">
         <v>556</v>
       </c>
       <c r="F13" s="31" t="s">
@@ -7681,11 +7774,11 @@
       </c>
     </row>
     <row r="14" spans="1:7" ht="40.5" x14ac:dyDescent="0.2">
-      <c r="A14" s="54"/>
-      <c r="B14" s="54"/>
-      <c r="C14" s="54"/>
-      <c r="D14" s="56"/>
-      <c r="E14" s="58"/>
+      <c r="A14" s="66"/>
+      <c r="B14" s="66"/>
+      <c r="C14" s="66"/>
+      <c r="D14" s="81"/>
+      <c r="E14" s="67"/>
       <c r="F14" s="31" t="s">
         <v>558</v>
       </c>
@@ -7718,31 +7811,31 @@
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="C2:C4"/>
+    <mergeCell ref="D2:D4"/>
+    <mergeCell ref="E2:E4"/>
+    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="C8:C10"/>
+    <mergeCell ref="D8:D10"/>
+    <mergeCell ref="E8:E10"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="E13:E14"/>
     <mergeCell ref="A11:A12"/>
     <mergeCell ref="B11:B12"/>
     <mergeCell ref="C11:C12"/>
     <mergeCell ref="D11:D12"/>
     <mergeCell ref="E11:E12"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="A8:A10"/>
-    <mergeCell ref="B8:B10"/>
-    <mergeCell ref="C8:C10"/>
-    <mergeCell ref="D8:D10"/>
-    <mergeCell ref="E8:E10"/>
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="C2:C4"/>
-    <mergeCell ref="D2:D4"/>
-    <mergeCell ref="E2:E4"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7753,7 +7846,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD08E1EE-B863-47DF-8B69-6DA101296CB5}">
   <dimension ref="A1:G44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+    <sheetView topLeftCell="A37" workbookViewId="0">
       <selection activeCell="G48" sqref="G48"/>
     </sheetView>
   </sheetViews>
@@ -7790,19 +7883,19 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A2" s="46" t="s">
-        <v>68</v>
-      </c>
-      <c r="B2" s="46" t="s">
+      <c r="A2" s="87" t="s">
+        <v>68</v>
+      </c>
+      <c r="B2" s="87" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="46" t="s">
+      <c r="C2" s="87" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="47">
+      <c r="D2" s="88">
         <v>3</v>
       </c>
-      <c r="E2" s="49" t="s">
+      <c r="E2" s="90" t="s">
         <v>564</v>
       </c>
       <c r="F2" s="34" t="s">
@@ -7813,11 +7906,11 @@
       </c>
     </row>
     <row r="3" spans="1:7" ht="40.5" x14ac:dyDescent="0.2">
-      <c r="A3" s="46"/>
-      <c r="B3" s="46"/>
-      <c r="C3" s="46"/>
-      <c r="D3" s="48"/>
-      <c r="E3" s="49"/>
+      <c r="A3" s="87"/>
+      <c r="B3" s="87"/>
+      <c r="C3" s="87"/>
+      <c r="D3" s="89"/>
+      <c r="E3" s="90"/>
       <c r="F3" s="34" t="s">
         <v>566</v>
       </c>
@@ -7849,19 +7942,19 @@
       </c>
     </row>
     <row r="5" spans="1:7" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A5" s="46" t="s">
-        <v>68</v>
-      </c>
-      <c r="B5" s="46" t="s">
+      <c r="A5" s="87" t="s">
+        <v>68</v>
+      </c>
+      <c r="B5" s="87" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="46" t="s">
+      <c r="C5" s="87" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="47">
+      <c r="D5" s="88">
         <v>4</v>
       </c>
-      <c r="E5" s="49" t="s">
+      <c r="E5" s="90" t="s">
         <v>572</v>
       </c>
       <c r="F5" s="34" t="s">
@@ -7872,11 +7965,11 @@
       </c>
     </row>
     <row r="6" spans="1:7" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A6" s="46"/>
-      <c r="B6" s="46"/>
-      <c r="C6" s="46"/>
-      <c r="D6" s="48"/>
-      <c r="E6" s="49"/>
+      <c r="A6" s="87"/>
+      <c r="B6" s="87"/>
+      <c r="C6" s="87"/>
+      <c r="D6" s="89"/>
+      <c r="E6" s="90"/>
       <c r="F6" s="34" t="s">
         <v>573</v>
       </c>
@@ -7885,19 +7978,19 @@
       </c>
     </row>
     <row r="7" spans="1:7" ht="60.75" x14ac:dyDescent="0.2">
-      <c r="A7" s="46" t="s">
+      <c r="A7" s="87" t="s">
         <v>216</v>
       </c>
-      <c r="B7" s="46" t="s">
+      <c r="B7" s="87" t="s">
         <v>574</v>
       </c>
-      <c r="C7" s="46" t="s">
+      <c r="C7" s="87" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="47">
+      <c r="D7" s="88">
         <v>4</v>
       </c>
-      <c r="E7" s="49" t="s">
+      <c r="E7" s="90" t="s">
         <v>575</v>
       </c>
       <c r="F7" s="34" t="s">
@@ -7908,11 +8001,11 @@
       </c>
     </row>
     <row r="8" spans="1:7" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A8" s="46"/>
-      <c r="B8" s="46"/>
-      <c r="C8" s="46"/>
-      <c r="D8" s="48"/>
-      <c r="E8" s="49"/>
+      <c r="A8" s="87"/>
+      <c r="B8" s="87"/>
+      <c r="C8" s="87"/>
+      <c r="D8" s="89"/>
+      <c r="E8" s="90"/>
       <c r="F8" s="34" t="s">
         <v>577</v>
       </c>
@@ -7921,19 +8014,19 @@
       </c>
     </row>
     <row r="9" spans="1:7" ht="60.75" x14ac:dyDescent="0.2">
-      <c r="A9" s="50" t="s">
-        <v>68</v>
-      </c>
-      <c r="B9" s="50" t="s">
+      <c r="A9" s="94" t="s">
+        <v>68</v>
+      </c>
+      <c r="B9" s="94" t="s">
         <v>579</v>
       </c>
-      <c r="C9" s="50" t="s">
+      <c r="C9" s="94" t="s">
         <v>8</v>
       </c>
-      <c r="D9" s="51">
+      <c r="D9" s="95">
         <v>4</v>
       </c>
-      <c r="E9" s="53" t="s">
+      <c r="E9" s="97" t="s">
         <v>580</v>
       </c>
       <c r="F9" s="37" t="s">
@@ -7943,12 +8036,12 @@
         <v>583</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="60.75" x14ac:dyDescent="0.2">
-      <c r="A10" s="50"/>
-      <c r="B10" s="50"/>
-      <c r="C10" s="50"/>
-      <c r="D10" s="52"/>
-      <c r="E10" s="53"/>
+    <row r="10" spans="1:7" ht="40.5" x14ac:dyDescent="0.2">
+      <c r="A10" s="94"/>
+      <c r="B10" s="94"/>
+      <c r="C10" s="94"/>
+      <c r="D10" s="96"/>
+      <c r="E10" s="97"/>
       <c r="F10" s="37" t="s">
         <v>582</v>
       </c>
@@ -7980,19 +8073,19 @@
       </c>
     </row>
     <row r="12" spans="1:7" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A12" s="50" t="s">
-        <v>68</v>
-      </c>
-      <c r="B12" s="50" t="s">
+      <c r="A12" s="94" t="s">
+        <v>68</v>
+      </c>
+      <c r="B12" s="94" t="s">
         <v>589</v>
       </c>
-      <c r="C12" s="50" t="s">
+      <c r="C12" s="94" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="51">
+      <c r="D12" s="95">
         <v>3</v>
       </c>
-      <c r="E12" s="53" t="s">
+      <c r="E12" s="97" t="s">
         <v>590</v>
       </c>
       <c r="F12" s="37" t="s">
@@ -8003,11 +8096,11 @@
       </c>
     </row>
     <row r="13" spans="1:7" ht="60.75" x14ac:dyDescent="0.2">
-      <c r="A13" s="50"/>
-      <c r="B13" s="50"/>
-      <c r="C13" s="50"/>
-      <c r="D13" s="52"/>
-      <c r="E13" s="53"/>
+      <c r="A13" s="94"/>
+      <c r="B13" s="94"/>
+      <c r="C13" s="94"/>
+      <c r="D13" s="96"/>
+      <c r="E13" s="97"/>
       <c r="F13" s="37" t="s">
         <v>593</v>
       </c>
@@ -8016,19 +8109,19 @@
       </c>
     </row>
     <row r="14" spans="1:7" ht="40.5" x14ac:dyDescent="0.2">
-      <c r="A14" s="50" t="s">
+      <c r="A14" s="94" t="s">
         <v>216</v>
       </c>
-      <c r="B14" s="50" t="s">
+      <c r="B14" s="94" t="s">
         <v>595</v>
       </c>
-      <c r="C14" s="50" t="s">
+      <c r="C14" s="94" t="s">
         <v>8</v>
       </c>
-      <c r="D14" s="51">
+      <c r="D14" s="95">
         <v>3</v>
       </c>
-      <c r="E14" s="53" t="s">
+      <c r="E14" s="97" t="s">
         <v>596</v>
       </c>
       <c r="F14" s="37" t="s">
@@ -8039,11 +8132,11 @@
       </c>
     </row>
     <row r="15" spans="1:7" ht="40.5" x14ac:dyDescent="0.2">
-      <c r="A15" s="50"/>
-      <c r="B15" s="50"/>
-      <c r="C15" s="50"/>
-      <c r="D15" s="98"/>
-      <c r="E15" s="53"/>
+      <c r="A15" s="94"/>
+      <c r="B15" s="94"/>
+      <c r="C15" s="94"/>
+      <c r="D15" s="104"/>
+      <c r="E15" s="97"/>
       <c r="F15" s="37" t="s">
         <v>598</v>
       </c>
@@ -8052,11 +8145,11 @@
       </c>
     </row>
     <row r="16" spans="1:7" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A16" s="50"/>
-      <c r="B16" s="50"/>
-      <c r="C16" s="50"/>
-      <c r="D16" s="52"/>
-      <c r="E16" s="53"/>
+      <c r="A16" s="94"/>
+      <c r="B16" s="94"/>
+      <c r="C16" s="94"/>
+      <c r="D16" s="96"/>
+      <c r="E16" s="97"/>
       <c r="F16" s="37" t="s">
         <v>599</v>
       </c>
@@ -8064,7 +8157,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="101.25" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" ht="81" x14ac:dyDescent="0.2">
       <c r="A17" s="29" t="s">
         <v>68</v>
       </c>
@@ -8088,19 +8181,19 @@
       </c>
     </row>
     <row r="18" spans="1:7" ht="40.5" x14ac:dyDescent="0.2">
-      <c r="A18" s="54" t="s">
-        <v>68</v>
-      </c>
-      <c r="B18" s="54" t="s">
+      <c r="A18" s="66" t="s">
+        <v>68</v>
+      </c>
+      <c r="B18" s="66" t="s">
         <v>606</v>
       </c>
-      <c r="C18" s="54" t="s">
+      <c r="C18" s="66" t="s">
         <v>10</v>
       </c>
-      <c r="D18" s="55">
+      <c r="D18" s="80">
         <v>4</v>
       </c>
-      <c r="E18" s="58" t="s">
+      <c r="E18" s="67" t="s">
         <v>607</v>
       </c>
       <c r="F18" s="31" t="s">
@@ -8111,11 +8204,11 @@
       </c>
     </row>
     <row r="19" spans="1:7" ht="40.5" x14ac:dyDescent="0.2">
-      <c r="A19" s="54"/>
-      <c r="B19" s="54"/>
-      <c r="C19" s="54"/>
-      <c r="D19" s="56"/>
-      <c r="E19" s="58"/>
+      <c r="A19" s="66"/>
+      <c r="B19" s="66"/>
+      <c r="C19" s="66"/>
+      <c r="D19" s="81"/>
+      <c r="E19" s="67"/>
       <c r="F19" s="31" t="s">
         <v>609</v>
       </c>
@@ -8123,20 +8216,20 @@
         <v>611</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="121.5" x14ac:dyDescent="0.2">
-      <c r="A20" s="96" t="s">
-        <v>68</v>
-      </c>
-      <c r="B20" s="96" t="s">
+    <row r="20" spans="1:7" ht="101.25" x14ac:dyDescent="0.2">
+      <c r="A20" s="92" t="s">
+        <v>68</v>
+      </c>
+      <c r="B20" s="92" t="s">
         <v>294</v>
       </c>
-      <c r="C20" s="96" t="s">
+      <c r="C20" s="92" t="s">
         <v>9</v>
       </c>
-      <c r="D20" s="70">
+      <c r="D20" s="71">
         <v>4</v>
       </c>
-      <c r="E20" s="97" t="s">
+      <c r="E20" s="93" t="s">
         <v>612</v>
       </c>
       <c r="F20" s="43" t="s">
@@ -8147,11 +8240,11 @@
       </c>
     </row>
     <row r="21" spans="1:7" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A21" s="96"/>
-      <c r="B21" s="96"/>
-      <c r="C21" s="96"/>
-      <c r="D21" s="71"/>
-      <c r="E21" s="97"/>
+      <c r="A21" s="92"/>
+      <c r="B21" s="92"/>
+      <c r="C21" s="92"/>
+      <c r="D21" s="72"/>
+      <c r="E21" s="93"/>
       <c r="F21" s="43" t="s">
         <v>614</v>
       </c>
@@ -8160,11 +8253,11 @@
       </c>
     </row>
     <row r="22" spans="1:7" ht="40.5" x14ac:dyDescent="0.2">
-      <c r="A22" s="96"/>
-      <c r="B22" s="96"/>
-      <c r="C22" s="96"/>
-      <c r="D22" s="72"/>
-      <c r="E22" s="97"/>
+      <c r="A22" s="92"/>
+      <c r="B22" s="92"/>
+      <c r="C22" s="92"/>
+      <c r="D22" s="73"/>
+      <c r="E22" s="93"/>
       <c r="F22" s="43" t="s">
         <v>615</v>
       </c>
@@ -8173,19 +8266,19 @@
       </c>
     </row>
     <row r="23" spans="1:7" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A23" s="96" t="s">
-        <v>68</v>
-      </c>
-      <c r="B23" s="96" t="s">
+      <c r="A23" s="92" t="s">
+        <v>68</v>
+      </c>
+      <c r="B23" s="92" t="s">
         <v>618</v>
       </c>
-      <c r="C23" s="96" t="s">
+      <c r="C23" s="92" t="s">
         <v>9</v>
       </c>
-      <c r="D23" s="70">
+      <c r="D23" s="71">
         <v>4</v>
       </c>
-      <c r="E23" s="97" t="s">
+      <c r="E23" s="93" t="s">
         <v>619</v>
       </c>
       <c r="F23" s="43" t="s">
@@ -8196,11 +8289,11 @@
       </c>
     </row>
     <row r="24" spans="1:7" ht="60.75" x14ac:dyDescent="0.2">
-      <c r="A24" s="96"/>
-      <c r="B24" s="96"/>
-      <c r="C24" s="96"/>
-      <c r="D24" s="71"/>
-      <c r="E24" s="97"/>
+      <c r="A24" s="92"/>
+      <c r="B24" s="92"/>
+      <c r="C24" s="92"/>
+      <c r="D24" s="72"/>
+      <c r="E24" s="93"/>
       <c r="F24" s="43" t="s">
         <v>621</v>
       </c>
@@ -8209,11 +8302,11 @@
       </c>
     </row>
     <row r="25" spans="1:7" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A25" s="96"/>
-      <c r="B25" s="96"/>
-      <c r="C25" s="96"/>
-      <c r="D25" s="72"/>
-      <c r="E25" s="97"/>
+      <c r="A25" s="92"/>
+      <c r="B25" s="92"/>
+      <c r="C25" s="92"/>
+      <c r="D25" s="73"/>
+      <c r="E25" s="93"/>
       <c r="F25" s="43" t="s">
         <v>622</v>
       </c>
@@ -8222,19 +8315,19 @@
       </c>
     </row>
     <row r="26" spans="1:7" ht="40.5" x14ac:dyDescent="0.2">
-      <c r="A26" s="96" t="s">
-        <v>68</v>
-      </c>
-      <c r="B26" s="96" t="s">
+      <c r="A26" s="92" t="s">
+        <v>68</v>
+      </c>
+      <c r="B26" s="92" t="s">
         <v>626</v>
       </c>
-      <c r="C26" s="96" t="s">
+      <c r="C26" s="92" t="s">
         <v>9</v>
       </c>
-      <c r="D26" s="70">
+      <c r="D26" s="71">
         <v>4</v>
       </c>
-      <c r="E26" s="97" t="s">
+      <c r="E26" s="93" t="s">
         <v>627</v>
       </c>
       <c r="F26" s="43" t="s">
@@ -8245,11 +8338,11 @@
       </c>
     </row>
     <row r="27" spans="1:7" ht="60.75" x14ac:dyDescent="0.2">
-      <c r="A27" s="96"/>
-      <c r="B27" s="96"/>
-      <c r="C27" s="96"/>
-      <c r="D27" s="71"/>
-      <c r="E27" s="97"/>
+      <c r="A27" s="92"/>
+      <c r="B27" s="92"/>
+      <c r="C27" s="92"/>
+      <c r="D27" s="72"/>
+      <c r="E27" s="93"/>
       <c r="F27" s="43" t="s">
         <v>629</v>
       </c>
@@ -8258,11 +8351,11 @@
       </c>
     </row>
     <row r="28" spans="1:7" ht="81" x14ac:dyDescent="0.2">
-      <c r="A28" s="96"/>
-      <c r="B28" s="96"/>
-      <c r="C28" s="96"/>
-      <c r="D28" s="72"/>
-      <c r="E28" s="97"/>
+      <c r="A28" s="92"/>
+      <c r="B28" s="92"/>
+      <c r="C28" s="92"/>
+      <c r="D28" s="73"/>
+      <c r="E28" s="93"/>
       <c r="F28" s="43" t="s">
         <v>630</v>
       </c>
@@ -8294,19 +8387,19 @@
       </c>
     </row>
     <row r="30" spans="1:7" ht="60.75" x14ac:dyDescent="0.2">
-      <c r="A30" s="96" t="s">
-        <v>68</v>
-      </c>
-      <c r="B30" s="96" t="s">
+      <c r="A30" s="92" t="s">
+        <v>68</v>
+      </c>
+      <c r="B30" s="92" t="s">
         <v>636</v>
       </c>
-      <c r="C30" s="96" t="s">
+      <c r="C30" s="92" t="s">
         <v>9</v>
       </c>
-      <c r="D30" s="70">
+      <c r="D30" s="71">
         <v>4</v>
       </c>
-      <c r="E30" s="97" t="s">
+      <c r="E30" s="93" t="s">
         <v>68</v>
       </c>
       <c r="F30" s="43" t="s">
@@ -8317,11 +8410,11 @@
       </c>
     </row>
     <row r="31" spans="1:7" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A31" s="96"/>
-      <c r="B31" s="96"/>
-      <c r="C31" s="96"/>
-      <c r="D31" s="71"/>
-      <c r="E31" s="97"/>
+      <c r="A31" s="92"/>
+      <c r="B31" s="92"/>
+      <c r="C31" s="92"/>
+      <c r="D31" s="72"/>
+      <c r="E31" s="93"/>
       <c r="F31" s="43" t="s">
         <v>638</v>
       </c>
@@ -8330,19 +8423,19 @@
       </c>
     </row>
     <row r="32" spans="1:7" ht="40.5" x14ac:dyDescent="0.2">
-      <c r="A32" s="96" t="s">
-        <v>68</v>
-      </c>
-      <c r="B32" s="96" t="s">
+      <c r="A32" s="92" t="s">
+        <v>68</v>
+      </c>
+      <c r="B32" s="92" t="s">
         <v>641</v>
       </c>
-      <c r="C32" s="96" t="s">
+      <c r="C32" s="92" t="s">
         <v>9</v>
       </c>
-      <c r="D32" s="70">
+      <c r="D32" s="71">
         <v>3</v>
       </c>
-      <c r="E32" s="97" t="s">
+      <c r="E32" s="93" t="s">
         <v>642</v>
       </c>
       <c r="F32" s="43" t="s">
@@ -8353,11 +8446,11 @@
       </c>
     </row>
     <row r="33" spans="1:7" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A33" s="96"/>
-      <c r="B33" s="96"/>
-      <c r="C33" s="96"/>
-      <c r="D33" s="71"/>
-      <c r="E33" s="97"/>
+      <c r="A33" s="92"/>
+      <c r="B33" s="92"/>
+      <c r="C33" s="92"/>
+      <c r="D33" s="72"/>
+      <c r="E33" s="93"/>
       <c r="F33" s="43" t="s">
         <v>643</v>
       </c>
@@ -8366,270 +8459,270 @@
       </c>
     </row>
     <row r="34" spans="1:7" ht="60.75" x14ac:dyDescent="0.2">
-      <c r="A34" s="102" t="s">
-        <v>68</v>
-      </c>
-      <c r="B34" s="102" t="s">
+      <c r="A34" s="98" t="s">
+        <v>68</v>
+      </c>
+      <c r="B34" s="98" t="s">
         <v>646</v>
       </c>
-      <c r="C34" s="102" t="s">
+      <c r="C34" s="98" t="s">
         <v>647</v>
       </c>
-      <c r="D34" s="103">
+      <c r="D34" s="99">
         <v>6</v>
       </c>
-      <c r="E34" s="104" t="s">
+      <c r="E34" s="102" t="s">
         <v>648</v>
       </c>
-      <c r="F34" s="105" t="s">
+      <c r="F34" s="49" t="s">
         <v>649</v>
       </c>
-      <c r="G34" s="106" t="s">
+      <c r="G34" s="50" t="s">
         <v>653</v>
       </c>
     </row>
     <row r="35" spans="1:7" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A35" s="102"/>
-      <c r="B35" s="102"/>
-      <c r="C35" s="102"/>
-      <c r="D35" s="107"/>
-      <c r="E35" s="104"/>
-      <c r="F35" s="105" t="s">
+      <c r="A35" s="98"/>
+      <c r="B35" s="98"/>
+      <c r="C35" s="98"/>
+      <c r="D35" s="100"/>
+      <c r="E35" s="102"/>
+      <c r="F35" s="49" t="s">
         <v>650</v>
       </c>
-      <c r="G35" s="106" t="s">
+      <c r="G35" s="50" t="s">
         <v>654</v>
       </c>
     </row>
     <row r="36" spans="1:7" ht="40.5" x14ac:dyDescent="0.2">
-      <c r="A36" s="102"/>
-      <c r="B36" s="102"/>
-      <c r="C36" s="102"/>
-      <c r="D36" s="107"/>
-      <c r="E36" s="104"/>
-      <c r="F36" s="105" t="s">
+      <c r="A36" s="98"/>
+      <c r="B36" s="98"/>
+      <c r="C36" s="98"/>
+      <c r="D36" s="100"/>
+      <c r="E36" s="102"/>
+      <c r="F36" s="49" t="s">
         <v>651</v>
       </c>
-      <c r="G36" s="106" t="s">
+      <c r="G36" s="50" t="s">
         <v>662</v>
       </c>
     </row>
     <row r="37" spans="1:7" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A37" s="102"/>
-      <c r="B37" s="102"/>
-      <c r="C37" s="102"/>
-      <c r="D37" s="108"/>
-      <c r="E37" s="104"/>
-      <c r="F37" s="105" t="s">
+      <c r="A37" s="98"/>
+      <c r="B37" s="98"/>
+      <c r="C37" s="98"/>
+      <c r="D37" s="101"/>
+      <c r="E37" s="102"/>
+      <c r="F37" s="49" t="s">
         <v>652</v>
       </c>
-      <c r="G37" s="106" t="s">
+      <c r="G37" s="50" t="s">
         <v>655</v>
       </c>
     </row>
     <row r="38" spans="1:7" ht="40.5" x14ac:dyDescent="0.2">
-      <c r="A38" s="102" t="s">
-        <v>68</v>
-      </c>
-      <c r="B38" s="102" t="s">
+      <c r="A38" s="98" t="s">
+        <v>68</v>
+      </c>
+      <c r="B38" s="98" t="s">
         <v>667</v>
       </c>
-      <c r="C38" s="102" t="s">
+      <c r="C38" s="98" t="s">
         <v>647</v>
       </c>
-      <c r="D38" s="103">
+      <c r="D38" s="99">
         <v>3</v>
       </c>
-      <c r="E38" s="104" t="s">
+      <c r="E38" s="102" t="s">
         <v>668</v>
       </c>
-      <c r="F38" s="105" t="s">
+      <c r="F38" s="49" t="s">
         <v>663</v>
       </c>
-      <c r="G38" s="106" t="s">
+      <c r="G38" s="50" t="s">
         <v>666</v>
       </c>
     </row>
     <row r="39" spans="1:7" ht="40.5" x14ac:dyDescent="0.2">
-      <c r="A39" s="102"/>
-      <c r="B39" s="102"/>
-      <c r="C39" s="102"/>
-      <c r="D39" s="107"/>
-      <c r="E39" s="104"/>
-      <c r="F39" s="105" t="s">
+      <c r="A39" s="98"/>
+      <c r="B39" s="98"/>
+      <c r="C39" s="98"/>
+      <c r="D39" s="100"/>
+      <c r="E39" s="102"/>
+      <c r="F39" s="49" t="s">
         <v>140</v>
       </c>
-      <c r="G39" s="106" t="s">
+      <c r="G39" s="50" t="s">
         <v>665</v>
       </c>
     </row>
     <row r="40" spans="1:7" ht="40.5" x14ac:dyDescent="0.2">
-      <c r="A40" s="102"/>
-      <c r="B40" s="102"/>
-      <c r="C40" s="102"/>
-      <c r="D40" s="108"/>
-      <c r="E40" s="104"/>
-      <c r="F40" s="105" t="s">
+      <c r="A40" s="98"/>
+      <c r="B40" s="98"/>
+      <c r="C40" s="98"/>
+      <c r="D40" s="101"/>
+      <c r="E40" s="102"/>
+      <c r="F40" s="49" t="s">
         <v>139</v>
       </c>
-      <c r="G40" s="106" t="s">
+      <c r="G40" s="50" t="s">
         <v>664</v>
       </c>
     </row>
     <row r="41" spans="1:7" ht="60.75" x14ac:dyDescent="0.2">
-      <c r="A41" s="102" t="s">
-        <v>68</v>
-      </c>
-      <c r="B41" s="102" t="s">
+      <c r="A41" s="98" t="s">
+        <v>68</v>
+      </c>
+      <c r="B41" s="98" t="s">
         <v>252</v>
       </c>
-      <c r="C41" s="102" t="s">
+      <c r="C41" s="98" t="s">
         <v>647</v>
       </c>
-      <c r="D41" s="103">
+      <c r="D41" s="99">
         <v>5</v>
       </c>
-      <c r="E41" s="104" t="s">
+      <c r="E41" s="102" t="s">
         <v>669</v>
       </c>
-      <c r="F41" s="105" t="s">
+      <c r="F41" s="49" t="s">
         <v>670</v>
       </c>
-      <c r="G41" s="106" t="s">
+      <c r="G41" s="50" t="s">
         <v>672</v>
       </c>
     </row>
     <row r="42" spans="1:7" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A42" s="102"/>
-      <c r="B42" s="102"/>
-      <c r="C42" s="102"/>
-      <c r="D42" s="108"/>
-      <c r="E42" s="104"/>
-      <c r="F42" s="105" t="s">
+      <c r="A42" s="98"/>
+      <c r="B42" s="98"/>
+      <c r="C42" s="98"/>
+      <c r="D42" s="101"/>
+      <c r="E42" s="102"/>
+      <c r="F42" s="49" t="s">
         <v>671</v>
       </c>
-      <c r="G42" s="106" t="s">
+      <c r="G42" s="50" t="s">
         <v>673</v>
       </c>
     </row>
     <row r="43" spans="1:7" ht="60.75" x14ac:dyDescent="0.2">
-      <c r="A43" s="102" t="s">
-        <v>68</v>
-      </c>
-      <c r="B43" s="102" t="s">
+      <c r="A43" s="98" t="s">
+        <v>68</v>
+      </c>
+      <c r="B43" s="98" t="s">
         <v>674</v>
       </c>
-      <c r="C43" s="102" t="s">
+      <c r="C43" s="98" t="s">
         <v>647</v>
       </c>
-      <c r="D43" s="103">
+      <c r="D43" s="99">
         <v>3</v>
       </c>
-      <c r="E43" s="104" t="s">
+      <c r="E43" s="102" t="s">
         <v>675</v>
       </c>
-      <c r="F43" s="105" t="s">
+      <c r="F43" s="49" t="s">
         <v>676</v>
       </c>
-      <c r="G43" s="106" t="s">
+      <c r="G43" s="50" t="s">
         <v>678</v>
       </c>
     </row>
     <row r="44" spans="1:7" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A44" s="102"/>
-      <c r="B44" s="102"/>
-      <c r="C44" s="102"/>
-      <c r="D44" s="108"/>
-      <c r="E44" s="104"/>
-      <c r="F44" s="105" t="s">
+      <c r="A44" s="98"/>
+      <c r="B44" s="98"/>
+      <c r="C44" s="98"/>
+      <c r="D44" s="101"/>
+      <c r="E44" s="102"/>
+      <c r="F44" s="49" t="s">
         <v>677</v>
       </c>
-      <c r="G44" s="106" t="s">
+      <c r="G44" s="50" t="s">
         <v>679</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="80">
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="A20:A22"/>
+    <mergeCell ref="B20:B22"/>
+    <mergeCell ref="C20:C22"/>
+    <mergeCell ref="D20:D22"/>
+    <mergeCell ref="E20:E22"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="A14:A16"/>
+    <mergeCell ref="B14:B16"/>
+    <mergeCell ref="C14:C16"/>
+    <mergeCell ref="D14:D16"/>
+    <mergeCell ref="E14:E16"/>
+    <mergeCell ref="A26:A28"/>
+    <mergeCell ref="B26:B28"/>
+    <mergeCell ref="C26:C28"/>
+    <mergeCell ref="D26:D28"/>
+    <mergeCell ref="E26:E28"/>
+    <mergeCell ref="A23:A25"/>
+    <mergeCell ref="B23:B25"/>
+    <mergeCell ref="C23:C25"/>
+    <mergeCell ref="D23:D25"/>
+    <mergeCell ref="E23:E25"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="D30:D31"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="A34:A37"/>
+    <mergeCell ref="B34:B37"/>
+    <mergeCell ref="C34:C37"/>
+    <mergeCell ref="D34:D37"/>
+    <mergeCell ref="E34:E37"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="C32:C33"/>
+    <mergeCell ref="D32:D33"/>
+    <mergeCell ref="E32:E33"/>
+    <mergeCell ref="A38:A40"/>
+    <mergeCell ref="B38:B40"/>
+    <mergeCell ref="C38:C40"/>
+    <mergeCell ref="D38:D40"/>
+    <mergeCell ref="E38:E40"/>
+    <mergeCell ref="A43:A44"/>
+    <mergeCell ref="B43:B44"/>
+    <mergeCell ref="C43:C44"/>
+    <mergeCell ref="D43:D44"/>
+    <mergeCell ref="E43:E44"/>
     <mergeCell ref="A41:A42"/>
     <mergeCell ref="B41:B42"/>
     <mergeCell ref="C41:C42"/>
     <mergeCell ref="D41:D42"/>
     <mergeCell ref="E41:E42"/>
-    <mergeCell ref="A43:A44"/>
-    <mergeCell ref="B43:B44"/>
-    <mergeCell ref="C43:C44"/>
-    <mergeCell ref="D43:D44"/>
-    <mergeCell ref="E43:E44"/>
-    <mergeCell ref="A38:A40"/>
-    <mergeCell ref="B38:B40"/>
-    <mergeCell ref="C38:C40"/>
-    <mergeCell ref="D38:D40"/>
-    <mergeCell ref="E38:E40"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="B32:B33"/>
-    <mergeCell ref="C32:C33"/>
-    <mergeCell ref="D32:D33"/>
-    <mergeCell ref="E32:E33"/>
-    <mergeCell ref="A34:A37"/>
-    <mergeCell ref="B34:B37"/>
-    <mergeCell ref="C34:C37"/>
-    <mergeCell ref="D34:D37"/>
-    <mergeCell ref="E34:E37"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="C30:C31"/>
-    <mergeCell ref="D30:D31"/>
-    <mergeCell ref="E30:E31"/>
-    <mergeCell ref="A23:A25"/>
-    <mergeCell ref="B23:B25"/>
-    <mergeCell ref="C23:C25"/>
-    <mergeCell ref="D23:D25"/>
-    <mergeCell ref="E23:E25"/>
-    <mergeCell ref="A26:A28"/>
-    <mergeCell ref="B26:B28"/>
-    <mergeCell ref="C26:C28"/>
-    <mergeCell ref="D26:D28"/>
-    <mergeCell ref="E26:E28"/>
-    <mergeCell ref="A14:A16"/>
-    <mergeCell ref="B14:B16"/>
-    <mergeCell ref="C14:C16"/>
-    <mergeCell ref="D14:D16"/>
-    <mergeCell ref="E14:E16"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="A20:A22"/>
-    <mergeCell ref="B20:B22"/>
-    <mergeCell ref="C20:C22"/>
-    <mergeCell ref="D20:D22"/>
-    <mergeCell ref="E20:E22"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:E3"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8638,21 +8731,23 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA1E5598-9C7A-4736-9880-1CC4846608C8}">
-  <dimension ref="A1:G31"/>
+  <dimension ref="A1:H37"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="16.375" customWidth="1"/>
+    <col min="2" max="2" width="12.75" customWidth="1"/>
     <col min="4" max="4" width="8.25" customWidth="1"/>
     <col min="5" max="5" width="25" customWidth="1"/>
     <col min="7" max="7" width="85.625" customWidth="1"/>
+    <col min="8" max="8" width="88.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="21" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" ht="21" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -8675,7 +8770,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="60.75" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" ht="60.75" x14ac:dyDescent="0.2">
       <c r="A2" s="39" t="s">
         <v>68</v>
       </c>
@@ -8698,20 +8793,20 @@
         <v>293</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="40.5" x14ac:dyDescent="0.2">
-      <c r="A3" s="84" t="s">
-        <v>68</v>
-      </c>
-      <c r="B3" s="84" t="s">
+    <row r="3" spans="1:8" ht="40.5" x14ac:dyDescent="0.2">
+      <c r="A3" s="63" t="s">
+        <v>68</v>
+      </c>
+      <c r="B3" s="63" t="s">
         <v>294</v>
       </c>
-      <c r="C3" s="84" t="s">
+      <c r="C3" s="63" t="s">
         <v>289</v>
       </c>
-      <c r="D3" s="89">
+      <c r="D3" s="56">
         <v>4</v>
       </c>
-      <c r="E3" s="85" t="s">
+      <c r="E3" s="64" t="s">
         <v>295</v>
       </c>
       <c r="F3" s="40" t="s">
@@ -8721,12 +8816,12 @@
         <v>298</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="21" x14ac:dyDescent="0.2">
-      <c r="A4" s="84"/>
-      <c r="B4" s="84"/>
-      <c r="C4" s="84"/>
-      <c r="D4" s="90"/>
-      <c r="E4" s="85"/>
+    <row r="4" spans="1:8" ht="21" x14ac:dyDescent="0.2">
+      <c r="A4" s="63"/>
+      <c r="B4" s="63"/>
+      <c r="C4" s="63"/>
+      <c r="D4" s="57"/>
+      <c r="E4" s="64"/>
       <c r="F4" s="40" t="s">
         <v>297</v>
       </c>
@@ -8734,564 +8829,700 @@
         <v>299</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="41.25" x14ac:dyDescent="0.2">
-      <c r="A5" s="39" t="s">
-        <v>68</v>
-      </c>
-      <c r="B5" s="39" t="s">
+    <row r="5" spans="1:8" ht="60.75" x14ac:dyDescent="0.2">
+      <c r="A5" s="46" t="s">
+        <v>68</v>
+      </c>
+      <c r="B5" s="46" t="s">
+        <v>691</v>
+      </c>
+      <c r="C5" s="46" t="s">
+        <v>289</v>
+      </c>
+      <c r="D5" s="48">
+        <v>4</v>
+      </c>
+      <c r="E5" s="47" t="s">
+        <v>612</v>
+      </c>
+      <c r="F5" s="47" t="s">
+        <v>692</v>
+      </c>
+      <c r="G5" s="27" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="60.75" x14ac:dyDescent="0.2">
+      <c r="A6" s="46" t="s">
+        <v>68</v>
+      </c>
+      <c r="B6" s="46" t="s">
+        <v>687</v>
+      </c>
+      <c r="C6" s="46" t="s">
+        <v>289</v>
+      </c>
+      <c r="D6" s="48">
+        <v>4</v>
+      </c>
+      <c r="E6" s="47" t="s">
+        <v>688</v>
+      </c>
+      <c r="F6" s="47" t="s">
+        <v>689</v>
+      </c>
+      <c r="G6" s="27" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="40.5" x14ac:dyDescent="0.2">
+      <c r="A7" s="46" t="s">
+        <v>68</v>
+      </c>
+      <c r="B7" s="46" t="s">
+        <v>569</v>
+      </c>
+      <c r="C7" s="46" t="s">
+        <v>289</v>
+      </c>
+      <c r="D7" s="48">
+        <v>4</v>
+      </c>
+      <c r="E7" s="47" t="s">
+        <v>684</v>
+      </c>
+      <c r="F7" s="47" t="s">
+        <v>685</v>
+      </c>
+      <c r="G7" s="27" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="40.5" x14ac:dyDescent="0.2">
+      <c r="A8" s="46" t="s">
+        <v>68</v>
+      </c>
+      <c r="B8" s="46" t="s">
+        <v>680</v>
+      </c>
+      <c r="C8" s="46" t="s">
+        <v>289</v>
+      </c>
+      <c r="D8" s="48">
+        <v>4</v>
+      </c>
+      <c r="E8" s="47" t="s">
+        <v>681</v>
+      </c>
+      <c r="F8" s="47" t="s">
+        <v>682</v>
+      </c>
+      <c r="G8" s="27" t="s">
+        <v>683</v>
+      </c>
+      <c r="H8" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="41.25" x14ac:dyDescent="0.2">
+      <c r="A9" s="39" t="s">
+        <v>68</v>
+      </c>
+      <c r="B9" s="39" t="s">
         <v>122</v>
       </c>
-      <c r="C5" s="39" t="s">
+      <c r="C9" s="39" t="s">
         <v>289</v>
       </c>
-      <c r="D5" s="38">
+      <c r="D9" s="38">
         <v>4</v>
       </c>
-      <c r="E5" s="40" t="s">
+      <c r="E9" s="40" t="s">
         <v>300</v>
       </c>
-      <c r="F5" s="40" t="s">
+      <c r="F9" s="40" t="s">
         <v>301</v>
       </c>
-      <c r="G5" s="27" t="s">
+      <c r="G9" s="27" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="40.5" x14ac:dyDescent="0.2">
-      <c r="A6" s="54" t="s">
-        <v>68</v>
-      </c>
-      <c r="B6" s="54" t="s">
+    <row r="10" spans="1:8" ht="40.5" x14ac:dyDescent="0.2">
+      <c r="A10" s="63" t="s">
+        <v>68</v>
+      </c>
+      <c r="B10" s="63" t="s">
+        <v>694</v>
+      </c>
+      <c r="C10" s="63" t="s">
+        <v>289</v>
+      </c>
+      <c r="D10" s="56">
+        <v>4</v>
+      </c>
+      <c r="E10" s="64" t="s">
+        <v>695</v>
+      </c>
+      <c r="F10" s="47" t="s">
+        <v>696</v>
+      </c>
+      <c r="G10" s="27" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="40.5" x14ac:dyDescent="0.2">
+      <c r="A11" s="63"/>
+      <c r="B11" s="63"/>
+      <c r="C11" s="63"/>
+      <c r="D11" s="57"/>
+      <c r="E11" s="64"/>
+      <c r="F11" s="47" t="s">
+        <v>697</v>
+      </c>
+      <c r="G11" s="27" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="40.5" x14ac:dyDescent="0.2">
+      <c r="A12" s="66" t="s">
+        <v>68</v>
+      </c>
+      <c r="B12" s="66" t="s">
         <v>303</v>
       </c>
-      <c r="C6" s="54" t="s">
+      <c r="C12" s="66" t="s">
         <v>304</v>
       </c>
-      <c r="D6" s="55">
+      <c r="D12" s="80">
         <v>3</v>
       </c>
-      <c r="E6" s="58" t="s">
+      <c r="E12" s="67" t="s">
         <v>305</v>
       </c>
-      <c r="F6" s="31" t="s">
+      <c r="F12" s="31" t="s">
         <v>306</v>
       </c>
-      <c r="G6" s="12" t="s">
+      <c r="G12" s="12" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="21" x14ac:dyDescent="0.2">
-      <c r="A7" s="54"/>
-      <c r="B7" s="54"/>
-      <c r="C7" s="54"/>
-      <c r="D7" s="56"/>
-      <c r="E7" s="58"/>
-      <c r="F7" s="31" t="s">
+    <row r="13" spans="1:8" ht="21" x14ac:dyDescent="0.2">
+      <c r="A13" s="66"/>
+      <c r="B13" s="66"/>
+      <c r="C13" s="66"/>
+      <c r="D13" s="81"/>
+      <c r="E13" s="67"/>
+      <c r="F13" s="31" t="s">
         <v>307</v>
       </c>
-      <c r="G7" s="12" t="s">
+      <c r="G13" s="12" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="21" x14ac:dyDescent="0.2">
-      <c r="A8" s="54"/>
-      <c r="B8" s="54"/>
-      <c r="C8" s="54"/>
-      <c r="D8" s="57"/>
-      <c r="E8" s="58"/>
-      <c r="F8" s="31" t="s">
+    <row r="14" spans="1:8" ht="21" x14ac:dyDescent="0.2">
+      <c r="A14" s="66"/>
+      <c r="B14" s="66"/>
+      <c r="C14" s="66"/>
+      <c r="D14" s="82"/>
+      <c r="E14" s="67"/>
+      <c r="F14" s="31" t="s">
         <v>308</v>
       </c>
-      <c r="G8" s="12" t="s">
+      <c r="G14" s="12" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="40.5" x14ac:dyDescent="0.2">
-      <c r="A9" s="54" t="s">
-        <v>68</v>
-      </c>
-      <c r="B9" s="54" t="s">
+    <row r="15" spans="1:8" ht="40.5" x14ac:dyDescent="0.2">
+      <c r="A15" s="66" t="s">
+        <v>68</v>
+      </c>
+      <c r="B15" s="66" t="s">
         <v>312</v>
       </c>
-      <c r="C9" s="54" t="s">
+      <c r="C15" s="66" t="s">
         <v>304</v>
       </c>
-      <c r="D9" s="55">
+      <c r="D15" s="80">
         <v>3</v>
       </c>
-      <c r="E9" s="58" t="s">
+      <c r="E15" s="67" t="s">
         <v>313</v>
       </c>
-      <c r="F9" s="31" t="s">
+      <c r="F15" s="31" t="s">
         <v>314</v>
       </c>
-      <c r="G9" s="12" t="s">
+      <c r="G15" s="12" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="40.5" x14ac:dyDescent="0.2">
-      <c r="A10" s="54"/>
-      <c r="B10" s="54"/>
-      <c r="C10" s="54"/>
-      <c r="D10" s="56"/>
-      <c r="E10" s="58"/>
-      <c r="F10" s="31" t="s">
+    <row r="16" spans="1:8" ht="40.5" x14ac:dyDescent="0.2">
+      <c r="A16" s="66"/>
+      <c r="B16" s="66"/>
+      <c r="C16" s="66"/>
+      <c r="D16" s="81"/>
+      <c r="E16" s="67"/>
+      <c r="F16" s="31" t="s">
         <v>315</v>
       </c>
-      <c r="G10" s="12" t="s">
+      <c r="G16" s="12" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="60.75" x14ac:dyDescent="0.2">
-      <c r="A11" s="54" t="s">
-        <v>68</v>
-      </c>
-      <c r="B11" s="54" t="s">
+    <row r="17" spans="1:7" ht="60.75" x14ac:dyDescent="0.2">
+      <c r="A17" s="66" t="s">
+        <v>68</v>
+      </c>
+      <c r="B17" s="66" t="s">
         <v>318</v>
       </c>
-      <c r="C11" s="54" t="s">
+      <c r="C17" s="66" t="s">
         <v>304</v>
       </c>
-      <c r="D11" s="55">
+      <c r="D17" s="80">
         <v>3</v>
       </c>
-      <c r="E11" s="58" t="s">
+      <c r="E17" s="67" t="s">
         <v>319</v>
       </c>
-      <c r="F11" s="31" t="s">
+      <c r="F17" s="31" t="s">
         <v>320</v>
       </c>
-      <c r="G11" s="12" t="s">
+      <c r="G17" s="12" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A12" s="54"/>
-      <c r="B12" s="54"/>
-      <c r="C12" s="54"/>
-      <c r="D12" s="56"/>
-      <c r="E12" s="58"/>
-      <c r="F12" s="31" t="s">
+    <row r="18" spans="1:7" ht="20.25" x14ac:dyDescent="0.2">
+      <c r="A18" s="66"/>
+      <c r="B18" s="66"/>
+      <c r="C18" s="66"/>
+      <c r="D18" s="81"/>
+      <c r="E18" s="67"/>
+      <c r="F18" s="31" t="s">
         <v>321</v>
       </c>
-      <c r="G12" s="12" t="s">
+      <c r="G18" s="12" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="40.5" x14ac:dyDescent="0.2">
-      <c r="A13" s="50" t="s">
-        <v>68</v>
-      </c>
-      <c r="B13" s="50" t="s">
+    <row r="19" spans="1:7" ht="40.5" x14ac:dyDescent="0.2">
+      <c r="A19" s="94" t="s">
+        <v>68</v>
+      </c>
+      <c r="B19" s="94" t="s">
         <v>325</v>
       </c>
-      <c r="C13" s="50" t="s">
+      <c r="C19" s="94" t="s">
         <v>324</v>
       </c>
-      <c r="D13" s="51">
+      <c r="D19" s="95">
         <v>3</v>
       </c>
-      <c r="E13" s="53" t="s">
+      <c r="E19" s="97" t="s">
         <v>328</v>
       </c>
-      <c r="F13" s="37" t="s">
+      <c r="F19" s="37" t="s">
         <v>326</v>
       </c>
-      <c r="G13" s="7" t="s">
+      <c r="G19" s="7" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A14" s="50"/>
-      <c r="B14" s="50"/>
-      <c r="C14" s="50"/>
-      <c r="D14" s="98"/>
-      <c r="E14" s="53"/>
-      <c r="F14" s="37" t="s">
+    <row r="20" spans="1:7" ht="20.25" x14ac:dyDescent="0.2">
+      <c r="A20" s="94"/>
+      <c r="B20" s="94"/>
+      <c r="C20" s="94"/>
+      <c r="D20" s="104"/>
+      <c r="E20" s="97"/>
+      <c r="F20" s="37" t="s">
         <v>327</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="40.5" x14ac:dyDescent="0.2">
-      <c r="A15" s="50" t="s">
-        <v>68</v>
-      </c>
-      <c r="B15" s="50" t="s">
+    <row r="21" spans="1:7" ht="40.5" x14ac:dyDescent="0.2">
+      <c r="A21" s="94" t="s">
+        <v>68</v>
+      </c>
+      <c r="B21" s="94" t="s">
         <v>331</v>
       </c>
-      <c r="C15" s="50" t="s">
+      <c r="C21" s="94" t="s">
         <v>324</v>
       </c>
-      <c r="D15" s="51">
+      <c r="D21" s="95">
         <v>3</v>
       </c>
-      <c r="E15" s="53" t="s">
+      <c r="E21" s="97" t="s">
         <v>334</v>
       </c>
-      <c r="F15" s="37" t="s">
+      <c r="F21" s="37" t="s">
         <v>332</v>
       </c>
-      <c r="G15" s="7" t="s">
+      <c r="G21" s="7" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="40.5" x14ac:dyDescent="0.2">
-      <c r="A16" s="50"/>
-      <c r="B16" s="50"/>
-      <c r="C16" s="50"/>
-      <c r="D16" s="98"/>
-      <c r="E16" s="53"/>
-      <c r="F16" s="37" t="s">
+    <row r="22" spans="1:7" ht="40.5" x14ac:dyDescent="0.2">
+      <c r="A22" s="94"/>
+      <c r="B22" s="94"/>
+      <c r="C22" s="94"/>
+      <c r="D22" s="104"/>
+      <c r="E22" s="97"/>
+      <c r="F22" s="37" t="s">
         <v>333</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="G22" s="7" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="40.5" x14ac:dyDescent="0.2">
-      <c r="A17" s="35" t="s">
-        <v>68</v>
-      </c>
-      <c r="B17" s="35" t="s">
+    <row r="23" spans="1:7" ht="40.5" x14ac:dyDescent="0.2">
+      <c r="A23" s="35" t="s">
+        <v>68</v>
+      </c>
+      <c r="B23" s="35" t="s">
         <v>337</v>
       </c>
-      <c r="C17" s="35" t="s">
+      <c r="C23" s="35" t="s">
         <v>324</v>
       </c>
-      <c r="D17" s="36">
+      <c r="D23" s="36">
         <v>4</v>
       </c>
-      <c r="E17" s="37" t="s">
+      <c r="E23" s="37" t="s">
         <v>338</v>
       </c>
-      <c r="F17" s="37" t="s">
+      <c r="F23" s="37" t="s">
         <v>339</v>
       </c>
-      <c r="G17" s="7" t="s">
+      <c r="G23" s="7" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="40.5" x14ac:dyDescent="0.2">
-      <c r="A18" s="50" t="s">
-        <v>68</v>
-      </c>
-      <c r="B18" s="50" t="s">
+    <row r="24" spans="1:7" ht="40.5" x14ac:dyDescent="0.2">
+      <c r="A24" s="94" t="s">
+        <v>68</v>
+      </c>
+      <c r="B24" s="94" t="s">
         <v>331</v>
       </c>
-      <c r="C18" s="50" t="s">
+      <c r="C24" s="94" t="s">
         <v>324</v>
       </c>
-      <c r="D18" s="51">
+      <c r="D24" s="95">
         <v>3</v>
       </c>
-      <c r="E18" s="53" t="s">
+      <c r="E24" s="97" t="s">
         <v>334</v>
       </c>
-      <c r="F18" s="37" t="s">
+      <c r="F24" s="37" t="s">
         <v>332</v>
       </c>
-      <c r="G18" s="7" t="s">
+      <c r="G24" s="7" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="40.5" x14ac:dyDescent="0.2">
-      <c r="A19" s="50"/>
-      <c r="B19" s="50"/>
-      <c r="C19" s="50"/>
-      <c r="D19" s="98"/>
-      <c r="E19" s="53"/>
-      <c r="F19" s="37" t="s">
+    <row r="25" spans="1:7" ht="40.5" x14ac:dyDescent="0.2">
+      <c r="A25" s="94"/>
+      <c r="B25" s="94"/>
+      <c r="C25" s="94"/>
+      <c r="D25" s="104"/>
+      <c r="E25" s="97"/>
+      <c r="F25" s="37" t="s">
         <v>333</v>
       </c>
-      <c r="G19" s="7" t="s">
+      <c r="G25" s="7" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="40.5" x14ac:dyDescent="0.2">
-      <c r="A20" s="47" t="s">
-        <v>68</v>
-      </c>
-      <c r="B20" s="100" t="s">
+    <row r="26" spans="1:7" ht="40.5" x14ac:dyDescent="0.2">
+      <c r="A26" s="88" t="s">
+        <v>68</v>
+      </c>
+      <c r="B26" s="110" t="s">
         <v>377</v>
       </c>
-      <c r="C20" s="47" t="s">
+      <c r="C26" s="88" t="s">
         <v>341</v>
       </c>
-      <c r="D20" s="47">
+      <c r="D26" s="88">
         <v>3</v>
       </c>
-      <c r="E20" s="100" t="s">
+      <c r="E26" s="110" t="s">
         <v>342</v>
       </c>
-      <c r="F20" s="34" t="s">
+      <c r="F26" s="34" t="s">
         <v>343</v>
       </c>
-      <c r="G20" s="4" t="s">
+      <c r="G26" s="4" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="41.25" x14ac:dyDescent="0.2">
-      <c r="A21" s="48"/>
-      <c r="B21" s="48"/>
-      <c r="C21" s="48"/>
-      <c r="D21" s="99"/>
-      <c r="E21" s="101"/>
-      <c r="F21" s="34" t="s">
+    <row r="27" spans="1:7" ht="41.25" x14ac:dyDescent="0.2">
+      <c r="A27" s="89"/>
+      <c r="B27" s="89"/>
+      <c r="C27" s="89"/>
+      <c r="D27" s="103"/>
+      <c r="E27" s="111"/>
+      <c r="F27" s="34" t="s">
         <v>344</v>
       </c>
-      <c r="G21" s="4" t="s">
+      <c r="G27" s="4" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="40.5" x14ac:dyDescent="0.2">
-      <c r="A22" s="47" t="s">
-        <v>68</v>
-      </c>
-      <c r="B22" s="47" t="s">
+    <row r="28" spans="1:7" ht="40.5" x14ac:dyDescent="0.2">
+      <c r="A28" s="88" t="s">
+        <v>68</v>
+      </c>
+      <c r="B28" s="88" t="s">
         <v>347</v>
       </c>
-      <c r="C22" s="47" t="s">
+      <c r="C28" s="88" t="s">
         <v>341</v>
       </c>
-      <c r="D22" s="47">
+      <c r="D28" s="88">
         <v>3</v>
       </c>
-      <c r="E22" s="100" t="s">
+      <c r="E28" s="110" t="s">
         <v>348</v>
       </c>
-      <c r="F22" s="34" t="s">
+      <c r="F28" s="34" t="s">
         <v>349</v>
       </c>
-      <c r="G22" s="4" t="s">
+      <c r="G28" s="4" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="40.5" x14ac:dyDescent="0.2">
-      <c r="A23" s="48"/>
-      <c r="B23" s="48"/>
-      <c r="C23" s="48"/>
-      <c r="D23" s="99"/>
-      <c r="E23" s="101"/>
-      <c r="F23" s="34" t="s">
+    <row r="29" spans="1:7" ht="40.5" x14ac:dyDescent="0.2">
+      <c r="A29" s="89"/>
+      <c r="B29" s="89"/>
+      <c r="C29" s="89"/>
+      <c r="D29" s="103"/>
+      <c r="E29" s="111"/>
+      <c r="F29" s="34" t="s">
         <v>350</v>
       </c>
-      <c r="G23" s="4" t="s">
+      <c r="G29" s="4" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="40.5" x14ac:dyDescent="0.2">
-      <c r="A24" s="47" t="s">
-        <v>68</v>
-      </c>
-      <c r="B24" s="47" t="s">
+    <row r="30" spans="1:7" ht="40.5" x14ac:dyDescent="0.2">
+      <c r="A30" s="88" t="s">
+        <v>68</v>
+      </c>
+      <c r="B30" s="88" t="s">
         <v>353</v>
       </c>
-      <c r="C24" s="47" t="s">
+      <c r="C30" s="88" t="s">
         <v>341</v>
       </c>
-      <c r="D24" s="47">
+      <c r="D30" s="88">
         <v>3</v>
       </c>
-      <c r="E24" s="100" t="s">
+      <c r="E30" s="110" t="s">
         <v>354</v>
       </c>
-      <c r="F24" s="34" t="s">
+      <c r="F30" s="34" t="s">
         <v>355</v>
       </c>
-      <c r="G24" s="4" t="s">
+      <c r="G30" s="4" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="40.5" x14ac:dyDescent="0.2">
-      <c r="A25" s="48"/>
-      <c r="B25" s="48"/>
-      <c r="C25" s="48"/>
-      <c r="D25" s="99"/>
-      <c r="E25" s="101"/>
-      <c r="F25" s="34" t="s">
+    <row r="31" spans="1:7" ht="40.5" x14ac:dyDescent="0.2">
+      <c r="A31" s="89"/>
+      <c r="B31" s="89"/>
+      <c r="C31" s="89"/>
+      <c r="D31" s="103"/>
+      <c r="E31" s="111"/>
+      <c r="F31" s="34" t="s">
         <v>356</v>
       </c>
-      <c r="G25" s="4" t="s">
+      <c r="G31" s="4" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A26" s="62" t="s">
-        <v>68</v>
-      </c>
-      <c r="B26" s="62" t="s">
+    <row r="32" spans="1:7" ht="20.25" x14ac:dyDescent="0.2">
+      <c r="A32" s="105" t="s">
+        <v>68</v>
+      </c>
+      <c r="B32" s="105" t="s">
         <v>360</v>
       </c>
-      <c r="C26" s="62" t="s">
+      <c r="C32" s="105" t="s">
         <v>359</v>
       </c>
-      <c r="D26" s="62">
+      <c r="D32" s="105">
         <v>3</v>
       </c>
-      <c r="E26" s="59" t="s">
+      <c r="E32" s="108" t="s">
         <v>361</v>
       </c>
-      <c r="F26" s="28" t="s">
+      <c r="F32" s="28" t="s">
         <v>362</v>
       </c>
-      <c r="G26" s="9" t="s">
+      <c r="G32" s="9" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="21" x14ac:dyDescent="0.2">
-      <c r="A27" s="64"/>
-      <c r="B27" s="64"/>
-      <c r="C27" s="64"/>
-      <c r="D27" s="63"/>
-      <c r="E27" s="60"/>
-      <c r="F27" s="28" t="s">
+    <row r="33" spans="1:7" ht="21" x14ac:dyDescent="0.2">
+      <c r="A33" s="106"/>
+      <c r="B33" s="106"/>
+      <c r="C33" s="106"/>
+      <c r="D33" s="107"/>
+      <c r="E33" s="109"/>
+      <c r="F33" s="28" t="s">
         <v>363</v>
       </c>
-      <c r="G27" s="9" t="s">
+      <c r="G33" s="9" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A28" s="62" t="s">
-        <v>68</v>
-      </c>
-      <c r="B28" s="62" t="s">
+    <row r="34" spans="1:7" ht="20.25" x14ac:dyDescent="0.2">
+      <c r="A34" s="105" t="s">
+        <v>68</v>
+      </c>
+      <c r="B34" s="105" t="s">
         <v>366</v>
       </c>
-      <c r="C28" s="62" t="s">
+      <c r="C34" s="105" t="s">
         <v>359</v>
       </c>
-      <c r="D28" s="62">
+      <c r="D34" s="105">
         <v>3</v>
       </c>
-      <c r="E28" s="59" t="s">
+      <c r="E34" s="108" t="s">
         <v>367</v>
       </c>
-      <c r="F28" s="28" t="s">
+      <c r="F34" s="28" t="s">
         <v>368</v>
       </c>
-      <c r="G28" s="9" t="s">
+      <c r="G34" s="9" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="40.5" x14ac:dyDescent="0.2">
-      <c r="A29" s="64"/>
-      <c r="B29" s="64"/>
-      <c r="C29" s="64"/>
-      <c r="D29" s="63"/>
-      <c r="E29" s="60"/>
-      <c r="F29" s="28" t="s">
+    <row r="35" spans="1:7" ht="40.5" x14ac:dyDescent="0.2">
+      <c r="A35" s="106"/>
+      <c r="B35" s="106"/>
+      <c r="C35" s="106"/>
+      <c r="D35" s="107"/>
+      <c r="E35" s="109"/>
+      <c r="F35" s="28" t="s">
         <v>369</v>
       </c>
-      <c r="G29" s="9" t="s">
+      <c r="G35" s="9" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="40.5" x14ac:dyDescent="0.2">
-      <c r="A30" s="62" t="s">
-        <v>68</v>
-      </c>
-      <c r="B30" s="62" t="s">
+    <row r="36" spans="1:7" ht="40.5" x14ac:dyDescent="0.2">
+      <c r="A36" s="105" t="s">
+        <v>68</v>
+      </c>
+      <c r="B36" s="105" t="s">
         <v>372</v>
       </c>
-      <c r="C30" s="62" t="s">
+      <c r="C36" s="105" t="s">
         <v>359</v>
       </c>
-      <c r="D30" s="62">
+      <c r="D36" s="105">
         <v>3</v>
       </c>
-      <c r="E30" s="59" t="s">
+      <c r="E36" s="108" t="s">
         <v>373</v>
       </c>
-      <c r="F30" s="28" t="s">
+      <c r="F36" s="28" t="s">
         <v>374</v>
       </c>
-      <c r="G30" s="9" t="s">
+      <c r="G36" s="9" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A31" s="64"/>
-      <c r="B31" s="64"/>
-      <c r="C31" s="64"/>
-      <c r="D31" s="63"/>
-      <c r="E31" s="60"/>
-      <c r="F31" s="28" t="s">
+    <row r="37" spans="1:7" ht="20.25" x14ac:dyDescent="0.2">
+      <c r="A37" s="106"/>
+      <c r="B37" s="106"/>
+      <c r="C37" s="106"/>
+      <c r="D37" s="106"/>
+      <c r="E37" s="109"/>
+      <c r="F37" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="G31" s="9" t="s">
+      <c r="G37" s="9" t="s">
         <v>376</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="65">
+  <mergeCells count="70">
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="A12:A14"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="C12:C14"/>
+    <mergeCell ref="D12:D14"/>
+    <mergeCell ref="E12:E14"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="D28:D29"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="C32:C33"/>
+    <mergeCell ref="D32:D33"/>
+    <mergeCell ref="E32:E33"/>
     <mergeCell ref="A30:A31"/>
     <mergeCell ref="B30:B31"/>
     <mergeCell ref="C30:C31"/>
     <mergeCell ref="D30:D31"/>
     <mergeCell ref="E30:E31"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="D28:D29"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="D24:D25"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="D26:D27"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="B6:B8"/>
-    <mergeCell ref="C6:C8"/>
-    <mergeCell ref="D6:D8"/>
-    <mergeCell ref="E6:E8"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="C34:C35"/>
+    <mergeCell ref="D34:D35"/>
+    <mergeCell ref="E34:E35"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="C36:C37"/>
+    <mergeCell ref="D36:D37"/>
+    <mergeCell ref="E36:E37"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
